--- a/discrepancies.xlsx
+++ b/discrepancies.xlsx
@@ -946,17 +946,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>eft:dipamkarasrijnana</t>
+          <t>eft:gewai-lodr-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dīpaṃkaraśrījñāna</t>
+          <t>Gewai Lodrö</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>{'P3379': ['rgya gar gyi mkhan po dI paM ka ra shrI dz+nyA na', 'slob dpon mar med mdzad bzang po/', 'dīpaṁkaraśrijñāna,atīśa'], 'P1242': ["lo ts+tsha ba dge slong dge ba'i blo gros", "rma dge ba'i blo gros"]}</t>
+          <t>{'P3379': ['rgya gar gyi mkhan po dI paM ka ra shrI dz+nyA na', 'slob dpon mar med mdzad bzang po/', 'Atiśa Dīpaṃkaraśrījñāna'], 'P1242': ["lo ts+tsha ba dge slong dge ba'i blo gros", "rma dge ba'i blo gros"]}</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>{'P3379': ['rgya gar gyi mkhan po chen po dI paM ka ra shrIdz+nyA na', 'slob dpon mar med mdzad bzang po/', 'dīpaṁkaraśrijñāna,atīśa'], 'P1242': ["lots+tsha ba dge slong dge ba'i blo gros", "rma dge ba'i blo gros"], 'P3456': ['dge slong tshul khrims rgyal ba', "nag 'tsho lo tsA ba tshul khrims rgyal ba/"]}</t>
+          <t>{'P3379': ['rgya gar gyi mkhan po chen po dI paM ka ra shrIdz+nyA na', 'slob dpon mar med mdzad bzang po/', 'Atiśa Dīpaṃkaraśrījñāna'], 'P1242': ["lots+tsha ba dge slong dge ba'i blo gros", "rma dge ba'i blo gros"], 'P3456': ['dge slong tshul khrims rgyal ba', "nag 'tsho lo tsA ba tshul khrims rgyal ba/"]}</t>
         </is>
       </c>
     </row>
@@ -14000,7 +14000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16076,22 +16076,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:dipamkarasrijnana</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Dīpaṃkaraśrījñāna</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P3379</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -16111,22 +16111,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -16151,17 +16151,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -16186,17 +16186,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>eft:buddhaprabha</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Buddhaprabha</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>P8268</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -16221,17 +16221,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:buddhaprabha</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Buddhaprabha</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8268</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -16241,7 +16241,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -16251,22 +16251,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -16276,7 +16276,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -16291,17 +16291,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -16321,22 +16321,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -16346,7 +16346,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -16361,17 +16361,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>eft:munivarman</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Munivarman</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>P8261</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -16391,22 +16391,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:munivarman</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Munivarman</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P8261</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -16426,22 +16426,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>revisor</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -16466,17 +16466,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>eft:dgon-gling-rma</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>dgon gling rma</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>P8269</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -16496,22 +16496,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>eft:dpal-gyi-lhun-po</t>
+          <t>eft:dgon-gling-rma</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>dpal gyi lhun po</t>
+          <t>dgon gling rma</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>P4259</t>
+          <t>P8269</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -16521,7 +16521,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>revisor</t>
         </is>
       </c>
     </row>
@@ -16536,17 +16536,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>eft:dpal-brtsegs</t>
+          <t>eft:dpal-gyi-lhun-po</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>dpal brtsegs</t>
+          <t>dpal gyi lhun po</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>P8182</t>
+          <t>P4259</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -16566,22 +16566,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>157</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:dpal-brtsegs</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>dpal brtsegs</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8182</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -16606,17 +16606,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -16636,22 +16636,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>158</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -16676,17 +16676,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -16706,22 +16706,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>P4CZ16819</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -16746,17 +16746,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P4CZ16819</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -16781,17 +16781,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>eft:dharmatasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Dharmatāśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>P8266</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -16801,7 +16801,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -16811,22 +16811,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:dharmatasila</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Dharmatāśīla</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8266</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -16851,17 +16851,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -16881,22 +16881,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>eft:ye-shes-snying-po</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ye shes snying po</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>P4255</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -16921,27 +16921,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>eft:dpal-brtsegs</t>
+          <t>eft:ye-shes-snying-po</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>dpal brtsegs</t>
+          <t>ye shes snying po</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>P8182</t>
+          <t>P4255</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>reviser</t>
+          <t>translatorTib</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>revisor</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -16951,32 +16951,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>163</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>eft:visuddhasimha</t>
+          <t>eft:dpal-brtsegs</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Viśuddhasiṃha</t>
+          <t>dpal brtsegs</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>P8219</t>
+          <t>P8182</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>translatorTib</t>
+          <t>reviser</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>revisor</t>
         </is>
       </c>
     </row>
@@ -16991,17 +16991,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>eft:dge-ba-dpal</t>
+          <t>eft:visuddhasimha</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>dge ba dpal</t>
+          <t>Viśuddhasiṃha</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>P4263</t>
+          <t>P8219</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -17011,7 +17011,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17026,17 +17026,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>eft:devacandra</t>
+          <t>eft:dge-ba-dpal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Devacandra</t>
+          <t>dge ba dpal</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>P8220</t>
+          <t>P4263</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -17046,7 +17046,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>revisor</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17056,22 +17056,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:devacandra</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Devacandra</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8220</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -17081,7 +17081,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>revisor</t>
         </is>
       </c>
     </row>
@@ -17096,17 +17096,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -17116,7 +17116,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17126,22 +17126,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>165</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -17151,7 +17151,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17166,17 +17166,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17196,22 +17196,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -17221,7 +17221,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17236,17 +17236,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17266,22 +17266,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17306,17 +17306,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -17341,17 +17341,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -17361,7 +17361,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17371,22 +17371,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -17396,7 +17396,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17411,17 +17411,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -17431,7 +17431,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17441,22 +17441,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -17466,7 +17466,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17481,17 +17481,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -17511,22 +17511,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>171</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>eft:kamalagupta</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>kamalagupta</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>P8093</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -17551,17 +17551,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>eft:rin-chen-bzang-po</t>
+          <t>eft:kamalagupta</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>rin chen bzang po</t>
+          <t>kamalagupta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>P753</t>
+          <t>P8093</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -17571,7 +17571,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17581,22 +17581,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>173</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:rin-chen-bzang-po</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>surendrabodhi</t>
+          <t>rin chen bzang po</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P753</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17606,7 +17606,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17621,17 +17621,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>surendrabodhi</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17651,22 +17651,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>177</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -17676,7 +17676,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17691,17 +17691,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -17711,7 +17711,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17721,22 +17721,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>178</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>P4CZ16819</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17761,17 +17761,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P4CZ16819</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -17796,17 +17796,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>eft:dharmatasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Dharmatāśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>P8266</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -17816,7 +17816,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17826,22 +17826,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>179</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>eft:rin-chen-tsho</t>
+          <t>eft:dharmatasila</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>rin chen 'tsho</t>
+          <t>Dharmatāśīla</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>P8273</t>
+          <t>P8266</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -17861,22 +17861,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>180</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:rin-chen-tsho</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>rin chen 'tsho</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8273</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -17886,7 +17886,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17896,22 +17896,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>182</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -17936,17 +17936,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -17966,22 +17966,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>184</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>eft:jnanagarbha</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Jñānagarbha</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>P8217</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -18001,22 +18001,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>185</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jnanagarbha</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jñānagarbha</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P8217</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -18036,7 +18036,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>196</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -18071,22 +18071,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>212</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -18111,17 +18111,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -18141,22 +18141,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>eft:sarvajnadeva</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Sarvajñādeva</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>P00KG07267</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -18176,22 +18176,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>eft:vijayasila</t>
+          <t>eft:sarvajnadeva</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Vijayaśīla</t>
+          <t>Sarvajñādeva</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>P8267</t>
+          <t>P00KG07267</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -18216,17 +18216,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:vijayasila</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Vijayaśīla</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>P1KG8854</t>
+          <t>P8267</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -18251,17 +18251,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P1KG8854</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -18271,7 +18271,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -18281,22 +18281,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>eft:hwa-shang-zab-mo</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>hwa shang zab mo</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>P0TMP080</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -18306,7 +18306,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -18321,17 +18321,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>eft:rnam-par-mi-rtog-pa</t>
+          <t>eft:hwa-shang-zab-mo</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>rnam par mi rtog pa</t>
+          <t>hwa shang zab mo</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>P0TMPT007</t>
+          <t>P0TMP080</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -18351,22 +18351,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>eft:munivarma</t>
+          <t>eft:rnam-par-mi-rtog-pa</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>munivarma</t>
+          <t>rnam par mi rtog pa</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>P8261</t>
+          <t>P0TMPT007</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -18391,17 +18391,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:munivarma</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>munivarma</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8261</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -18411,7 +18411,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -18421,22 +18421,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>eft:rnam-par-mi-rtog-pa</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>rnam par mi rtog pa</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>P0TMPT007</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -18446,7 +18446,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -18456,22 +18456,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:rnam-par-mi-rtog-pa</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>rnam par mi rtog pa</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P0TMPT007</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -18491,7 +18491,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -18526,22 +18526,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -18561,22 +18561,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -18596,22 +18596,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>P4CZ16819</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -18636,17 +18636,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>eft:ratnaraksita</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Ratnarakṣita</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>P8265</t>
+          <t>P4CZ16819</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -18666,22 +18666,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:ratnaraksita</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Ratnarakṣita</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8265</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -18706,17 +18706,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -18736,22 +18736,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>273</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -18776,17 +18776,17 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -18806,22 +18806,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>511</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -18846,17 +18846,17 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -18876,22 +18876,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>853</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -18911,7 +18911,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>309</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>628</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -18981,22 +18981,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -19021,17 +19021,17 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>eft:devacandra</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Devacandra</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>P8220</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -19051,22 +19051,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>347</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>eft:dharmasribhadra</t>
+          <t>eft:devacandra</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Dharmaśrībhadra</t>
+          <t>Devacandra</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>P8171</t>
+          <t>P8220</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -19086,22 +19086,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>349</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>eft:gayadhara</t>
+          <t>eft:dharmasribhadra</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Gayādhara</t>
+          <t>Dharmaśrībhadra</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>P8151</t>
+          <t>P8171</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -19121,22 +19121,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>384</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>eft:krsnapandita</t>
+          <t>eft:gayadhara</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Kṛṣnapaṇḍita</t>
+          <t>Gayādhara</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>P2956</t>
+          <t>P8151</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -19161,17 +19161,17 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>eft:tshul-khrims-rgyal-ba</t>
+          <t>eft:krsnapandita</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>tshul khrims rgyal ba</t>
+          <t>Kṛṣnapaṇḍita</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>P3456</t>
+          <t>P2956</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -19181,7 +19181,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -19191,22 +19191,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>437</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>eft:celu</t>
+          <t>eft:tshul-khrims-rgyal-ba</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Celu</t>
+          <t>tshul khrims rgyal ba</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>P8206</t>
+          <t>P3456</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -19216,7 +19216,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -19226,22 +19226,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>498</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:celu</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Celu</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8206</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -19266,17 +19266,17 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -19301,17 +19301,17 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>P1KG8854</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -19331,22 +19331,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>503</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P1KG8854</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -19371,17 +19371,17 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -19401,22 +19401,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>504</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -19441,17 +19441,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -19471,22 +19471,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>513</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -19511,17 +19511,17 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -19541,22 +19541,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -19581,17 +19581,17 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -19611,22 +19611,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>854</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -19651,17 +19651,17 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -19681,22 +19681,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>515</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -19721,17 +19721,17 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -19751,22 +19751,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>855</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>eft:jnanasiddhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Jñānasiddhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>P8222</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -19791,17 +19791,17 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:jnanasiddhi</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>Jñānasiddhi</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>P4CZ16819</t>
+          <t>P8222</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -19821,22 +19821,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>558</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>P1KG8854</t>
+          <t>P4CZ16819</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -19861,17 +19861,17 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>eft:jnanasiddhi</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Jñānasiddhi</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>P8222</t>
+          <t>P1KG8854</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -19896,17 +19896,17 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:jnanasiddhi</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>Jñānasiddhi</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>P4CZ16819</t>
+          <t>P8222</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -19926,22 +19926,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>563</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P4CZ16819</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -19966,17 +19966,17 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -19986,7 +19986,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -19996,22 +19996,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>859</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>eft:punyasambhava</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>punyasambhava</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>P0TMP104</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -20021,7 +20021,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -20031,22 +20031,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>850</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:punyasambhava</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>punyasambhava</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P0TMP104</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -20071,17 +20071,17 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -20101,30 +20101,65 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>eft:danasila</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Dānaśīla</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>P3214</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>translatorPandita</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
           <t>909</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>eft:danasila</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>Dānaśīla</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>P3214</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>translatorTib</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>translatorPandita</t>
         </is>

--- a/discrepancies.xlsx
+++ b/discrepancies.xlsx
@@ -7707,7 +7707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B602"/>
+  <dimension ref="A1:B609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>toh123</t>
+          <t>toh122</t>
         </is>
       </c>
     </row>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>toh125</t>
+          <t>toh123</t>
         </is>
       </c>
     </row>
@@ -8588,7 +8588,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>toh135</t>
+          <t>toh125</t>
         </is>
       </c>
     </row>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>toh137</t>
+          <t>toh135</t>
         </is>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>toh140</t>
+          <t>toh137</t>
         </is>
       </c>
     </row>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>toh525</t>
+          <t>toh140</t>
         </is>
       </c>
     </row>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>toh141</t>
+          <t>toh525</t>
         </is>
       </c>
     </row>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>toh526</t>
+          <t>toh141</t>
         </is>
       </c>
     </row>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>toh916</t>
+          <t>toh526</t>
         </is>
       </c>
     </row>
@@ -8658,7 +8658,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>toh143</t>
+          <t>toh916</t>
         </is>
       </c>
     </row>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>toh611</t>
+          <t>toh143</t>
         </is>
       </c>
     </row>
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>toh918</t>
+          <t>toh611</t>
         </is>
       </c>
     </row>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>toh149</t>
+          <t>toh918</t>
         </is>
       </c>
     </row>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>toh168</t>
+          <t>toh149</t>
         </is>
       </c>
     </row>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>toh172</t>
+          <t>toh168</t>
         </is>
       </c>
     </row>
@@ -8718,7 +8718,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>toh174</t>
+          <t>toh172</t>
         </is>
       </c>
     </row>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>toh187</t>
+          <t>toh174</t>
         </is>
       </c>
     </row>
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>toh192</t>
+          <t>toh186</t>
         </is>
       </c>
     </row>
@@ -8748,7 +8748,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>toh206</t>
+          <t>toh187</t>
         </is>
       </c>
     </row>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>toh207</t>
+          <t>toh192</t>
         </is>
       </c>
     </row>
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>toh210</t>
+          <t>toh193</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>toh211</t>
+          <t>toh739</t>
         </is>
       </c>
     </row>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>toh520</t>
+          <t>toh194</t>
         </is>
       </c>
     </row>
@@ -8798,7 +8798,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>toh980</t>
+          <t>toh206</t>
         </is>
       </c>
     </row>
@@ -8808,7 +8808,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>toh216</t>
+          <t>toh207</t>
         </is>
       </c>
     </row>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>toh236</t>
+          <t>toh210</t>
         </is>
       </c>
     </row>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>toh237</t>
+          <t>toh211</t>
         </is>
       </c>
     </row>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>toh241</t>
+          <t>toh520</t>
         </is>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>toh243</t>
+          <t>toh980</t>
         </is>
       </c>
     </row>
@@ -8858,7 +8858,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>toh250</t>
+          <t>toh216</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>toh251</t>
+          <t>toh236</t>
         </is>
       </c>
     </row>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>toh252</t>
+          <t>toh237</t>
         </is>
       </c>
     </row>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>toh254</t>
+          <t>toh241</t>
         </is>
       </c>
     </row>
@@ -8898,7 +8898,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>toh255</t>
+          <t>toh243</t>
         </is>
       </c>
     </row>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>toh256</t>
+          <t>toh250</t>
         </is>
       </c>
     </row>
@@ -8918,7 +8918,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>toh261</t>
+          <t>toh251</t>
         </is>
       </c>
     </row>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>toh262</t>
+          <t>toh252</t>
         </is>
       </c>
     </row>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>toh263</t>
+          <t>toh254</t>
         </is>
       </c>
     </row>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>toh264</t>
+          <t>toh255</t>
         </is>
       </c>
     </row>
@@ -8958,7 +8958,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>toh265</t>
+          <t>toh256</t>
         </is>
       </c>
     </row>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>toh266</t>
+          <t>toh261</t>
         </is>
       </c>
     </row>
@@ -8978,7 +8978,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>toh268</t>
+          <t>toh262</t>
         </is>
       </c>
     </row>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>toh270</t>
+          <t>toh263</t>
         </is>
       </c>
     </row>
@@ -8998,7 +8998,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>toh512</t>
+          <t>toh264</t>
         </is>
       </c>
     </row>
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>toh852</t>
+          <t>toh265</t>
         </is>
       </c>
     </row>
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>toh279</t>
+          <t>toh266</t>
         </is>
       </c>
     </row>
@@ -9028,7 +9028,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>toh280</t>
+          <t>toh268</t>
         </is>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>toh281</t>
+          <t>toh270</t>
         </is>
       </c>
     </row>
@@ -9048,7 +9048,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>toh282</t>
+          <t>toh512</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>toh284</t>
+          <t>toh852</t>
         </is>
       </c>
     </row>
@@ -9068,7 +9068,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>toh285</t>
+          <t>toh279</t>
         </is>
       </c>
     </row>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>toh296</t>
+          <t>toh280</t>
         </is>
       </c>
     </row>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>toh297</t>
+          <t>toh281</t>
         </is>
       </c>
     </row>
@@ -9098,7 +9098,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>toh302</t>
+          <t>toh282</t>
         </is>
       </c>
     </row>
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>toh303</t>
+          <t>toh283</t>
         </is>
       </c>
     </row>
@@ -9118,7 +9118,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>toh305</t>
+          <t>toh284</t>
         </is>
       </c>
     </row>
@@ -9128,7 +9128,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>toh308</t>
+          <t>toh285</t>
         </is>
       </c>
     </row>
@@ -9138,7 +9138,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>toh310</t>
+          <t>toh296</t>
         </is>
       </c>
     </row>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>toh311</t>
+          <t>toh297</t>
         </is>
       </c>
     </row>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>toh313</t>
+          <t>toh302</t>
         </is>
       </c>
     </row>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>toh314</t>
+          <t>toh303</t>
         </is>
       </c>
     </row>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>toh315</t>
+          <t>toh305</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>toh316</t>
+          <t>toh308</t>
         </is>
       </c>
     </row>
@@ -9198,7 +9198,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>toh318</t>
+          <t>toh310</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>toh321</t>
+          <t>toh311</t>
         </is>
       </c>
     </row>
@@ -9218,7 +9218,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>toh322</t>
+          <t>toh313</t>
         </is>
       </c>
     </row>
@@ -9228,7 +9228,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>toh323</t>
+          <t>toh314</t>
         </is>
       </c>
     </row>
@@ -9238,7 +9238,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>toh324</t>
+          <t>toh315</t>
         </is>
       </c>
     </row>
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>toh328</t>
+          <t>toh316</t>
         </is>
       </c>
     </row>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>toh329</t>
+          <t>toh318</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>toh331</t>
+          <t>toh321</t>
         </is>
       </c>
     </row>
@@ -9278,7 +9278,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>toh335</t>
+          <t>toh322</t>
         </is>
       </c>
     </row>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>toh336</t>
+          <t>toh323</t>
         </is>
       </c>
     </row>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>toh337</t>
+          <t>toh324</t>
         </is>
       </c>
     </row>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>toh338</t>
+          <t>toh325</t>
         </is>
       </c>
     </row>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>toh339</t>
+          <t>toh328</t>
         </is>
       </c>
     </row>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>toh340</t>
+          <t>toh329</t>
         </is>
       </c>
     </row>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>toh341</t>
+          <t>toh331</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>toh342</t>
+          <t>toh335</t>
         </is>
       </c>
     </row>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>toh350</t>
+          <t>toh336</t>
         </is>
       </c>
     </row>
@@ -9368,7 +9368,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>toh352</t>
+          <t>toh337</t>
         </is>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>toh353</t>
+          <t>toh338</t>
         </is>
       </c>
     </row>
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>toh355</t>
+          <t>toh339</t>
         </is>
       </c>
     </row>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>toh356</t>
+          <t>toh340</t>
         </is>
       </c>
     </row>
@@ -9408,7 +9408,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>toh357</t>
+          <t>toh341</t>
         </is>
       </c>
     </row>
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>toh359</t>
+          <t>toh342</t>
         </is>
       </c>
     </row>
@@ -9428,7 +9428,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>toh366</t>
+          <t>toh350</t>
         </is>
       </c>
     </row>
@@ -9438,7 +9438,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>toh378</t>
+          <t>toh352</t>
         </is>
       </c>
     </row>
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>toh417</t>
+          <t>toh353</t>
         </is>
       </c>
     </row>
@@ -9458,7 +9458,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>toh433</t>
+          <t>toh355</t>
         </is>
       </c>
     </row>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>toh434</t>
+          <t>toh356</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9478,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>toh452</t>
+          <t>toh357</t>
         </is>
       </c>
     </row>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>toh456</t>
+          <t>toh359</t>
         </is>
       </c>
     </row>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>toh460a</t>
+          <t>toh366</t>
         </is>
       </c>
     </row>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>toh952</t>
+          <t>toh378</t>
         </is>
       </c>
     </row>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>toh469</t>
+          <t>toh417</t>
         </is>
       </c>
     </row>
@@ -9528,7 +9528,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>toh471</t>
+          <t>toh433</t>
         </is>
       </c>
     </row>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>toh505a</t>
+          <t>toh434</t>
         </is>
       </c>
     </row>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>toh508</t>
+          <t>toh452</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>toh509</t>
+          <t>toh456</t>
         </is>
       </c>
     </row>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>toh920</t>
+          <t>toh460a</t>
         </is>
       </c>
     </row>
@@ -9578,7 +9578,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>toh516</t>
+          <t>toh952</t>
         </is>
       </c>
     </row>
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>toh886</t>
+          <t>toh469</t>
         </is>
       </c>
     </row>
@@ -9598,7 +9598,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>toh519</t>
+          <t>toh471</t>
         </is>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>toh979</t>
+          <t>toh505a</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>toh521</t>
+          <t>toh508</t>
         </is>
       </c>
     </row>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>toh981</t>
+          <t>toh509</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>toh522</t>
+          <t>toh920</t>
         </is>
       </c>
     </row>
@@ -9648,7 +9648,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>toh848</t>
+          <t>toh516</t>
         </is>
       </c>
     </row>
@@ -9658,7 +9658,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>toh524</t>
+          <t>toh886</t>
         </is>
       </c>
     </row>
@@ -9668,7 +9668,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>toh977</t>
+          <t>toh519</t>
         </is>
       </c>
     </row>
@@ -9678,7 +9678,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>toh528</t>
+          <t>toh979</t>
         </is>
       </c>
     </row>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>toh858</t>
+          <t>toh521</t>
         </is>
       </c>
     </row>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>toh532</t>
+          <t>toh981</t>
         </is>
       </c>
     </row>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>toh873</t>
+          <t>toh522</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>toh533</t>
+          <t>toh848</t>
         </is>
       </c>
     </row>
@@ -9728,7 +9728,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>toh860</t>
+          <t>toh524</t>
         </is>
       </c>
     </row>
@@ -9738,7 +9738,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>toh534</t>
+          <t>toh977</t>
         </is>
       </c>
     </row>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>toh861</t>
+          <t>toh528</t>
         </is>
       </c>
     </row>
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>toh535</t>
+          <t>toh858</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>toh868</t>
+          <t>toh532</t>
         </is>
       </c>
     </row>
@@ -9778,7 +9778,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>toh536</t>
+          <t>toh873</t>
         </is>
       </c>
     </row>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>toh869</t>
+          <t>toh533</t>
         </is>
       </c>
     </row>
@@ -9798,7 +9798,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>toh537</t>
+          <t>toh860</t>
         </is>
       </c>
     </row>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>toh870</t>
+          <t>toh534</t>
         </is>
       </c>
     </row>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>toh538</t>
+          <t>toh861</t>
         </is>
       </c>
     </row>
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>toh1068</t>
+          <t>toh535</t>
         </is>
       </c>
     </row>
@@ -9838,7 +9838,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>toh539</t>
+          <t>toh868</t>
         </is>
       </c>
     </row>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>toh1069</t>
+          <t>toh536</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>toh539a</t>
+          <t>toh869</t>
         </is>
       </c>
     </row>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>toh1070</t>
+          <t>toh537</t>
         </is>
       </c>
     </row>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>toh539b</t>
+          <t>toh870</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>toh1071</t>
+          <t>toh538</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>toh539c</t>
+          <t>toh1068</t>
         </is>
       </c>
     </row>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>toh1072</t>
+          <t>toh539</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>toh539d</t>
+          <t>toh1069</t>
         </is>
       </c>
     </row>
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>toh1073</t>
+          <t>toh539a</t>
         </is>
       </c>
     </row>
@@ -9938,7 +9938,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>toh539e</t>
+          <t>toh1070</t>
         </is>
       </c>
     </row>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>toh774</t>
+          <t>toh539b</t>
         </is>
       </c>
     </row>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>toh1074</t>
+          <t>toh1071</t>
         </is>
       </c>
     </row>
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>toh539f</t>
+          <t>toh539c</t>
         </is>
       </c>
     </row>
@@ -9978,7 +9978,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>toh866</t>
+          <t>toh1072</t>
         </is>
       </c>
     </row>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>toh540</t>
+          <t>toh539d</t>
         </is>
       </c>
     </row>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>toh1078</t>
+          <t>toh1073</t>
         </is>
       </c>
     </row>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>toh541</t>
+          <t>toh539e</t>
         </is>
       </c>
     </row>
@@ -10018,7 +10018,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>toh931</t>
+          <t>toh774</t>
         </is>
       </c>
     </row>
@@ -10028,7 +10028,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>toh546</t>
+          <t>toh1074</t>
         </is>
       </c>
     </row>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>toh893</t>
+          <t>toh539f</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>toh547</t>
+          <t>toh866</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>toh548</t>
+          <t>toh540</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>toh894</t>
+          <t>toh1078</t>
         </is>
       </c>
     </row>
@@ -10078,7 +10078,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>toh549</t>
+          <t>toh541</t>
         </is>
       </c>
     </row>
@@ -10088,7 +10088,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>toh895</t>
+          <t>toh931</t>
         </is>
       </c>
     </row>
@@ -10098,7 +10098,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>toh550</t>
+          <t>toh546</t>
         </is>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>toh896</t>
+          <t>toh893</t>
         </is>
       </c>
     </row>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>toh551</t>
+          <t>toh547</t>
         </is>
       </c>
     </row>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>toh552</t>
+          <t>toh548</t>
         </is>
       </c>
     </row>
@@ -10138,7 +10138,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>toh557</t>
+          <t>toh894</t>
         </is>
       </c>
     </row>
@@ -10148,7 +10148,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>toh560</t>
+          <t>toh549</t>
         </is>
       </c>
     </row>
@@ -10158,7 +10158,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>toh565</t>
+          <t>toh895</t>
         </is>
       </c>
     </row>
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>toh566</t>
+          <t>toh550</t>
         </is>
       </c>
     </row>
@@ -10178,7 +10178,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>toh568</t>
+          <t>toh896</t>
         </is>
       </c>
     </row>
@@ -10188,7 +10188,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>toh1004</t>
+          <t>toh551</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10198,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>toh571</t>
+          <t>toh552</t>
         </is>
       </c>
     </row>
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>toh990</t>
+          <t>toh557</t>
         </is>
       </c>
     </row>
@@ -10218,7 +10218,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>toh572</t>
+          <t>toh560</t>
         </is>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>toh993</t>
+          <t>toh565</t>
         </is>
       </c>
     </row>
@@ -10238,7 +10238,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>toh573</t>
+          <t>toh566</t>
         </is>
       </c>
     </row>
@@ -10248,7 +10248,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>toh996</t>
+          <t>toh568</t>
         </is>
       </c>
     </row>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>toh575</t>
+          <t>toh1004</t>
         </is>
       </c>
     </row>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>toh917</t>
+          <t>toh571</t>
         </is>
       </c>
     </row>
@@ -10278,7 +10278,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>toh576</t>
+          <t>toh990</t>
         </is>
       </c>
     </row>
@@ -10288,7 +10288,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>toh932</t>
+          <t>toh572</t>
         </is>
       </c>
     </row>
@@ -10298,7 +10298,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>toh577</t>
+          <t>toh993</t>
         </is>
       </c>
     </row>
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>toh933</t>
+          <t>toh573</t>
         </is>
       </c>
     </row>
@@ -10318,7 +10318,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>toh578</t>
+          <t>toh996</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>toh934</t>
+          <t>toh575</t>
         </is>
       </c>
     </row>
@@ -10338,7 +10338,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>toh579</t>
+          <t>toh917</t>
         </is>
       </c>
     </row>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>toh935</t>
+          <t>toh576</t>
         </is>
       </c>
     </row>
@@ -10358,7 +10358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>toh580</t>
+          <t>toh932</t>
         </is>
       </c>
     </row>
@@ -10368,7 +10368,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>toh936</t>
+          <t>toh577</t>
         </is>
       </c>
     </row>
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>toh581</t>
+          <t>toh933</t>
         </is>
       </c>
     </row>
@@ -10388,7 +10388,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>toh937</t>
+          <t>toh578</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>toh582</t>
+          <t>toh934</t>
         </is>
       </c>
     </row>
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>toh938</t>
+          <t>toh579</t>
         </is>
       </c>
     </row>
@@ -10418,7 +10418,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>toh583</t>
+          <t>toh935</t>
         </is>
       </c>
     </row>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>toh939</t>
+          <t>toh580</t>
         </is>
       </c>
     </row>
@@ -10438,7 +10438,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>toh584</t>
+          <t>toh936</t>
         </is>
       </c>
     </row>
@@ -10448,7 +10448,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>toh940</t>
+          <t>toh581</t>
         </is>
       </c>
     </row>
@@ -10458,7 +10458,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>toh585</t>
+          <t>toh937</t>
         </is>
       </c>
     </row>
@@ -10468,7 +10468,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>toh941</t>
+          <t>toh582</t>
         </is>
       </c>
     </row>
@@ -10478,7 +10478,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>toh586</t>
+          <t>toh938</t>
         </is>
       </c>
     </row>
@@ -10488,7 +10488,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>toh942</t>
+          <t>toh583</t>
         </is>
       </c>
     </row>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>toh587</t>
+          <t>toh939</t>
         </is>
       </c>
     </row>
@@ -10508,7 +10508,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>toh943</t>
+          <t>toh584</t>
         </is>
       </c>
     </row>
@@ -10518,7 +10518,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>toh588</t>
+          <t>toh940</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>toh944</t>
+          <t>toh585</t>
         </is>
       </c>
     </row>
@@ -10538,7 +10538,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>toh589</t>
+          <t>toh941</t>
         </is>
       </c>
     </row>
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>toh945</t>
+          <t>toh586</t>
         </is>
       </c>
     </row>
@@ -10558,7 +10558,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>toh590</t>
+          <t>toh942</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>toh985</t>
+          <t>toh587</t>
         </is>
       </c>
     </row>
@@ -10578,7 +10578,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>toh592</t>
+          <t>toh943</t>
         </is>
       </c>
     </row>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>toh986</t>
+          <t>toh588</t>
         </is>
       </c>
     </row>
@@ -10598,7 +10598,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>toh593</t>
+          <t>toh944</t>
         </is>
       </c>
     </row>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>toh595</t>
+          <t>toh589</t>
         </is>
       </c>
     </row>
@@ -10618,7 +10618,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>toh596</t>
+          <t>toh945</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>toh600</t>
+          <t>toh590</t>
         </is>
       </c>
     </row>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>toh962</t>
+          <t>toh985</t>
         </is>
       </c>
     </row>
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>toh601</t>
+          <t>toh592</t>
         </is>
       </c>
     </row>
@@ -10658,7 +10658,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>toh884</t>
+          <t>toh986</t>
         </is>
       </c>
     </row>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>toh602</t>
+          <t>toh593</t>
         </is>
       </c>
     </row>
@@ -10678,7 +10678,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>toh921</t>
+          <t>toh595</t>
         </is>
       </c>
     </row>
@@ -10688,7 +10688,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>toh603</t>
+          <t>toh596</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>toh913</t>
+          <t>toh600</t>
         </is>
       </c>
     </row>
@@ -10708,7 +10708,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>toh604</t>
+          <t>toh962</t>
         </is>
       </c>
     </row>
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>toh605</t>
+          <t>toh601</t>
         </is>
       </c>
     </row>
@@ -10728,7 +10728,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>toh607</t>
+          <t>toh884</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>toh613</t>
+          <t>toh602</t>
         </is>
       </c>
     </row>
@@ -10748,7 +10748,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>toh989</t>
+          <t>toh921</t>
         </is>
       </c>
     </row>
@@ -10758,7 +10758,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>toh618</t>
+          <t>toh603</t>
         </is>
       </c>
     </row>
@@ -10768,7 +10768,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>toh967</t>
+          <t>toh913</t>
         </is>
       </c>
     </row>
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>toh619</t>
+          <t>toh604</t>
         </is>
       </c>
     </row>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>toh1008</t>
+          <t>toh605</t>
         </is>
       </c>
     </row>
@@ -10798,7 +10798,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>toh620</t>
+          <t>toh607</t>
         </is>
       </c>
     </row>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>toh1018</t>
+          <t>toh613</t>
         </is>
       </c>
     </row>
@@ -10818,7 +10818,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>toh622</t>
+          <t>toh989</t>
         </is>
       </c>
     </row>
@@ -10828,7 +10828,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>toh1014</t>
+          <t>toh618</t>
         </is>
       </c>
     </row>
@@ -10838,7 +10838,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>toh623</t>
+          <t>toh967</t>
         </is>
       </c>
     </row>
@@ -10848,7 +10848,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>toh1015</t>
+          <t>toh619</t>
         </is>
       </c>
     </row>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>toh624</t>
+          <t>toh1008</t>
         </is>
       </c>
     </row>
@@ -10868,7 +10868,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>toh1017</t>
+          <t>toh620</t>
         </is>
       </c>
     </row>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>toh626</t>
+          <t>toh1018</t>
         </is>
       </c>
     </row>
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>toh1019</t>
+          <t>toh622</t>
         </is>
       </c>
     </row>
@@ -10898,7 +10898,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>toh627</t>
+          <t>toh1014</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>toh1052</t>
+          <t>toh623</t>
         </is>
       </c>
     </row>
@@ -10918,7 +10918,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>toh629</t>
+          <t>toh1015</t>
         </is>
       </c>
     </row>
@@ -10928,7 +10928,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>toh961</t>
+          <t>toh624</t>
         </is>
       </c>
     </row>
@@ -10938,7 +10938,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>toh630</t>
+          <t>toh1017</t>
         </is>
       </c>
     </row>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>toh1010</t>
+          <t>toh626</t>
         </is>
       </c>
     </row>
@@ -10958,7 +10958,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>toh632</t>
+          <t>toh1019</t>
         </is>
       </c>
     </row>
@@ -10968,7 +10968,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>toh634</t>
+          <t>toh627</t>
         </is>
       </c>
     </row>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>toh874</t>
+          <t>toh1052</t>
         </is>
       </c>
     </row>
@@ -10988,7 +10988,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>toh635</t>
+          <t>toh629</t>
         </is>
       </c>
     </row>
@@ -10998,7 +10998,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>toh875</t>
+          <t>toh961</t>
         </is>
       </c>
     </row>
@@ -11008,7 +11008,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>toh636</t>
+          <t>toh630</t>
         </is>
       </c>
     </row>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>toh876</t>
+          <t>toh1010</t>
         </is>
       </c>
     </row>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>toh637</t>
+          <t>toh632</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>toh877</t>
+          <t>toh634</t>
         </is>
       </c>
     </row>
@@ -11048,7 +11048,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>toh638</t>
+          <t>toh874</t>
         </is>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>toh878</t>
+          <t>toh635</t>
         </is>
       </c>
     </row>
@@ -11068,7 +11068,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>toh639</t>
+          <t>toh875</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>toh879</t>
+          <t>toh636</t>
         </is>
       </c>
     </row>
@@ -11088,7 +11088,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>toh640</t>
+          <t>toh876</t>
         </is>
       </c>
     </row>
@@ -11098,7 +11098,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>toh880</t>
+          <t>toh637</t>
         </is>
       </c>
     </row>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>toh641</t>
+          <t>toh877</t>
         </is>
       </c>
     </row>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>toh881</t>
+          <t>toh638</t>
         </is>
       </c>
     </row>
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>toh642</t>
+          <t>toh878</t>
         </is>
       </c>
     </row>
@@ -11138,7 +11138,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>toh645</t>
+          <t>toh639</t>
         </is>
       </c>
     </row>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>toh646</t>
+          <t>toh879</t>
         </is>
       </c>
     </row>
@@ -11158,7 +11158,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>toh1080</t>
+          <t>toh640</t>
         </is>
       </c>
     </row>
@@ -11168,7 +11168,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>toh647</t>
+          <t>toh880</t>
         </is>
       </c>
     </row>
@@ -11178,7 +11178,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>toh1079</t>
+          <t>toh641</t>
         </is>
       </c>
     </row>
@@ -11188,7 +11188,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>toh649</t>
+          <t>toh881</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>toh1077</t>
+          <t>toh642</t>
         </is>
       </c>
     </row>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>toh651</t>
+          <t>toh645</t>
         </is>
       </c>
     </row>
@@ -11218,7 +11218,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>toh1040</t>
+          <t>toh646</t>
         </is>
       </c>
     </row>
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>toh652</t>
+          <t>toh1080</t>
         </is>
       </c>
     </row>
@@ -11238,7 +11238,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>toh863</t>
+          <t>toh647</t>
         </is>
       </c>
     </row>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>toh655</t>
+          <t>toh1079</t>
         </is>
       </c>
     </row>
@@ -11258,7 +11258,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>toh959</t>
+          <t>toh649</t>
         </is>
       </c>
     </row>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>toh659</t>
+          <t>toh1077</t>
         </is>
       </c>
     </row>
@@ -11278,7 +11278,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>toh1065</t>
+          <t>toh651</t>
         </is>
       </c>
     </row>
@@ -11288,7 +11288,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>toh661</t>
+          <t>toh1040</t>
         </is>
       </c>
     </row>
@@ -11298,7 +11298,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>toh998</t>
+          <t>toh652</t>
         </is>
       </c>
     </row>
@@ -11308,7 +11308,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>toh662</t>
+          <t>toh863</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>toh1007</t>
+          <t>toh655</t>
         </is>
       </c>
     </row>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>toh663</t>
+          <t>toh959</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>toh664</t>
+          <t>toh659</t>
         </is>
       </c>
     </row>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>toh665</t>
+          <t>toh1065</t>
         </is>
       </c>
     </row>
@@ -11358,7 +11358,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>toh1084</t>
+          <t>toh661</t>
         </is>
       </c>
     </row>
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>toh668</t>
+          <t>toh998</t>
         </is>
       </c>
     </row>
@@ -11378,7 +11378,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>toh1085</t>
+          <t>toh662</t>
         </is>
       </c>
     </row>
@@ -11388,7 +11388,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>toh670</t>
+          <t>toh1007</t>
         </is>
       </c>
     </row>
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>toh1087</t>
+          <t>toh663</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>toh671</t>
+          <t>toh664</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>toh672</t>
+          <t>toh665</t>
         </is>
       </c>
     </row>
@@ -11428,7 +11428,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>toh1088</t>
+          <t>toh1084</t>
         </is>
       </c>
     </row>
@@ -11438,7 +11438,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>toh673</t>
+          <t>toh668</t>
         </is>
       </c>
     </row>
@@ -11448,7 +11448,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>toh1089</t>
+          <t>toh1085</t>
         </is>
       </c>
     </row>
@@ -11458,7 +11458,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>toh673a</t>
+          <t>toh670</t>
         </is>
       </c>
     </row>
@@ -11468,7 +11468,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>toh674</t>
+          <t>toh1087</t>
         </is>
       </c>
     </row>
@@ -11478,7 +11478,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>toh849</t>
+          <t>toh671</t>
         </is>
       </c>
     </row>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>toh675</t>
+          <t>toh672</t>
         </is>
       </c>
     </row>
@@ -11498,7 +11498,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>toh677</t>
+          <t>toh1088</t>
         </is>
       </c>
     </row>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>toh864</t>
+          <t>toh673</t>
         </is>
       </c>
     </row>
@@ -11518,7 +11518,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>toh678</t>
+          <t>toh1089</t>
         </is>
       </c>
     </row>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>toh867</t>
+          <t>toh673a</t>
         </is>
       </c>
     </row>
@@ -11538,7 +11538,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>toh679</t>
+          <t>toh674</t>
         </is>
       </c>
     </row>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>toh851</t>
+          <t>toh849</t>
         </is>
       </c>
     </row>
@@ -11558,7 +11558,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>toh680</t>
+          <t>toh675</t>
         </is>
       </c>
     </row>
@@ -11568,7 +11568,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>toh889</t>
+          <t>toh677</t>
         </is>
       </c>
     </row>
@@ -11578,7 +11578,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>toh683</t>
+          <t>toh864</t>
         </is>
       </c>
     </row>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>toh688</t>
+          <t>toh678</t>
         </is>
       </c>
     </row>
@@ -11598,7 +11598,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>toh902</t>
+          <t>toh867</t>
         </is>
       </c>
     </row>
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>toh690</t>
+          <t>toh679</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>toh695</t>
+          <t>toh851</t>
         </is>
       </c>
     </row>
@@ -11628,7 +11628,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>toh911</t>
+          <t>toh680</t>
         </is>
       </c>
     </row>
@@ -11638,7 +11638,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>toh696</t>
+          <t>toh889</t>
         </is>
       </c>
     </row>
@@ -11648,7 +11648,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>toh910</t>
+          <t>toh683</t>
         </is>
       </c>
     </row>
@@ -11658,7 +11658,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>toh697</t>
+          <t>toh688</t>
         </is>
       </c>
     </row>
@@ -11668,7 +11668,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>toh905</t>
+          <t>toh902</t>
         </is>
       </c>
     </row>
@@ -11678,7 +11678,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>toh698</t>
+          <t>toh690</t>
         </is>
       </c>
     </row>
@@ -11688,7 +11688,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>toh908</t>
+          <t>toh695</t>
         </is>
       </c>
     </row>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>toh705</t>
+          <t>toh911</t>
         </is>
       </c>
     </row>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>toh900</t>
+          <t>toh696</t>
         </is>
       </c>
     </row>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>toh706</t>
+          <t>toh910</t>
         </is>
       </c>
     </row>
@@ -11728,7 +11728,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>toh709</t>
+          <t>toh697</t>
         </is>
       </c>
     </row>
@@ -11738,7 +11738,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>toh978</t>
+          <t>toh905</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>toh710</t>
+          <t>toh698</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>toh930</t>
+          <t>toh908</t>
         </is>
       </c>
     </row>
@@ -11768,7 +11768,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>toh711</t>
+          <t>toh705</t>
         </is>
       </c>
     </row>
@@ -11778,7 +11778,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>toh1042</t>
+          <t>toh900</t>
         </is>
       </c>
     </row>
@@ -11788,7 +11788,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>toh712</t>
+          <t>toh706</t>
         </is>
       </c>
     </row>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>toh1043</t>
+          <t>toh709</t>
         </is>
       </c>
     </row>
@@ -11808,7 +11808,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>toh713</t>
+          <t>toh978</t>
         </is>
       </c>
     </row>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>toh1044</t>
+          <t>toh710</t>
         </is>
       </c>
     </row>
@@ -11828,7 +11828,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>toh714</t>
+          <t>toh930</t>
         </is>
       </c>
     </row>
@@ -11838,7 +11838,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>toh1045</t>
+          <t>toh711</t>
         </is>
       </c>
     </row>
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>toh715</t>
+          <t>toh1042</t>
         </is>
       </c>
     </row>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>toh1046</t>
+          <t>toh712</t>
         </is>
       </c>
     </row>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>toh716</t>
+          <t>toh1043</t>
         </is>
       </c>
     </row>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>toh1047</t>
+          <t>toh713</t>
         </is>
       </c>
     </row>
@@ -11888,7 +11888,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>toh717</t>
+          <t>toh1044</t>
         </is>
       </c>
     </row>
@@ -11898,7 +11898,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>toh1048</t>
+          <t>toh714</t>
         </is>
       </c>
     </row>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>toh720</t>
+          <t>toh1045</t>
         </is>
       </c>
     </row>
@@ -11918,7 +11918,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>toh1041</t>
+          <t>toh715</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>toh722</t>
+          <t>toh1046</t>
         </is>
       </c>
     </row>
@@ -11938,7 +11938,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>toh812</t>
+          <t>toh716</t>
         </is>
       </c>
     </row>
@@ -11948,7 +11948,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>toh1094</t>
+          <t>toh1047</t>
         </is>
       </c>
     </row>
@@ -11958,7 +11958,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>toh727</t>
+          <t>toh717</t>
         </is>
       </c>
     </row>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>toh1000</t>
+          <t>toh1048</t>
         </is>
       </c>
     </row>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>toh728</t>
+          <t>toh720</t>
         </is>
       </c>
     </row>
@@ -11988,7 +11988,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>toh729</t>
+          <t>toh1041</t>
         </is>
       </c>
     </row>
@@ -11998,7 +11998,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>toh1001</t>
+          <t>toh722</t>
         </is>
       </c>
     </row>
@@ -12008,7 +12008,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>toh730</t>
+          <t>toh812</t>
         </is>
       </c>
     </row>
@@ -12018,7 +12018,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>toh1002</t>
+          <t>toh1094</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>toh731</t>
+          <t>toh727</t>
         </is>
       </c>
     </row>
@@ -12038,7 +12038,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>toh732</t>
+          <t>toh1000</t>
         </is>
       </c>
     </row>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>toh992</t>
+          <t>toh728</t>
         </is>
       </c>
     </row>
@@ -12058,7 +12058,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>toh733</t>
+          <t>toh729</t>
         </is>
       </c>
     </row>
@@ -12068,7 +12068,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>toh906</t>
+          <t>toh1001</t>
         </is>
       </c>
     </row>
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>toh734</t>
+          <t>toh730</t>
         </is>
       </c>
     </row>
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>toh968</t>
+          <t>toh1002</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>toh735</t>
+          <t>toh731</t>
         </is>
       </c>
     </row>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>toh994</t>
+          <t>toh732</t>
         </is>
       </c>
     </row>
@@ -12118,7 +12118,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>toh736</t>
+          <t>toh992</t>
         </is>
       </c>
     </row>
@@ -12128,7 +12128,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>toh995</t>
+          <t>toh733</t>
         </is>
       </c>
     </row>
@@ -12138,7 +12138,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>toh737</t>
+          <t>toh906</t>
         </is>
       </c>
     </row>
@@ -12148,7 +12148,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>toh960</t>
+          <t>toh734</t>
         </is>
       </c>
     </row>
@@ -12158,7 +12158,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>toh738</t>
+          <t>toh968</t>
         </is>
       </c>
     </row>
@@ -12168,7 +12168,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>toh1092</t>
+          <t>toh735</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>toh742</t>
+          <t>toh994</t>
         </is>
       </c>
     </row>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>toh1036</t>
+          <t>toh736</t>
         </is>
       </c>
     </row>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>toh743</t>
+          <t>toh995</t>
         </is>
       </c>
     </row>
@@ -12208,7 +12208,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>toh1009</t>
+          <t>toh737</t>
         </is>
       </c>
     </row>
@@ -12218,7 +12218,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>toh744a</t>
+          <t>toh960</t>
         </is>
       </c>
     </row>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>toh749</t>
+          <t>toh738</t>
         </is>
       </c>
     </row>
@@ -12238,7 +12238,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>toh950</t>
+          <t>toh1092</t>
         </is>
       </c>
     </row>
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>toh753</t>
+          <t>toh742</t>
         </is>
       </c>
     </row>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>toh955</t>
+          <t>toh1036</t>
         </is>
       </c>
     </row>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>toh755</t>
+          <t>toh743</t>
         </is>
       </c>
     </row>
@@ -12278,7 +12278,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>toh957</t>
+          <t>toh1009</t>
         </is>
       </c>
     </row>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>toh756</t>
+          <t>toh744a</t>
         </is>
       </c>
     </row>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>toh759</t>
+          <t>toh749</t>
         </is>
       </c>
     </row>
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>toh964</t>
+          <t>toh950</t>
         </is>
       </c>
     </row>
@@ -12318,7 +12318,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>toh760</t>
+          <t>toh753</t>
         </is>
       </c>
     </row>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>toh965</t>
+          <t>toh955</t>
         </is>
       </c>
     </row>
@@ -12338,7 +12338,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>toh761</t>
+          <t>toh755</t>
         </is>
       </c>
     </row>
@@ -12348,7 +12348,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>toh762</t>
+          <t>toh957</t>
         </is>
       </c>
     </row>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>toh763</t>
+          <t>toh756</t>
         </is>
       </c>
     </row>
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>toh966</t>
+          <t>toh759</t>
         </is>
       </c>
     </row>
@@ -12378,7 +12378,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>toh768</t>
+          <t>toh964</t>
         </is>
       </c>
     </row>
@@ -12388,7 +12388,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>toh973</t>
+          <t>toh760</t>
         </is>
       </c>
     </row>
@@ -12398,7 +12398,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>toh769</t>
+          <t>toh965</t>
         </is>
       </c>
     </row>
@@ -12408,7 +12408,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>toh971</t>
+          <t>toh761</t>
         </is>
       </c>
     </row>
@@ -12418,7 +12418,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>toh771</t>
+          <t>toh762</t>
         </is>
       </c>
     </row>
@@ -12428,7 +12428,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>toh972</t>
+          <t>toh763</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>toh775</t>
+          <t>toh966</t>
         </is>
       </c>
     </row>
@@ -12448,7 +12448,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>toh1075</t>
+          <t>toh768</t>
         </is>
       </c>
     </row>
@@ -12458,7 +12458,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>toh776</t>
+          <t>toh973</t>
         </is>
       </c>
     </row>
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>toh1076</t>
+          <t>toh769</t>
         </is>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>toh777</t>
+          <t>toh971</t>
         </is>
       </c>
     </row>
@@ -12488,7 +12488,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>toh1011</t>
+          <t>toh771</t>
         </is>
       </c>
     </row>
@@ -12498,7 +12498,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>toh778</t>
+          <t>toh972</t>
         </is>
       </c>
     </row>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>toh1012</t>
+          <t>toh775</t>
         </is>
       </c>
     </row>
@@ -12518,7 +12518,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>toh779</t>
+          <t>toh1075</t>
         </is>
       </c>
     </row>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>toh1049</t>
+          <t>toh776</t>
         </is>
       </c>
     </row>
@@ -12538,7 +12538,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>toh780</t>
+          <t>toh1076</t>
         </is>
       </c>
     </row>
@@ -12548,7 +12548,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>toh1031</t>
+          <t>toh777</t>
         </is>
       </c>
     </row>
@@ -12558,7 +12558,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>toh781</t>
+          <t>toh1011</t>
         </is>
       </c>
     </row>
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>toh1032</t>
+          <t>toh778</t>
         </is>
       </c>
     </row>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>toh782</t>
+          <t>toh1012</t>
         </is>
       </c>
     </row>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>toh1013</t>
+          <t>toh779</t>
         </is>
       </c>
     </row>
@@ -12598,7 +12598,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>toh783</t>
+          <t>toh1049</t>
         </is>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>toh1060</t>
+          <t>toh780</t>
         </is>
       </c>
     </row>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>toh784</t>
+          <t>toh1031</t>
         </is>
       </c>
     </row>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>toh1021</t>
+          <t>toh781</t>
         </is>
       </c>
     </row>
@@ -12638,7 +12638,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>toh785</t>
+          <t>toh1032</t>
         </is>
       </c>
     </row>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>toh1022</t>
+          <t>toh782</t>
         </is>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>toh786</t>
+          <t>toh1013</t>
         </is>
       </c>
     </row>
@@ -12668,7 +12668,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>toh1023</t>
+          <t>toh783</t>
         </is>
       </c>
     </row>
@@ -12678,7 +12678,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>toh787</t>
+          <t>toh1060</t>
         </is>
       </c>
     </row>
@@ -12688,7 +12688,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>toh1025</t>
+          <t>toh784</t>
         </is>
       </c>
     </row>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>toh788</t>
+          <t>toh1021</t>
         </is>
       </c>
     </row>
@@ -12708,7 +12708,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>toh1026</t>
+          <t>toh785</t>
         </is>
       </c>
     </row>
@@ -12718,7 +12718,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>toh789</t>
+          <t>toh1022</t>
         </is>
       </c>
     </row>
@@ -12728,7 +12728,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>toh1027</t>
+          <t>toh786</t>
         </is>
       </c>
     </row>
@@ -12738,7 +12738,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>toh790</t>
+          <t>toh1023</t>
         </is>
       </c>
     </row>
@@ -12748,7 +12748,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>toh1028</t>
+          <t>toh787</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>toh791</t>
+          <t>toh1025</t>
         </is>
       </c>
     </row>
@@ -12768,7 +12768,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>toh1033</t>
+          <t>toh788</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>toh792</t>
+          <t>toh1026</t>
         </is>
       </c>
     </row>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>toh1034</t>
+          <t>toh789</t>
         </is>
       </c>
     </row>
@@ -12798,7 +12798,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>toh793</t>
+          <t>toh1027</t>
         </is>
       </c>
     </row>
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>toh1029</t>
+          <t>toh790</t>
         </is>
       </c>
     </row>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>toh794</t>
+          <t>toh1028</t>
         </is>
       </c>
     </row>
@@ -12828,7 +12828,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>toh1030</t>
+          <t>toh791</t>
         </is>
       </c>
     </row>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>toh795</t>
+          <t>toh1033</t>
         </is>
       </c>
     </row>
@@ -12848,7 +12848,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>toh1051</t>
+          <t>toh792</t>
         </is>
       </c>
     </row>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>toh796</t>
+          <t>toh1034</t>
         </is>
       </c>
     </row>
@@ -12868,7 +12868,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>toh1035</t>
+          <t>toh793</t>
         </is>
       </c>
     </row>
@@ -12878,7 +12878,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>toh797</t>
+          <t>toh1029</t>
         </is>
       </c>
     </row>
@@ -12888,7 +12888,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>toh1053</t>
+          <t>toh794</t>
         </is>
       </c>
     </row>
@@ -12898,7 +12898,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>toh798</t>
+          <t>toh1030</t>
         </is>
       </c>
     </row>
@@ -12908,7 +12908,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>toh1054</t>
+          <t>toh795</t>
         </is>
       </c>
     </row>
@@ -12918,7 +12918,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>toh799</t>
+          <t>toh1051</t>
         </is>
       </c>
     </row>
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>toh1055</t>
+          <t>toh796</t>
         </is>
       </c>
     </row>
@@ -12938,7 +12938,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>toh800</t>
+          <t>toh1035</t>
         </is>
       </c>
     </row>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>toh1056</t>
+          <t>toh797</t>
         </is>
       </c>
     </row>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>toh801</t>
+          <t>toh1053</t>
         </is>
       </c>
     </row>
@@ -12968,7 +12968,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>toh1057</t>
+          <t>toh798</t>
         </is>
       </c>
     </row>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>toh802</t>
+          <t>toh1054</t>
         </is>
       </c>
     </row>
@@ -12988,7 +12988,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>toh1058</t>
+          <t>toh799</t>
         </is>
       </c>
     </row>
@@ -12998,7 +12998,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>toh803</t>
+          <t>toh1055</t>
         </is>
       </c>
     </row>
@@ -13008,7 +13008,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>toh1050</t>
+          <t>toh800</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>toh805</t>
+          <t>toh1056</t>
         </is>
       </c>
     </row>
@@ -13028,7 +13028,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>toh806</t>
+          <t>toh801</t>
         </is>
       </c>
     </row>
@@ -13038,7 +13038,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>toh807</t>
+          <t>toh1057</t>
         </is>
       </c>
     </row>
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>toh808</t>
+          <t>toh802</t>
         </is>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>toh811</t>
+          <t>toh1058</t>
         </is>
       </c>
     </row>
@@ -13068,7 +13068,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>toh813</t>
+          <t>toh803</t>
         </is>
       </c>
     </row>
@@ -13078,7 +13078,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>toh1098</t>
+          <t>toh1050</t>
         </is>
       </c>
     </row>
@@ -13088,7 +13088,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>toh814</t>
+          <t>toh805</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>toh1099</t>
+          <t>toh806</t>
         </is>
       </c>
     </row>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>toh815</t>
+          <t>toh807</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>toh816</t>
+          <t>toh808</t>
         </is>
       </c>
     </row>
@@ -13128,7 +13128,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>toh817</t>
+          <t>toh811</t>
         </is>
       </c>
     </row>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>toh1101</t>
+          <t>toh813</t>
         </is>
       </c>
     </row>
@@ -13148,7 +13148,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>toh818</t>
+          <t>toh1098</t>
         </is>
       </c>
     </row>
@@ -13158,7 +13158,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>toh1102</t>
+          <t>toh814</t>
         </is>
       </c>
     </row>
@@ -13168,7 +13168,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>toh819</t>
+          <t>toh1099</t>
         </is>
       </c>
     </row>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>toh1100</t>
+          <t>toh815</t>
         </is>
       </c>
     </row>
@@ -13188,7 +13188,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>toh820</t>
+          <t>toh816</t>
         </is>
       </c>
     </row>
@@ -13198,7 +13198,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>toh821</t>
+          <t>toh817</t>
         </is>
       </c>
     </row>
@@ -13208,7 +13208,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>toh1104</t>
+          <t>toh1101</t>
         </is>
       </c>
     </row>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>toh822</t>
+          <t>toh818</t>
         </is>
       </c>
     </row>
@@ -13228,7 +13228,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>toh1105</t>
+          <t>toh1102</t>
         </is>
       </c>
     </row>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>toh823</t>
+          <t>toh819</t>
         </is>
       </c>
     </row>
@@ -13248,7 +13248,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>toh1106</t>
+          <t>toh1100</t>
         </is>
       </c>
     </row>
@@ -13258,7 +13258,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>toh824</t>
+          <t>toh820</t>
         </is>
       </c>
     </row>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>toh825</t>
+          <t>toh821</t>
         </is>
       </c>
     </row>
@@ -13278,7 +13278,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>toh829</t>
+          <t>toh1104</t>
         </is>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>toh831</t>
+          <t>toh822</t>
         </is>
       </c>
     </row>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>toh832</t>
+          <t>toh1105</t>
         </is>
       </c>
     </row>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>toh834</t>
+          <t>toh823</t>
         </is>
       </c>
     </row>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>toh835</t>
+          <t>toh1106</t>
         </is>
       </c>
     </row>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>toh836</t>
+          <t>toh824</t>
         </is>
       </c>
     </row>
@@ -13338,7 +13338,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>toh837</t>
+          <t>toh825</t>
         </is>
       </c>
     </row>
@@ -13348,7 +13348,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>toh838</t>
+          <t>toh829</t>
         </is>
       </c>
     </row>
@@ -13358,7 +13358,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>toh839</t>
+          <t>toh831</t>
         </is>
       </c>
     </row>
@@ -13368,7 +13368,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>toh841-1</t>
+          <t>toh832</t>
         </is>
       </c>
     </row>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>toh841-2</t>
+          <t>toh834</t>
         </is>
       </c>
     </row>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>toh841-3</t>
+          <t>toh835</t>
         </is>
       </c>
     </row>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>toh841-4</t>
+          <t>toh836</t>
         </is>
       </c>
     </row>
@@ -13408,7 +13408,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>toh841-5</t>
+          <t>toh837</t>
         </is>
       </c>
     </row>
@@ -13418,7 +13418,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>toh841-6</t>
+          <t>toh838</t>
         </is>
       </c>
     </row>
@@ -13428,7 +13428,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>toh841-7</t>
+          <t>toh839</t>
         </is>
       </c>
     </row>
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>toh841-8</t>
+          <t>toh841-1</t>
         </is>
       </c>
     </row>
@@ -13448,7 +13448,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>toh841a</t>
+          <t>toh841-2</t>
         </is>
       </c>
     </row>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>toh842</t>
+          <t>toh841-3</t>
         </is>
       </c>
     </row>
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>toh844</t>
+          <t>toh841-4</t>
         </is>
       </c>
     </row>
@@ -13478,7 +13478,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>toh845-1</t>
+          <t>toh841-5</t>
         </is>
       </c>
     </row>
@@ -13488,7 +13488,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>toh845-2</t>
+          <t>toh841-6</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13498,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>toh845-3</t>
+          <t>toh841-7</t>
         </is>
       </c>
     </row>
@@ -13508,7 +13508,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>toh845-4</t>
+          <t>toh841-8</t>
         </is>
       </c>
     </row>
@@ -13518,7 +13518,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>toh845-5</t>
+          <t>toh841a</t>
         </is>
       </c>
     </row>
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>toh846</t>
+          <t>toh842</t>
         </is>
       </c>
     </row>
@@ -13538,7 +13538,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>toh846a</t>
+          <t>toh844</t>
         </is>
       </c>
     </row>
@@ -13548,7 +13548,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>toh862</t>
+          <t>toh845-1</t>
         </is>
       </c>
     </row>
@@ -13558,7 +13558,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>toh865</t>
+          <t>toh845-2</t>
         </is>
       </c>
     </row>
@@ -13568,7 +13568,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>toh891</t>
+          <t>toh845-3</t>
         </is>
       </c>
     </row>
@@ -13578,7 +13578,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>toh953</t>
+          <t>toh845-4</t>
         </is>
       </c>
     </row>
@@ -13588,7 +13588,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>toh987</t>
+          <t>toh845-5</t>
         </is>
       </c>
     </row>
@@ -13598,7 +13598,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>toh1024</t>
+          <t>toh846</t>
         </is>
       </c>
     </row>
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>toh1059</t>
+          <t>toh846a</t>
         </is>
       </c>
     </row>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>toh1059a</t>
+          <t>toh862</t>
         </is>
       </c>
     </row>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>toh1066</t>
+          <t>toh865</t>
         </is>
       </c>
     </row>
@@ -13638,7 +13638,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>toh1067</t>
+          <t>toh891</t>
         </is>
       </c>
     </row>
@@ -13648,7 +13648,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>toh1090</t>
+          <t>toh953</t>
         </is>
       </c>
     </row>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>toh1091</t>
+          <t>toh987</t>
         </is>
       </c>
     </row>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>toh1096</t>
+          <t>toh1024</t>
         </is>
       </c>
     </row>
@@ -13678,7 +13678,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>toh1107</t>
+          <t>toh1059</t>
         </is>
       </c>
     </row>
@@ -13688,7 +13688,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>toh4568-1</t>
+          <t>toh1059a</t>
         </is>
       </c>
     </row>
@@ -13698,7 +13698,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>toh4568-2</t>
+          <t>toh1066</t>
         </is>
       </c>
     </row>
@@ -13708,7 +13708,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>toh4568-3</t>
+          <t>toh1067</t>
         </is>
       </c>
     </row>
@@ -13718,7 +13718,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>toh4568-4</t>
+          <t>toh1090</t>
         </is>
       </c>
     </row>
@@ -13727,6 +13727,76 @@
         <v>600</v>
       </c>
       <c r="B602" t="inlineStr">
+        <is>
+          <t>toh1091</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>toh1096</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>toh1107</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>toh4568-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>toh4568-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>toh4568-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>toh4568-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="inlineStr">
         <is>
           <t>toh4568-5</t>
         </is>

--- a/discrepancies.xlsx
+++ b/discrepancies.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,22 +666,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:g-ch-drup</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>Gö Chödrup</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'P8209': ['rgya gar gyi mkhan po dzi na mi tra', "kha che'i slob dpon dzi na mi tra/", 'jinamitra'], 'P8228': ['su ren dra bo d+hi', 'lha dbang byang chub', 'surendrabodhi'], 'P8205': ['zhu chen gyi lo ts+tsha ba ban de ye shes sde', 'sna nam btsun pa ye shes sde/']}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -691,22 +691,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>eft:g-ch-drup</t>
+          <t>eft:yesh-d-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gö Chödrup</t>
+          <t>Yeshé Dé</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'P8209': ['rgya gar gyi mkhan po dzi na mi tra', "kha che'i slob dpon dzi na mi tra/", 'jinamitra'], 'P8228': ['su ren dra bo d+hi', 'lha dbang byang chub', 'surendrabodhi'], 'P8205': ['zhu chen gyi lo ts+tsha ba ban de ye shes sde', 'sna nam btsun pa ye shes sde/']}</t>
         </is>
       </c>
     </row>
@@ -716,22 +716,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:band-yesh-d-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Danaśila</t>
+          <t>Bandé Yeshé Dé</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'P8209': ['rgya gar gyi mkhan po dzi na mi tra', "kha che'i slob dpon dzi na mi tra/", 'jinamitra'], 'P3214': ['dA na shI la', 'paN chen dA na shI la/', 'dānaśīla'], 'P8205': ['zhu chen gyi lots+tsha ba ban de ye shes sde', 'sna nam btsun pa ye shes sde/']}</t>
+          <t>{'P8209': ['rgya gar gyi mkhan po dzi na mi tra', "kha che'i slob dpon dzi na mi tra/", 'jinamitra'], 'P3214': ['dA na shI la', 'paN chen dA na shI la/', 'dānaśīla'], 'P8261': ['mu ni warma', 'rgya gar gyi mkhan po mu ni warma', 'munivarman'], 'P8205': ['zhu chen gyi lo ts+tsha ba ban de ye shes sde', 'sna nam btsun pa ye shes sde/']}</t>
         </is>
       </c>
     </row>
@@ -741,22 +741,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>eft:t-vidyakarasimha</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>t. Vidyākarasiṃha</t>
+          <t>Danaśila</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'P8213': ['rgya gar gyi mkhan po bid+yA ka ra sing ha', 'slob dpon bIr+ya sing+ha pra b+ha/', 'vīryakarasiṁha,vīryasiṁha'], 'P8260': ['lots+tsha ba ban de dpal gyi dbyangs', 'ban de dpal dbyangs/'], 'P8182': ['zhu chen gyi lots+tsha ba ban de dpal brtsegs', 'ska ba dpal brtsegs/']}</t>
+          <t>{'P8209': ['rgya gar gyi mkhan po dzi na mi tra', "kha che'i slob dpon dzi na mi tra/", 'jinamitra'], 'P3214': ['dA na shI la', 'paN chen dA na shI la/', 'dānaśīla'], 'P8205': ['zhu chen gyi lots+tsha ba ban de ye shes sde', 'sna nam btsun pa ye shes sde/']}</t>
         </is>
       </c>
     </row>
@@ -766,22 +766,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>eft:yesh-nyingpo</t>
+          <t>eft:t-vidyakarasimha</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Yeshé Nyingpo</t>
+          <t>t. Vidyākarasiṃha</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'P2548': ['rgya gar gyi mkhan po pradz+nyA bar ma', 'slob dpon shes rab go cha/', 'prajñāvarman'], 'P4255': ['lots+tsha ba ban de ye shes snying po', 'lo tsA ba ye shes snying po/', 'Jñānagarbha'], 'P8182': ['zhu chen gyi lots+tsha ba ban de dpal brtsegs', 'ska ba dpal brtsegs/']}</t>
+          <t>{'P8213': ['rgya gar gyi mkhan po bid+yA ka ra sing ha', 'slob dpon bIr+ya sing+ha pra b+ha/', 'vīryakarasiṁha,vīryasiṁha'], 'P8260': ['lots+tsha ba ban de dpal gyi dbyangs', 'ban de dpal dbyangs/'], 'P8182': ['zhu chen gyi lots+tsha ba ban de dpal brtsegs', 'ska ba dpal brtsegs/']}</t>
         </is>
       </c>
     </row>
@@ -791,22 +791,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>eft:band-yesh-d-</t>
+          <t>eft:yesh-nyingpo</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bandé Yeshé Dé</t>
+          <t>Yeshé Nyingpo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'P8228': ['rgya gar gyi mkhan po su ren dra bo d+hi', 'lha dbang byang chub', 'surendrabodhi'], 'P8205': ['zhu chen gyi lots+tsha ba ban de ye shes sde', 'sna nam btsun pa ye shes sde/']}</t>
+          <t>{'P2548': ['rgya gar gyi mkhan po pradz+nyA bar ma', 'slob dpon shes rab go cha/', 'prajñāvarman'], 'P4255': ['lots+tsha ba ban de ye shes snying po', 'lo tsA ba ye shes snying po/', 'Jñānagarbha'], 'P8182': ['zhu chen gyi lots+tsha ba ban de dpal brtsegs', 'ska ba dpal brtsegs/']}</t>
         </is>
       </c>
     </row>
@@ -1241,22 +1241,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>307</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>eft:zhang-yesh-d-</t>
+          <t>eft:gew-pal</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Zhang Yeshé Dé</t>
+          <t>Gewé Pal</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>{'P8228': ['rgya gar gyi mkhan po su ren dra bo d+hi', 'lha dbang byang chub', 'surendrabodhi'], 'P8205': ['zhu chen gyi lo ts+tsha ba ban de zhang ye shes sde', 'sna nam btsun pa ye shes sde/']}</t>
+          <t>{'P8219': ['rgya gar gyi mkhan po bi shud d+ha sing ha', 'mkhan po bi shud+d+ha sing ha/', 'viśuddhasiṃha'], 'P4263': ["lo ts+tsha ba ban de dge ba'i dpal", 'lo tsA ba dge ba dpal/'], 'P8182': ['zhu chen gyi lo ts+tsha ba ban de dpal brtsegs', 'ska ba dpal brtsegs/']}</t>
         </is>
       </c>
     </row>
@@ -1266,22 +1266,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>309</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>eft:sherab-lekpa</t>
+          <t>eft:zhang-yesh-d-</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sherab Lekpa</t>
+          <t>Zhang Yeshé Dé</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>{'P8171': ['rgya gar gyi mkhan po d+harmA shrI b+ha dra', 'mkhan po d+harma shrI b+hA dra/', 'dharmaśrībhadra'], 'P4242': ['zhu chen gyi lots+tsha ba dge slong shes rab legs pa', 'shes rab legs pa/'], 'P753': ['sgra bsgyur gyi lots+tsha ba chen po dge slong rin chen bzang po', 'lo chen rin chen bzang po/']}</t>
+          <t>{'P8228': ['rgya gar gyi mkhan po su ren dra bo d+hi', 'lha dbang byang chub', 'surendrabodhi'], 'P8205': ['zhu chen gyi lo ts+tsha ba ban de zhang ye shes sde', 'sna nam btsun pa ye shes sde/']}</t>
         </is>
       </c>
     </row>
@@ -1291,22 +1291,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>349</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>eft:sakya-yesh-</t>
+          <t>eft:sherab-lekpa</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Śākya Yeshé</t>
+          <t>Sherab Lekpa</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>{'P8151': ['paN+Di ta ga ye d+ha ra', 'ga ya dha ra/', 'gayādhara, Kāyastha Gayādhara'], 'P3285': ['lots+tsha ba dge slong shAkya ye shes', 'brog mi lo tsA ba shAkya ye shes/']}</t>
+          <t>{'P8171': ['rgya gar gyi mkhan po d+harmA shrI b+ha dra', 'mkhan po d+harma shrI b+hA dra/', 'dharmaśrībhadra'], 'P4242': ['zhu chen gyi lots+tsha ba dge slong shes rab legs pa', 'shes rab legs pa/'], 'P753': ['sgra bsgyur gyi lots+tsha ba chen po dge slong rin chen bzang po', 'lo chen rin chen bzang po/']}</t>
         </is>
       </c>
     </row>
@@ -1316,22 +1316,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>384</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>eft:jinavara</t>
+          <t>eft:sakya-yesh-</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jinavara</t>
+          <t>Śākya Yeshé</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>{'P0TMP098': ['rgya gar gyi mkhan po dzi na bar', 'rgya gar gyi mkhan po dzi na bar', 'Jinapara'], 'P3458': ["bod kyi lo ts+tsha ba chen po 'gos lhas btsas", 'gos lo tsA ba khug pa lhas brtsas/']}</t>
+          <t>{'P8151': ['paN+Di ta ga ye d+ha ra', 'ga ya dha ra/', 'gayādhara, Kāyastha Gayādhara'], 'P3285': ['lots+tsha ba dge slong shAkya ye shes', 'brog mi lo tsA ba shAkya ye shes/']}</t>
         </is>
       </c>
     </row>
@@ -1341,22 +1341,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>425</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>eft:trakpa-gyaltsen</t>
+          <t>eft:jinavara</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Trakpa Gyaltsen</t>
+          <t>Jinavara</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>{'P4CZ10553': ['paN+Di ta rat+na shrI', 'mkhas pa rin chen dpal ye shes/', 'ratnaśrījñāna ?'], 'P2637': ['lo ts+tsha ba grags pa rgyal mtshan', 'yar lung lo tsA ba grags pa rgyal mtshan/'], '-': ["dpal ldan sa skya'i gtsug lag khang chen po"]}</t>
+          <t>{'P0TMP098': ['rgya gar gyi mkhan po dzi na bar', 'rgya gar gyi mkhan po dzi na bar', 'Jinapara'], 'P3458': ["bod kyi lo ts+tsha ba chen po 'gos lhas btsas", 'gos lo tsA ba khug pa lhas brtsas/']}</t>
         </is>
       </c>
     </row>
@@ -1366,22 +1366,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>431</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>eft:phakpa-sherab</t>
+          <t>eft:trakpa-gyaltsen</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Phakpa Sherab</t>
+          <t>Trakpa Gyaltsen</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>{'P8206': ["kha che'i paN+Di ta tse lu", 'tse lu/', 'celu-pa'], 'P3709': ["bod kyi lo ts+tsha ba 'phags pa shes rab", "zangs dkar lo tsA ba 'phags pa shes rab/"]}</t>
+          <t>{'P4CZ10553': ['paN+Di ta rat+na shrI', 'mkhas pa rin chen dpal ye shes/', 'ratnaśrījñāna ?'], 'P2637': ['lo ts+tsha ba grags pa rgyal mtshan', 'yar lung lo tsA ba grags pa rgyal mtshan/'], '-': ["dpal ldan sa skya'i gtsug lag khang chen po"]}</t>
         </is>
       </c>
     </row>
@@ -1391,22 +1391,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>498</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>eft:kumarakalasa</t>
+          <t>eft:phakpa-sherab</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kumārakalaśa</t>
+          <t>Phakpa Sherab</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>{'P4CZ15137': ['rgya gar gyi mkhan po dge bsnyen chen po ku mA ra ka la sha', 'mkhan po gzhon nu bum pa/', 'kumārakalasa'], 'P8216': ['sgra sgyur gyi lots+tsha ba dge slong shAkya blo gros', 'lo tsA ba shAkya blo gros/']}</t>
+          <t>{'P8206': ["kha che'i paN+Di ta tse lu", 'tse lu/', 'celu-pa'], 'P3709': ["bod kyi lo ts+tsha ba 'phags pa shes rab", "zangs dkar lo tsA ba 'phags pa shes rab/"]}</t>
         </is>
       </c>
     </row>
@@ -1416,22 +1416,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>543</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>eft:dipamkara-srijnana</t>
+          <t>eft:kumarakalasa</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Dīpaṃkara Śrījñāna</t>
+          <t>Kumārakalaśa</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>{'P3379': ['rgya gar gyi mkhan po chen po dI paM ka ra shrIdz+nyA na', 'slob dpon mar med mdzad bzang po/', 'Atiśa Dīpaṃkaraśrījñāna'], 'P1242': ["lots+tsha ba dge slong dge ba'i blo gros", "rma dge ba'i blo gros"], 'P3456': ['dge slong tshul khrims rgyal ba', "nag 'tsho lo tsA ba tshul khrims rgyal ba/"]}</t>
+          <t>{'P4CZ15137': ['rgya gar gyi mkhan po dge bsnyen chen po ku mA ra ka la sha', 'mkhan po gzhon nu bum pa/', 'kumārakalasa'], 'P8216': ['sgra sgyur gyi lots+tsha ba dge slong shAkya blo gros', 'lo tsA ba shAkya blo gros/']}</t>
         </is>
       </c>
     </row>
@@ -1441,22 +1441,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>544</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>eft:pa-tshab-nyi-ma-grags</t>
+          <t>eft:dipamkara-srijnana</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>pa tshab nyi ma grags</t>
+          <t>Dīpaṃkara Śrījñāna</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>{'P0TMP104': ['rgya gar gyi mkhan po pu N+ya sam+b+ha wa', 'rgya gar gyi mkhan po bu N+ya saM b+ha wa', 'Punyasambhava'], 'P5651': ['lo ts+tsha ba pa tsha ba nyi ma grags', 'pa tshab lo tsA ba nyi ma grags pa/']}</t>
+          <t>{'P3379': ['rgya gar gyi mkhan po chen po dI paM ka ra shrIdz+nyA na', 'slob dpon mar med mdzad bzang po/', 'Atiśa Dīpaṃkaraśrījñāna'], 'P1242': ["lots+tsha ba dge slong dge ba'i blo gros", "rma dge ba'i blo gros"], 'P3456': ['dge slong tshul khrims rgyal ba', "nag 'tsho lo tsA ba tshul khrims rgyal ba/"]}</t>
         </is>
       </c>
     </row>
@@ -1466,22 +1466,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>850</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>eft:band-yesh-de</t>
+          <t>eft:pa-tshab-nyi-ma-grags</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Bandé Yeshé De</t>
+          <t>pa tshab nyi ma grags</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>{'P8209': ['rgya gar gyi mkhan po dzi na mi tra', "kha che'i slob dpon dzi na mi tra/", 'jinamitra'], 'P3214': ['dA na shI la', 'paN chen dA na shI la/', 'dānaśīla'], 'P8205': ['zhu chen gyi lots+tsha ba ban+de ye shes sde', 'sna nam btsun pa ye shes sde/']}</t>
+          <t>{'P0TMP104': ['rgya gar gyi mkhan po pu N+ya sam+b+ha wa', 'rgya gar gyi mkhan po bu N+ya saM b+ha wa', 'Punyasambhava'], 'P5651': ['lo ts+tsha ba pa tsha ba nyi ma grags', 'pa tshab lo tsA ba nyi ma grags pa/']}</t>
         </is>
       </c>
     </row>
@@ -1491,20 +1491,45 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-de</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé De</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>{'P8209': ['rgya gar gyi mkhan po dzi na mi tra', "kha che'i slob dpon dzi na mi tra/", 'jinamitra'], 'P3214': ['dA na shI la', 'paN chen dA na shI la/', 'dānaśīla'], 'P8205': ['zhu chen gyi lots+tsha ba ban+de ye shes sde', 'sna nam btsun pa ye shes sde/']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>747</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>eft:buddhakaravarma</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Buddhākaravarma</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>{'P8245': ['rgya gar gyi mkhan po bud+d+ha A ka ra ba rma', 'bud d+ha ka ra wa rman/', 'buddhakaravarman ?'], 'P3890': ['lo ts+tsha ba dge slong chos kyi shes rab', 'shel dkar lo tsA ba chos kyi shes rab/']}</t>
         </is>
@@ -7707,7 +7732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B609"/>
+  <dimension ref="A1:B606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8488,7 +8513,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>toh51</t>
+          <t>toh55</t>
         </is>
       </c>
     </row>
@@ -8498,7 +8523,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>toh55</t>
+          <t>toh57</t>
         </is>
       </c>
     </row>
@@ -8508,7 +8533,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>toh57</t>
+          <t>toh58</t>
         </is>
       </c>
     </row>
@@ -8518,7 +8543,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>toh58</t>
+          <t>toh61</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8553,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>toh61</t>
+          <t>toh64</t>
         </is>
       </c>
     </row>
@@ -8538,7 +8563,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>toh64</t>
+          <t>toh106</t>
         </is>
       </c>
     </row>
@@ -8548,7 +8573,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>toh106</t>
+          <t>toh110</t>
         </is>
       </c>
     </row>
@@ -8558,7 +8583,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>toh110</t>
+          <t>toh122</t>
         </is>
       </c>
     </row>
@@ -8568,7 +8593,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>toh122</t>
+          <t>toh123</t>
         </is>
       </c>
     </row>
@@ -8578,7 +8603,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>toh123</t>
+          <t>toh125</t>
         </is>
       </c>
     </row>
@@ -8588,7 +8613,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>toh125</t>
+          <t>toh135</t>
         </is>
       </c>
     </row>
@@ -8598,7 +8623,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>toh135</t>
+          <t>toh137</t>
         </is>
       </c>
     </row>
@@ -8608,7 +8633,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>toh137</t>
+          <t>toh140</t>
         </is>
       </c>
     </row>
@@ -8618,7 +8643,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>toh140</t>
+          <t>toh525</t>
         </is>
       </c>
     </row>
@@ -8628,7 +8653,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>toh525</t>
+          <t>toh141</t>
         </is>
       </c>
     </row>
@@ -8638,7 +8663,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>toh141</t>
+          <t>toh526</t>
         </is>
       </c>
     </row>
@@ -8648,7 +8673,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>toh526</t>
+          <t>toh916</t>
         </is>
       </c>
     </row>
@@ -8658,7 +8683,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>toh916</t>
+          <t>toh143</t>
         </is>
       </c>
     </row>
@@ -8668,7 +8693,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>toh143</t>
+          <t>toh611</t>
         </is>
       </c>
     </row>
@@ -8678,7 +8703,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>toh611</t>
+          <t>toh918</t>
         </is>
       </c>
     </row>
@@ -8688,7 +8713,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>toh918</t>
+          <t>toh149</t>
         </is>
       </c>
     </row>
@@ -8698,7 +8723,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>toh149</t>
+          <t>toh168</t>
         </is>
       </c>
     </row>
@@ -8708,7 +8733,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>toh168</t>
+          <t>toh172</t>
         </is>
       </c>
     </row>
@@ -8718,7 +8743,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>toh172</t>
+          <t>toh174</t>
         </is>
       </c>
     </row>
@@ -8728,7 +8753,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>toh174</t>
+          <t>toh186</t>
         </is>
       </c>
     </row>
@@ -8738,7 +8763,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>toh186</t>
+          <t>toh187</t>
         </is>
       </c>
     </row>
@@ -8748,7 +8773,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>toh187</t>
+          <t>toh192</t>
         </is>
       </c>
     </row>
@@ -8758,7 +8783,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>toh192</t>
+          <t>toh193</t>
         </is>
       </c>
     </row>
@@ -8768,7 +8793,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>toh193</t>
+          <t>toh739</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8803,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>toh739</t>
+          <t>toh194</t>
         </is>
       </c>
     </row>
@@ -8788,7 +8813,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>toh194</t>
+          <t>toh206</t>
         </is>
       </c>
     </row>
@@ -8798,7 +8823,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>toh206</t>
+          <t>toh207</t>
         </is>
       </c>
     </row>
@@ -8808,7 +8833,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>toh207</t>
+          <t>toh210</t>
         </is>
       </c>
     </row>
@@ -8818,7 +8843,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>toh210</t>
+          <t>toh211</t>
         </is>
       </c>
     </row>
@@ -8828,7 +8853,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>toh211</t>
+          <t>toh520</t>
         </is>
       </c>
     </row>
@@ -8838,7 +8863,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>toh520</t>
+          <t>toh980</t>
         </is>
       </c>
     </row>
@@ -8848,7 +8873,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>toh980</t>
+          <t>toh216</t>
         </is>
       </c>
     </row>
@@ -8858,7 +8883,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>toh216</t>
+          <t>toh236</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8893,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>toh236</t>
+          <t>toh237</t>
         </is>
       </c>
     </row>
@@ -8878,7 +8903,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>toh237</t>
+          <t>toh241</t>
         </is>
       </c>
     </row>
@@ -8888,7 +8913,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>toh241</t>
+          <t>toh243</t>
         </is>
       </c>
     </row>
@@ -8898,7 +8923,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>toh243</t>
+          <t>toh250</t>
         </is>
       </c>
     </row>
@@ -8908,7 +8933,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>toh250</t>
+          <t>toh251</t>
         </is>
       </c>
     </row>
@@ -8918,7 +8943,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>toh251</t>
+          <t>toh252</t>
         </is>
       </c>
     </row>
@@ -8928,7 +8953,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>toh252</t>
+          <t>toh254</t>
         </is>
       </c>
     </row>
@@ -8938,7 +8963,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>toh254</t>
+          <t>toh255</t>
         </is>
       </c>
     </row>
@@ -8948,7 +8973,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>toh255</t>
+          <t>toh256</t>
         </is>
       </c>
     </row>
@@ -8958,7 +8983,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>toh256</t>
+          <t>toh261</t>
         </is>
       </c>
     </row>
@@ -8968,7 +8993,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>toh261</t>
+          <t>toh262</t>
         </is>
       </c>
     </row>
@@ -8978,7 +9003,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>toh262</t>
+          <t>toh263</t>
         </is>
       </c>
     </row>
@@ -8988,7 +9013,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>toh263</t>
+          <t>toh264</t>
         </is>
       </c>
     </row>
@@ -8998,7 +9023,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>toh264</t>
+          <t>toh265</t>
         </is>
       </c>
     </row>
@@ -9008,7 +9033,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>toh265</t>
+          <t>toh266</t>
         </is>
       </c>
     </row>
@@ -9018,7 +9043,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>toh266</t>
+          <t>toh268</t>
         </is>
       </c>
     </row>
@@ -9028,7 +9053,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>toh268</t>
+          <t>toh270</t>
         </is>
       </c>
     </row>
@@ -9038,7 +9063,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>toh270</t>
+          <t>toh512</t>
         </is>
       </c>
     </row>
@@ -9048,7 +9073,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>toh512</t>
+          <t>toh852</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9083,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>toh852</t>
+          <t>toh279</t>
         </is>
       </c>
     </row>
@@ -9068,7 +9093,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>toh279</t>
+          <t>toh280</t>
         </is>
       </c>
     </row>
@@ -9078,7 +9103,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>toh280</t>
+          <t>toh281</t>
         </is>
       </c>
     </row>
@@ -9088,7 +9113,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>toh281</t>
+          <t>toh282</t>
         </is>
       </c>
     </row>
@@ -9098,7 +9123,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>toh282</t>
+          <t>toh283</t>
         </is>
       </c>
     </row>
@@ -9108,7 +9133,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>toh283</t>
+          <t>toh284</t>
         </is>
       </c>
     </row>
@@ -9118,7 +9143,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>toh284</t>
+          <t>toh285</t>
         </is>
       </c>
     </row>
@@ -9128,7 +9153,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>toh285</t>
+          <t>toh296</t>
         </is>
       </c>
     </row>
@@ -9138,7 +9163,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>toh296</t>
+          <t>toh297</t>
         </is>
       </c>
     </row>
@@ -9148,7 +9173,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>toh297</t>
+          <t>toh302</t>
         </is>
       </c>
     </row>
@@ -9158,7 +9183,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>toh302</t>
+          <t>toh303</t>
         </is>
       </c>
     </row>
@@ -9168,7 +9193,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>toh303</t>
+          <t>toh305</t>
         </is>
       </c>
     </row>
@@ -9178,7 +9203,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>toh305</t>
+          <t>toh308</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9213,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>toh308</t>
+          <t>toh310</t>
         </is>
       </c>
     </row>
@@ -9198,7 +9223,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>toh310</t>
+          <t>toh311</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9233,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>toh311</t>
+          <t>toh313</t>
         </is>
       </c>
     </row>
@@ -9218,7 +9243,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>toh313</t>
+          <t>toh314</t>
         </is>
       </c>
     </row>
@@ -9228,7 +9253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>toh314</t>
+          <t>toh315</t>
         </is>
       </c>
     </row>
@@ -9238,7 +9263,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>toh315</t>
+          <t>toh316</t>
         </is>
       </c>
     </row>
@@ -9248,7 +9273,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>toh316</t>
+          <t>toh318</t>
         </is>
       </c>
     </row>
@@ -9258,7 +9283,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>toh318</t>
+          <t>toh321</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9293,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>toh321</t>
+          <t>toh322</t>
         </is>
       </c>
     </row>
@@ -9278,7 +9303,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>toh322</t>
+          <t>toh323</t>
         </is>
       </c>
     </row>
@@ -9288,7 +9313,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>toh323</t>
+          <t>toh324</t>
         </is>
       </c>
     </row>
@@ -9298,7 +9323,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>toh324</t>
+          <t>toh325</t>
         </is>
       </c>
     </row>
@@ -9308,7 +9333,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>toh325</t>
+          <t>toh328</t>
         </is>
       </c>
     </row>
@@ -9318,7 +9343,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>toh328</t>
+          <t>toh329</t>
         </is>
       </c>
     </row>
@@ -9328,7 +9353,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>toh329</t>
+          <t>toh331</t>
         </is>
       </c>
     </row>
@@ -9338,7 +9363,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>toh331</t>
+          <t>toh335</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9373,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>toh335</t>
+          <t>toh336</t>
         </is>
       </c>
     </row>
@@ -9358,7 +9383,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>toh336</t>
+          <t>toh337</t>
         </is>
       </c>
     </row>
@@ -9368,7 +9393,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>toh337</t>
+          <t>toh338</t>
         </is>
       </c>
     </row>
@@ -9378,7 +9403,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>toh338</t>
+          <t>toh339</t>
         </is>
       </c>
     </row>
@@ -9388,7 +9413,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>toh339</t>
+          <t>toh340</t>
         </is>
       </c>
     </row>
@@ -9398,7 +9423,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>toh340</t>
+          <t>toh341</t>
         </is>
       </c>
     </row>
@@ -9408,7 +9433,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>toh341</t>
+          <t>toh342</t>
         </is>
       </c>
     </row>
@@ -9418,7 +9443,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>toh342</t>
+          <t>toh350</t>
         </is>
       </c>
     </row>
@@ -9428,7 +9453,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>toh350</t>
+          <t>toh352</t>
         </is>
       </c>
     </row>
@@ -9438,7 +9463,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>toh352</t>
+          <t>toh353</t>
         </is>
       </c>
     </row>
@@ -9448,7 +9473,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>toh353</t>
+          <t>toh355</t>
         </is>
       </c>
     </row>
@@ -9458,7 +9483,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>toh355</t>
+          <t>toh356</t>
         </is>
       </c>
     </row>
@@ -9468,7 +9493,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>toh356</t>
+          <t>toh357</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9503,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>toh357</t>
+          <t>toh359</t>
         </is>
       </c>
     </row>
@@ -9488,7 +9513,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>toh359</t>
+          <t>toh366</t>
         </is>
       </c>
     </row>
@@ -9498,7 +9523,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>toh366</t>
+          <t>toh378</t>
         </is>
       </c>
     </row>
@@ -9508,7 +9533,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>toh378</t>
+          <t>toh417</t>
         </is>
       </c>
     </row>
@@ -9518,7 +9543,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>toh417</t>
+          <t>toh433</t>
         </is>
       </c>
     </row>
@@ -9528,7 +9553,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>toh433</t>
+          <t>toh434</t>
         </is>
       </c>
     </row>
@@ -9538,7 +9563,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>toh434</t>
+          <t>toh452</t>
         </is>
       </c>
     </row>
@@ -9548,7 +9573,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>toh452</t>
+          <t>toh456</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9583,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>toh456</t>
+          <t>toh460a</t>
         </is>
       </c>
     </row>
@@ -9568,7 +9593,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>toh460a</t>
+          <t>toh952</t>
         </is>
       </c>
     </row>
@@ -9578,7 +9603,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>toh952</t>
+          <t>toh469</t>
         </is>
       </c>
     </row>
@@ -9588,7 +9613,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>toh469</t>
+          <t>toh471</t>
         </is>
       </c>
     </row>
@@ -9598,7 +9623,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>toh471</t>
+          <t>toh505a</t>
         </is>
       </c>
     </row>
@@ -9608,7 +9633,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>toh505a</t>
+          <t>toh508</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9643,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>toh508</t>
+          <t>toh509</t>
         </is>
       </c>
     </row>
@@ -9628,7 +9653,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>toh509</t>
+          <t>toh920</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9663,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>toh920</t>
+          <t>toh516</t>
         </is>
       </c>
     </row>
@@ -9648,7 +9673,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>toh516</t>
+          <t>toh886</t>
         </is>
       </c>
     </row>
@@ -9658,7 +9683,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>toh886</t>
+          <t>toh519</t>
         </is>
       </c>
     </row>
@@ -9668,7 +9693,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>toh519</t>
+          <t>toh979</t>
         </is>
       </c>
     </row>
@@ -9678,7 +9703,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>toh979</t>
+          <t>toh521</t>
         </is>
       </c>
     </row>
@@ -9688,7 +9713,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>toh521</t>
+          <t>toh981</t>
         </is>
       </c>
     </row>
@@ -9698,7 +9723,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>toh981</t>
+          <t>toh522</t>
         </is>
       </c>
     </row>
@@ -9708,7 +9733,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>toh522</t>
+          <t>toh848</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9743,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>toh848</t>
+          <t>toh524</t>
         </is>
       </c>
     </row>
@@ -9728,7 +9753,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>toh524</t>
+          <t>toh977</t>
         </is>
       </c>
     </row>
@@ -9738,7 +9763,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>toh977</t>
+          <t>toh528</t>
         </is>
       </c>
     </row>
@@ -9748,7 +9773,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>toh528</t>
+          <t>toh858</t>
         </is>
       </c>
     </row>
@@ -9758,7 +9783,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>toh858</t>
+          <t>toh532</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9793,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>toh532</t>
+          <t>toh873</t>
         </is>
       </c>
     </row>
@@ -9778,7 +9803,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>toh873</t>
+          <t>toh533</t>
         </is>
       </c>
     </row>
@@ -9788,7 +9813,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>toh533</t>
+          <t>toh860</t>
         </is>
       </c>
     </row>
@@ -9798,7 +9823,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>toh860</t>
+          <t>toh534</t>
         </is>
       </c>
     </row>
@@ -9808,7 +9833,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>toh534</t>
+          <t>toh861</t>
         </is>
       </c>
     </row>
@@ -9818,7 +9843,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>toh861</t>
+          <t>toh535</t>
         </is>
       </c>
     </row>
@@ -9828,7 +9853,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>toh535</t>
+          <t>toh868</t>
         </is>
       </c>
     </row>
@@ -9838,7 +9863,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>toh868</t>
+          <t>toh536</t>
         </is>
       </c>
     </row>
@@ -9848,7 +9873,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>toh536</t>
+          <t>toh869</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9883,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>toh869</t>
+          <t>toh537</t>
         </is>
       </c>
     </row>
@@ -9868,7 +9893,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>toh537</t>
+          <t>toh870</t>
         </is>
       </c>
     </row>
@@ -9878,7 +9903,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>toh870</t>
+          <t>toh538</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9913,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>toh538</t>
+          <t>toh1068</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9923,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>toh1068</t>
+          <t>toh539</t>
         </is>
       </c>
     </row>
@@ -9908,7 +9933,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>toh539</t>
+          <t>toh1069</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9943,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>toh1069</t>
+          <t>toh539a</t>
         </is>
       </c>
     </row>
@@ -9928,7 +9953,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>toh539a</t>
+          <t>toh1070</t>
         </is>
       </c>
     </row>
@@ -9938,7 +9963,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>toh1070</t>
+          <t>toh539b</t>
         </is>
       </c>
     </row>
@@ -9948,7 +9973,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>toh539b</t>
+          <t>toh1071</t>
         </is>
       </c>
     </row>
@@ -9958,7 +9983,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>toh1071</t>
+          <t>toh539c</t>
         </is>
       </c>
     </row>
@@ -9968,7 +9993,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>toh539c</t>
+          <t>toh1072</t>
         </is>
       </c>
     </row>
@@ -9978,7 +10003,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>toh1072</t>
+          <t>toh539d</t>
         </is>
       </c>
     </row>
@@ -9988,7 +10013,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>toh539d</t>
+          <t>toh1073</t>
         </is>
       </c>
     </row>
@@ -9998,7 +10023,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>toh1073</t>
+          <t>toh539e</t>
         </is>
       </c>
     </row>
@@ -10008,7 +10033,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>toh539e</t>
+          <t>toh774</t>
         </is>
       </c>
     </row>
@@ -10018,7 +10043,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>toh774</t>
+          <t>toh1074</t>
         </is>
       </c>
     </row>
@@ -10028,7 +10053,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>toh1074</t>
+          <t>toh539f</t>
         </is>
       </c>
     </row>
@@ -10038,7 +10063,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>toh539f</t>
+          <t>toh866</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10073,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>toh866</t>
+          <t>toh540</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10083,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>toh540</t>
+          <t>toh1078</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10093,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>toh1078</t>
+          <t>toh541</t>
         </is>
       </c>
     </row>
@@ -10078,7 +10103,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>toh541</t>
+          <t>toh931</t>
         </is>
       </c>
     </row>
@@ -10088,7 +10113,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>toh931</t>
+          <t>toh546</t>
         </is>
       </c>
     </row>
@@ -10098,7 +10123,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>toh546</t>
+          <t>toh893</t>
         </is>
       </c>
     </row>
@@ -10108,7 +10133,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>toh893</t>
+          <t>toh547</t>
         </is>
       </c>
     </row>
@@ -10118,7 +10143,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>toh547</t>
+          <t>toh548</t>
         </is>
       </c>
     </row>
@@ -10128,7 +10153,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>toh548</t>
+          <t>toh894</t>
         </is>
       </c>
     </row>
@@ -10138,7 +10163,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>toh894</t>
+          <t>toh549</t>
         </is>
       </c>
     </row>
@@ -10148,7 +10173,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>toh549</t>
+          <t>toh895</t>
         </is>
       </c>
     </row>
@@ -10158,7 +10183,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>toh895</t>
+          <t>toh550</t>
         </is>
       </c>
     </row>
@@ -10168,7 +10193,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>toh550</t>
+          <t>toh896</t>
         </is>
       </c>
     </row>
@@ -10178,7 +10203,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>toh896</t>
+          <t>toh551</t>
         </is>
       </c>
     </row>
@@ -10188,7 +10213,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>toh551</t>
+          <t>toh552</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10223,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>toh552</t>
+          <t>toh557</t>
         </is>
       </c>
     </row>
@@ -10208,7 +10233,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>toh557</t>
+          <t>toh560</t>
         </is>
       </c>
     </row>
@@ -10218,7 +10243,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>toh560</t>
+          <t>toh565</t>
         </is>
       </c>
     </row>
@@ -10228,7 +10253,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>toh565</t>
+          <t>toh566</t>
         </is>
       </c>
     </row>
@@ -10238,7 +10263,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>toh566</t>
+          <t>toh568</t>
         </is>
       </c>
     </row>
@@ -10248,7 +10273,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>toh568</t>
+          <t>toh1004</t>
         </is>
       </c>
     </row>
@@ -10258,7 +10283,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>toh1004</t>
+          <t>toh571</t>
         </is>
       </c>
     </row>
@@ -10268,7 +10293,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>toh571</t>
+          <t>toh990</t>
         </is>
       </c>
     </row>
@@ -10278,7 +10303,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>toh990</t>
+          <t>toh572</t>
         </is>
       </c>
     </row>
@@ -10288,7 +10313,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>toh572</t>
+          <t>toh993</t>
         </is>
       </c>
     </row>
@@ -10298,7 +10323,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>toh993</t>
+          <t>toh573</t>
         </is>
       </c>
     </row>
@@ -10308,7 +10333,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>toh573</t>
+          <t>toh996</t>
         </is>
       </c>
     </row>
@@ -10318,7 +10343,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>toh996</t>
+          <t>toh575</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10353,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>toh575</t>
+          <t>toh917</t>
         </is>
       </c>
     </row>
@@ -10338,7 +10363,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>toh917</t>
+          <t>toh576</t>
         </is>
       </c>
     </row>
@@ -10348,7 +10373,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>toh576</t>
+          <t>toh932</t>
         </is>
       </c>
     </row>
@@ -10358,7 +10383,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>toh932</t>
+          <t>toh577</t>
         </is>
       </c>
     </row>
@@ -10368,7 +10393,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>toh577</t>
+          <t>toh933</t>
         </is>
       </c>
     </row>
@@ -10378,7 +10403,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>toh933</t>
+          <t>toh578</t>
         </is>
       </c>
     </row>
@@ -10388,7 +10413,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>toh578</t>
+          <t>toh934</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10423,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>toh934</t>
+          <t>toh579</t>
         </is>
       </c>
     </row>
@@ -10408,7 +10433,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>toh579</t>
+          <t>toh935</t>
         </is>
       </c>
     </row>
@@ -10418,7 +10443,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>toh935</t>
+          <t>toh580</t>
         </is>
       </c>
     </row>
@@ -10428,7 +10453,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>toh580</t>
+          <t>toh936</t>
         </is>
       </c>
     </row>
@@ -10438,7 +10463,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>toh936</t>
+          <t>toh581</t>
         </is>
       </c>
     </row>
@@ -10448,7 +10473,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>toh581</t>
+          <t>toh937</t>
         </is>
       </c>
     </row>
@@ -10458,7 +10483,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>toh937</t>
+          <t>toh582</t>
         </is>
       </c>
     </row>
@@ -10468,7 +10493,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>toh582</t>
+          <t>toh938</t>
         </is>
       </c>
     </row>
@@ -10478,7 +10503,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>toh938</t>
+          <t>toh583</t>
         </is>
       </c>
     </row>
@@ -10488,7 +10513,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>toh583</t>
+          <t>toh939</t>
         </is>
       </c>
     </row>
@@ -10498,7 +10523,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>toh939</t>
+          <t>toh584</t>
         </is>
       </c>
     </row>
@@ -10508,7 +10533,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>toh584</t>
+          <t>toh940</t>
         </is>
       </c>
     </row>
@@ -10518,7 +10543,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>toh940</t>
+          <t>toh585</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10553,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>toh585</t>
+          <t>toh941</t>
         </is>
       </c>
     </row>
@@ -10538,7 +10563,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>toh941</t>
+          <t>toh586</t>
         </is>
       </c>
     </row>
@@ -10548,7 +10573,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>toh586</t>
+          <t>toh942</t>
         </is>
       </c>
     </row>
@@ -10558,7 +10583,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>toh942</t>
+          <t>toh587</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10593,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>toh587</t>
+          <t>toh943</t>
         </is>
       </c>
     </row>
@@ -10578,7 +10603,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>toh943</t>
+          <t>toh588</t>
         </is>
       </c>
     </row>
@@ -10588,7 +10613,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>toh588</t>
+          <t>toh944</t>
         </is>
       </c>
     </row>
@@ -10598,7 +10623,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>toh944</t>
+          <t>toh589</t>
         </is>
       </c>
     </row>
@@ -10608,7 +10633,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>toh589</t>
+          <t>toh945</t>
         </is>
       </c>
     </row>
@@ -10618,7 +10643,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>toh945</t>
+          <t>toh590</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10653,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>toh590</t>
+          <t>toh985</t>
         </is>
       </c>
     </row>
@@ -10638,7 +10663,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>toh985</t>
+          <t>toh592</t>
         </is>
       </c>
     </row>
@@ -10648,7 +10673,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>toh592</t>
+          <t>toh986</t>
         </is>
       </c>
     </row>
@@ -10658,7 +10683,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>toh986</t>
+          <t>toh593</t>
         </is>
       </c>
     </row>
@@ -10668,7 +10693,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>toh593</t>
+          <t>toh595</t>
         </is>
       </c>
     </row>
@@ -10678,7 +10703,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>toh595</t>
+          <t>toh596</t>
         </is>
       </c>
     </row>
@@ -10688,7 +10713,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>toh596</t>
+          <t>toh600</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10723,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>toh600</t>
+          <t>toh962</t>
         </is>
       </c>
     </row>
@@ -10708,7 +10733,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>toh962</t>
+          <t>toh601</t>
         </is>
       </c>
     </row>
@@ -10718,7 +10743,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>toh601</t>
+          <t>toh884</t>
         </is>
       </c>
     </row>
@@ -10728,7 +10753,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>toh884</t>
+          <t>toh602</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10763,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>toh602</t>
+          <t>toh921</t>
         </is>
       </c>
     </row>
@@ -10748,7 +10773,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>toh921</t>
+          <t>toh603</t>
         </is>
       </c>
     </row>
@@ -10758,7 +10783,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>toh603</t>
+          <t>toh913</t>
         </is>
       </c>
     </row>
@@ -10768,7 +10793,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>toh913</t>
+          <t>toh604</t>
         </is>
       </c>
     </row>
@@ -10778,7 +10803,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>toh604</t>
+          <t>toh605</t>
         </is>
       </c>
     </row>
@@ -10788,7 +10813,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>toh605</t>
+          <t>toh607</t>
         </is>
       </c>
     </row>
@@ -10798,7 +10823,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>toh607</t>
+          <t>toh613</t>
         </is>
       </c>
     </row>
@@ -10808,7 +10833,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>toh613</t>
+          <t>toh989</t>
         </is>
       </c>
     </row>
@@ -10818,7 +10843,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>toh989</t>
+          <t>toh618</t>
         </is>
       </c>
     </row>
@@ -10828,7 +10853,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>toh618</t>
+          <t>toh967</t>
         </is>
       </c>
     </row>
@@ -10838,7 +10863,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>toh967</t>
+          <t>toh619</t>
         </is>
       </c>
     </row>
@@ -10848,7 +10873,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>toh619</t>
+          <t>toh1008</t>
         </is>
       </c>
     </row>
@@ -10858,7 +10883,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>toh1008</t>
+          <t>toh620</t>
         </is>
       </c>
     </row>
@@ -10868,7 +10893,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>toh620</t>
+          <t>toh1018</t>
         </is>
       </c>
     </row>
@@ -10878,7 +10903,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>toh1018</t>
+          <t>toh622</t>
         </is>
       </c>
     </row>
@@ -10888,7 +10913,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>toh622</t>
+          <t>toh1014</t>
         </is>
       </c>
     </row>
@@ -10898,7 +10923,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>toh1014</t>
+          <t>toh623</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10933,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>toh623</t>
+          <t>toh1015</t>
         </is>
       </c>
     </row>
@@ -10918,7 +10943,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>toh1015</t>
+          <t>toh624</t>
         </is>
       </c>
     </row>
@@ -10928,7 +10953,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>toh624</t>
+          <t>toh1017</t>
         </is>
       </c>
     </row>
@@ -10938,7 +10963,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>toh1017</t>
+          <t>toh626</t>
         </is>
       </c>
     </row>
@@ -10948,7 +10973,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>toh626</t>
+          <t>toh1019</t>
         </is>
       </c>
     </row>
@@ -10958,7 +10983,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>toh1019</t>
+          <t>toh627</t>
         </is>
       </c>
     </row>
@@ -10968,7 +10993,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>toh627</t>
+          <t>toh1052</t>
         </is>
       </c>
     </row>
@@ -10978,7 +11003,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>toh1052</t>
+          <t>toh629</t>
         </is>
       </c>
     </row>
@@ -10988,7 +11013,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>toh629</t>
+          <t>toh961</t>
         </is>
       </c>
     </row>
@@ -10998,7 +11023,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>toh961</t>
+          <t>toh630</t>
         </is>
       </c>
     </row>
@@ -11008,7 +11033,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>toh630</t>
+          <t>toh1010</t>
         </is>
       </c>
     </row>
@@ -11018,7 +11043,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>toh1010</t>
+          <t>toh632</t>
         </is>
       </c>
     </row>
@@ -11028,7 +11053,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>toh632</t>
+          <t>toh634</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11063,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>toh634</t>
+          <t>toh874</t>
         </is>
       </c>
     </row>
@@ -11048,7 +11073,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>toh874</t>
+          <t>toh635</t>
         </is>
       </c>
     </row>
@@ -11058,7 +11083,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>toh635</t>
+          <t>toh875</t>
         </is>
       </c>
     </row>
@@ -11068,7 +11093,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>toh875</t>
+          <t>toh636</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11103,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>toh636</t>
+          <t>toh876</t>
         </is>
       </c>
     </row>
@@ -11088,7 +11113,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>toh876</t>
+          <t>toh637</t>
         </is>
       </c>
     </row>
@@ -11098,7 +11123,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>toh637</t>
+          <t>toh877</t>
         </is>
       </c>
     </row>
@@ -11108,7 +11133,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>toh877</t>
+          <t>toh638</t>
         </is>
       </c>
     </row>
@@ -11118,7 +11143,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>toh638</t>
+          <t>toh878</t>
         </is>
       </c>
     </row>
@@ -11128,7 +11153,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>toh878</t>
+          <t>toh639</t>
         </is>
       </c>
     </row>
@@ -11138,7 +11163,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>toh639</t>
+          <t>toh879</t>
         </is>
       </c>
     </row>
@@ -11148,7 +11173,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>toh879</t>
+          <t>toh640</t>
         </is>
       </c>
     </row>
@@ -11158,7 +11183,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>toh640</t>
+          <t>toh880</t>
         </is>
       </c>
     </row>
@@ -11168,7 +11193,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>toh880</t>
+          <t>toh641</t>
         </is>
       </c>
     </row>
@@ -11178,7 +11203,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>toh641</t>
+          <t>toh881</t>
         </is>
       </c>
     </row>
@@ -11188,7 +11213,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>toh881</t>
+          <t>toh642</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11223,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>toh642</t>
+          <t>toh645</t>
         </is>
       </c>
     </row>
@@ -11208,7 +11233,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>toh645</t>
+          <t>toh646</t>
         </is>
       </c>
     </row>
@@ -11218,7 +11243,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>toh646</t>
+          <t>toh1080</t>
         </is>
       </c>
     </row>
@@ -11228,7 +11253,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>toh1080</t>
+          <t>toh647</t>
         </is>
       </c>
     </row>
@@ -11238,7 +11263,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>toh647</t>
+          <t>toh1079</t>
         </is>
       </c>
     </row>
@@ -11248,7 +11273,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>toh1079</t>
+          <t>toh649</t>
         </is>
       </c>
     </row>
@@ -11258,7 +11283,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>toh649</t>
+          <t>toh1077</t>
         </is>
       </c>
     </row>
@@ -11268,7 +11293,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>toh1077</t>
+          <t>toh651</t>
         </is>
       </c>
     </row>
@@ -11278,7 +11303,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>toh651</t>
+          <t>toh1040</t>
         </is>
       </c>
     </row>
@@ -11288,7 +11313,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>toh1040</t>
+          <t>toh652</t>
         </is>
       </c>
     </row>
@@ -11298,7 +11323,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>toh652</t>
+          <t>toh863</t>
         </is>
       </c>
     </row>
@@ -11308,7 +11333,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>toh863</t>
+          <t>toh655</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11343,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>toh655</t>
+          <t>toh959</t>
         </is>
       </c>
     </row>
@@ -11328,7 +11353,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>toh959</t>
+          <t>toh659</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11363,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>toh659</t>
+          <t>toh1065</t>
         </is>
       </c>
     </row>
@@ -11348,7 +11373,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>toh1065</t>
+          <t>toh661</t>
         </is>
       </c>
     </row>
@@ -11358,7 +11383,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>toh661</t>
+          <t>toh998</t>
         </is>
       </c>
     </row>
@@ -11368,7 +11393,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>toh998</t>
+          <t>toh662</t>
         </is>
       </c>
     </row>
@@ -11378,7 +11403,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>toh662</t>
+          <t>toh1007</t>
         </is>
       </c>
     </row>
@@ -11388,7 +11413,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>toh1007</t>
+          <t>toh663</t>
         </is>
       </c>
     </row>
@@ -11398,7 +11423,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>toh663</t>
+          <t>toh664</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11433,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>toh664</t>
+          <t>toh665</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11443,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>toh665</t>
+          <t>toh1084</t>
         </is>
       </c>
     </row>
@@ -11428,7 +11453,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>toh1084</t>
+          <t>toh668</t>
         </is>
       </c>
     </row>
@@ -11438,7 +11463,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>toh668</t>
+          <t>toh1085</t>
         </is>
       </c>
     </row>
@@ -11448,7 +11473,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>toh1085</t>
+          <t>toh670</t>
         </is>
       </c>
     </row>
@@ -11458,7 +11483,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>toh670</t>
+          <t>toh1087</t>
         </is>
       </c>
     </row>
@@ -11468,7 +11493,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>toh1087</t>
+          <t>toh671</t>
         </is>
       </c>
     </row>
@@ -11478,7 +11503,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>toh671</t>
+          <t>toh672</t>
         </is>
       </c>
     </row>
@@ -11488,7 +11513,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>toh672</t>
+          <t>toh1088</t>
         </is>
       </c>
     </row>
@@ -11498,7 +11523,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>toh1088</t>
+          <t>toh673</t>
         </is>
       </c>
     </row>
@@ -11508,7 +11533,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>toh673</t>
+          <t>toh1089</t>
         </is>
       </c>
     </row>
@@ -11518,7 +11543,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>toh1089</t>
+          <t>toh673a</t>
         </is>
       </c>
     </row>
@@ -11528,7 +11553,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>toh673a</t>
+          <t>toh675</t>
         </is>
       </c>
     </row>
@@ -11538,7 +11563,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>toh674</t>
+          <t>toh677</t>
         </is>
       </c>
     </row>
@@ -11548,7 +11573,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>toh849</t>
+          <t>toh864</t>
         </is>
       </c>
     </row>
@@ -11558,7 +11583,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>toh675</t>
+          <t>toh678</t>
         </is>
       </c>
     </row>
@@ -11568,7 +11593,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>toh677</t>
+          <t>toh867</t>
         </is>
       </c>
     </row>
@@ -11578,7 +11603,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>toh864</t>
+          <t>toh679</t>
         </is>
       </c>
     </row>
@@ -11588,7 +11613,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>toh678</t>
+          <t>toh851</t>
         </is>
       </c>
     </row>
@@ -11598,7 +11623,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>toh867</t>
+          <t>toh680</t>
         </is>
       </c>
     </row>
@@ -11608,7 +11633,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>toh679</t>
+          <t>toh889</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11643,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>toh851</t>
+          <t>toh683</t>
         </is>
       </c>
     </row>
@@ -11628,7 +11653,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>toh680</t>
+          <t>toh688</t>
         </is>
       </c>
     </row>
@@ -11638,7 +11663,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>toh889</t>
+          <t>toh902</t>
         </is>
       </c>
     </row>
@@ -11648,7 +11673,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>toh683</t>
+          <t>toh690</t>
         </is>
       </c>
     </row>
@@ -11658,7 +11683,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>toh688</t>
+          <t>toh695</t>
         </is>
       </c>
     </row>
@@ -11668,7 +11693,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>toh902</t>
+          <t>toh911</t>
         </is>
       </c>
     </row>
@@ -11678,7 +11703,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>toh690</t>
+          <t>toh696</t>
         </is>
       </c>
     </row>
@@ -11688,7 +11713,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>toh695</t>
+          <t>toh910</t>
         </is>
       </c>
     </row>
@@ -11698,7 +11723,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>toh911</t>
+          <t>toh697</t>
         </is>
       </c>
     </row>
@@ -11708,7 +11733,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>toh696</t>
+          <t>toh905</t>
         </is>
       </c>
     </row>
@@ -11718,7 +11743,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>toh910</t>
+          <t>toh698</t>
         </is>
       </c>
     </row>
@@ -11728,7 +11753,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>toh697</t>
+          <t>toh908</t>
         </is>
       </c>
     </row>
@@ -11738,7 +11763,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>toh905</t>
+          <t>toh705</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11773,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>toh698</t>
+          <t>toh900</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11783,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>toh908</t>
+          <t>toh706</t>
         </is>
       </c>
     </row>
@@ -11768,7 +11793,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>toh705</t>
+          <t>toh709</t>
         </is>
       </c>
     </row>
@@ -11778,7 +11803,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>toh900</t>
+          <t>toh978</t>
         </is>
       </c>
     </row>
@@ -11788,7 +11813,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>toh706</t>
+          <t>toh710</t>
         </is>
       </c>
     </row>
@@ -11798,7 +11823,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>toh709</t>
+          <t>toh930</t>
         </is>
       </c>
     </row>
@@ -11808,7 +11833,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>toh978</t>
+          <t>toh711</t>
         </is>
       </c>
     </row>
@@ -11818,7 +11843,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>toh710</t>
+          <t>toh1042</t>
         </is>
       </c>
     </row>
@@ -11828,7 +11853,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>toh930</t>
+          <t>toh712</t>
         </is>
       </c>
     </row>
@@ -11838,7 +11863,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>toh711</t>
+          <t>toh1043</t>
         </is>
       </c>
     </row>
@@ -11848,7 +11873,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>toh1042</t>
+          <t>toh713</t>
         </is>
       </c>
     </row>
@@ -11858,7 +11883,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>toh712</t>
+          <t>toh1044</t>
         </is>
       </c>
     </row>
@@ -11868,7 +11893,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>toh1043</t>
+          <t>toh714</t>
         </is>
       </c>
     </row>
@@ -11878,7 +11903,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>toh713</t>
+          <t>toh1045</t>
         </is>
       </c>
     </row>
@@ -11888,7 +11913,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>toh1044</t>
+          <t>toh715</t>
         </is>
       </c>
     </row>
@@ -11898,7 +11923,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>toh714</t>
+          <t>toh1046</t>
         </is>
       </c>
     </row>
@@ -11908,7 +11933,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>toh1045</t>
+          <t>toh716</t>
         </is>
       </c>
     </row>
@@ -11918,7 +11943,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>toh715</t>
+          <t>toh1047</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11953,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>toh1046</t>
+          <t>toh717</t>
         </is>
       </c>
     </row>
@@ -11938,7 +11963,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>toh716</t>
+          <t>toh1048</t>
         </is>
       </c>
     </row>
@@ -11948,7 +11973,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>toh1047</t>
+          <t>toh720</t>
         </is>
       </c>
     </row>
@@ -11958,7 +11983,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>toh717</t>
+          <t>toh1041</t>
         </is>
       </c>
     </row>
@@ -11968,7 +11993,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>toh1048</t>
+          <t>toh722</t>
         </is>
       </c>
     </row>
@@ -11978,7 +12003,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>toh720</t>
+          <t>toh812</t>
         </is>
       </c>
     </row>
@@ -11988,7 +12013,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>toh1041</t>
+          <t>toh1094</t>
         </is>
       </c>
     </row>
@@ -11998,7 +12023,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>toh722</t>
+          <t>toh727</t>
         </is>
       </c>
     </row>
@@ -12008,7 +12033,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>toh812</t>
+          <t>toh1000</t>
         </is>
       </c>
     </row>
@@ -12018,7 +12043,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>toh1094</t>
+          <t>toh728</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12053,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>toh727</t>
+          <t>toh729</t>
         </is>
       </c>
     </row>
@@ -12038,7 +12063,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>toh1000</t>
+          <t>toh1001</t>
         </is>
       </c>
     </row>
@@ -12048,7 +12073,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>toh728</t>
+          <t>toh730</t>
         </is>
       </c>
     </row>
@@ -12058,7 +12083,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>toh729</t>
+          <t>toh1002</t>
         </is>
       </c>
     </row>
@@ -12068,7 +12093,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>toh1001</t>
+          <t>toh731</t>
         </is>
       </c>
     </row>
@@ -12078,7 +12103,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>toh730</t>
+          <t>toh732</t>
         </is>
       </c>
     </row>
@@ -12088,7 +12113,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>toh1002</t>
+          <t>toh992</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12123,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>toh731</t>
+          <t>toh733</t>
         </is>
       </c>
     </row>
@@ -12108,7 +12133,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>toh732</t>
+          <t>toh906</t>
         </is>
       </c>
     </row>
@@ -12118,7 +12143,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>toh992</t>
+          <t>toh734</t>
         </is>
       </c>
     </row>
@@ -12128,7 +12153,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>toh733</t>
+          <t>toh968</t>
         </is>
       </c>
     </row>
@@ -12138,7 +12163,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>toh906</t>
+          <t>toh735</t>
         </is>
       </c>
     </row>
@@ -12148,7 +12173,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>toh734</t>
+          <t>toh994</t>
         </is>
       </c>
     </row>
@@ -12158,7 +12183,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>toh968</t>
+          <t>toh736</t>
         </is>
       </c>
     </row>
@@ -12168,7 +12193,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>toh735</t>
+          <t>toh995</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12203,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>toh994</t>
+          <t>toh737</t>
         </is>
       </c>
     </row>
@@ -12188,7 +12213,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>toh736</t>
+          <t>toh960</t>
         </is>
       </c>
     </row>
@@ -12198,7 +12223,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>toh995</t>
+          <t>toh738</t>
         </is>
       </c>
     </row>
@@ -12208,7 +12233,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>toh737</t>
+          <t>toh1092</t>
         </is>
       </c>
     </row>
@@ -12218,7 +12243,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>toh960</t>
+          <t>toh742</t>
         </is>
       </c>
     </row>
@@ -12228,7 +12253,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>toh738</t>
+          <t>toh1036</t>
         </is>
       </c>
     </row>
@@ -12238,7 +12263,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>toh1092</t>
+          <t>toh743</t>
         </is>
       </c>
     </row>
@@ -12248,7 +12273,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>toh742</t>
+          <t>toh1009</t>
         </is>
       </c>
     </row>
@@ -12258,7 +12283,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>toh1036</t>
+          <t>toh744a</t>
         </is>
       </c>
     </row>
@@ -12268,7 +12293,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>toh743</t>
+          <t>toh749</t>
         </is>
       </c>
     </row>
@@ -12278,7 +12303,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>toh1009</t>
+          <t>toh950</t>
         </is>
       </c>
     </row>
@@ -12288,7 +12313,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>toh744a</t>
+          <t>toh753</t>
         </is>
       </c>
     </row>
@@ -12298,7 +12323,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>toh749</t>
+          <t>toh955</t>
         </is>
       </c>
     </row>
@@ -12308,7 +12333,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>toh950</t>
+          <t>toh755</t>
         </is>
       </c>
     </row>
@@ -12318,7 +12343,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>toh753</t>
+          <t>toh957</t>
         </is>
       </c>
     </row>
@@ -12328,7 +12353,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>toh955</t>
+          <t>toh756</t>
         </is>
       </c>
     </row>
@@ -12338,7 +12363,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>toh755</t>
+          <t>toh759</t>
         </is>
       </c>
     </row>
@@ -12348,7 +12373,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>toh957</t>
+          <t>toh964</t>
         </is>
       </c>
     </row>
@@ -12358,7 +12383,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>toh756</t>
+          <t>toh760</t>
         </is>
       </c>
     </row>
@@ -12368,7 +12393,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>toh759</t>
+          <t>toh965</t>
         </is>
       </c>
     </row>
@@ -12378,7 +12403,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>toh964</t>
+          <t>toh761</t>
         </is>
       </c>
     </row>
@@ -12388,7 +12413,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>toh760</t>
+          <t>toh762</t>
         </is>
       </c>
     </row>
@@ -12398,7 +12423,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>toh965</t>
+          <t>toh763</t>
         </is>
       </c>
     </row>
@@ -12408,7 +12433,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>toh761</t>
+          <t>toh966</t>
         </is>
       </c>
     </row>
@@ -12418,7 +12443,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>toh762</t>
+          <t>toh768</t>
         </is>
       </c>
     </row>
@@ -12428,7 +12453,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>toh763</t>
+          <t>toh973</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12463,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>toh966</t>
+          <t>toh769</t>
         </is>
       </c>
     </row>
@@ -12448,7 +12473,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>toh768</t>
+          <t>toh971</t>
         </is>
       </c>
     </row>
@@ -12458,7 +12483,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>toh973</t>
+          <t>toh771</t>
         </is>
       </c>
     </row>
@@ -12468,7 +12493,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>toh769</t>
+          <t>toh972</t>
         </is>
       </c>
     </row>
@@ -12478,7 +12503,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>toh971</t>
+          <t>toh775</t>
         </is>
       </c>
     </row>
@@ -12488,7 +12513,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>toh771</t>
+          <t>toh1075</t>
         </is>
       </c>
     </row>
@@ -12498,7 +12523,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>toh972</t>
+          <t>toh776</t>
         </is>
       </c>
     </row>
@@ -12508,7 +12533,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>toh775</t>
+          <t>toh1076</t>
         </is>
       </c>
     </row>
@@ -12518,7 +12543,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>toh1075</t>
+          <t>toh777</t>
         </is>
       </c>
     </row>
@@ -12528,7 +12553,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>toh776</t>
+          <t>toh1011</t>
         </is>
       </c>
     </row>
@@ -12538,7 +12563,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>toh1076</t>
+          <t>toh778</t>
         </is>
       </c>
     </row>
@@ -12548,7 +12573,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>toh777</t>
+          <t>toh1012</t>
         </is>
       </c>
     </row>
@@ -12558,7 +12583,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>toh1011</t>
+          <t>toh779</t>
         </is>
       </c>
     </row>
@@ -12568,7 +12593,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>toh778</t>
+          <t>toh1049</t>
         </is>
       </c>
     </row>
@@ -12578,7 +12603,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>toh1012</t>
+          <t>toh780</t>
         </is>
       </c>
     </row>
@@ -12588,7 +12613,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>toh779</t>
+          <t>toh1031</t>
         </is>
       </c>
     </row>
@@ -12598,7 +12623,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>toh1049</t>
+          <t>toh781</t>
         </is>
       </c>
     </row>
@@ -12608,7 +12633,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>toh780</t>
+          <t>toh1032</t>
         </is>
       </c>
     </row>
@@ -12618,7 +12643,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>toh1031</t>
+          <t>toh782</t>
         </is>
       </c>
     </row>
@@ -12628,7 +12653,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>toh781</t>
+          <t>toh1013</t>
         </is>
       </c>
     </row>
@@ -12638,7 +12663,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>toh1032</t>
+          <t>toh783</t>
         </is>
       </c>
     </row>
@@ -12648,7 +12673,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>toh782</t>
+          <t>toh1060</t>
         </is>
       </c>
     </row>
@@ -12658,7 +12683,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>toh1013</t>
+          <t>toh784</t>
         </is>
       </c>
     </row>
@@ -12668,7 +12693,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>toh783</t>
+          <t>toh1021</t>
         </is>
       </c>
     </row>
@@ -12678,7 +12703,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>toh1060</t>
+          <t>toh785</t>
         </is>
       </c>
     </row>
@@ -12688,7 +12713,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>toh784</t>
+          <t>toh1022</t>
         </is>
       </c>
     </row>
@@ -12698,7 +12723,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>toh1021</t>
+          <t>toh786</t>
         </is>
       </c>
     </row>
@@ -12708,7 +12733,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>toh785</t>
+          <t>toh1023</t>
         </is>
       </c>
     </row>
@@ -12718,7 +12743,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>toh1022</t>
+          <t>toh787</t>
         </is>
       </c>
     </row>
@@ -12728,7 +12753,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>toh786</t>
+          <t>toh1025</t>
         </is>
       </c>
     </row>
@@ -12738,7 +12763,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>toh1023</t>
+          <t>toh788</t>
         </is>
       </c>
     </row>
@@ -12748,7 +12773,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>toh787</t>
+          <t>toh1026</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12783,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>toh1025</t>
+          <t>toh789</t>
         </is>
       </c>
     </row>
@@ -12768,7 +12793,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>toh788</t>
+          <t>toh1027</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12803,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>toh1026</t>
+          <t>toh790</t>
         </is>
       </c>
     </row>
@@ -12788,7 +12813,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>toh789</t>
+          <t>toh1028</t>
         </is>
       </c>
     </row>
@@ -12798,7 +12823,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>toh1027</t>
+          <t>toh791</t>
         </is>
       </c>
     </row>
@@ -12808,7 +12833,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>toh790</t>
+          <t>toh1033</t>
         </is>
       </c>
     </row>
@@ -12818,7 +12843,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>toh1028</t>
+          <t>toh792</t>
         </is>
       </c>
     </row>
@@ -12828,7 +12853,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>toh791</t>
+          <t>toh1034</t>
         </is>
       </c>
     </row>
@@ -12838,7 +12863,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>toh1033</t>
+          <t>toh793</t>
         </is>
       </c>
     </row>
@@ -12848,7 +12873,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>toh792</t>
+          <t>toh1029</t>
         </is>
       </c>
     </row>
@@ -12858,7 +12883,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>toh1034</t>
+          <t>toh794</t>
         </is>
       </c>
     </row>
@@ -12868,7 +12893,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>toh793</t>
+          <t>toh1030</t>
         </is>
       </c>
     </row>
@@ -12878,7 +12903,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>toh1029</t>
+          <t>toh795</t>
         </is>
       </c>
     </row>
@@ -12888,7 +12913,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>toh794</t>
+          <t>toh1051</t>
         </is>
       </c>
     </row>
@@ -12898,7 +12923,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>toh1030</t>
+          <t>toh796</t>
         </is>
       </c>
     </row>
@@ -12908,7 +12933,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>toh795</t>
+          <t>toh1035</t>
         </is>
       </c>
     </row>
@@ -12918,7 +12943,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>toh1051</t>
+          <t>toh797</t>
         </is>
       </c>
     </row>
@@ -12928,7 +12953,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>toh796</t>
+          <t>toh1053</t>
         </is>
       </c>
     </row>
@@ -12938,7 +12963,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>toh1035</t>
+          <t>toh798</t>
         </is>
       </c>
     </row>
@@ -12948,7 +12973,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>toh797</t>
+          <t>toh1054</t>
         </is>
       </c>
     </row>
@@ -12958,7 +12983,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>toh1053</t>
+          <t>toh799</t>
         </is>
       </c>
     </row>
@@ -12968,7 +12993,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>toh798</t>
+          <t>toh1055</t>
         </is>
       </c>
     </row>
@@ -12978,7 +13003,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>toh1054</t>
+          <t>toh800</t>
         </is>
       </c>
     </row>
@@ -12988,7 +13013,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>toh799</t>
+          <t>toh1056</t>
         </is>
       </c>
     </row>
@@ -12998,7 +13023,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>toh1055</t>
+          <t>toh801</t>
         </is>
       </c>
     </row>
@@ -13008,7 +13033,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>toh800</t>
+          <t>toh1057</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13043,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>toh1056</t>
+          <t>toh802</t>
         </is>
       </c>
     </row>
@@ -13028,7 +13053,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>toh801</t>
+          <t>toh1058</t>
         </is>
       </c>
     </row>
@@ -13038,7 +13063,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>toh1057</t>
+          <t>toh803</t>
         </is>
       </c>
     </row>
@@ -13048,7 +13073,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>toh802</t>
+          <t>toh1050</t>
         </is>
       </c>
     </row>
@@ -13058,7 +13083,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>toh1058</t>
+          <t>toh805</t>
         </is>
       </c>
     </row>
@@ -13068,7 +13093,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>toh803</t>
+          <t>toh806</t>
         </is>
       </c>
     </row>
@@ -13078,7 +13103,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>toh1050</t>
+          <t>toh807</t>
         </is>
       </c>
     </row>
@@ -13088,7 +13113,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>toh805</t>
+          <t>toh808</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13123,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>toh806</t>
+          <t>toh811</t>
         </is>
       </c>
     </row>
@@ -13108,7 +13133,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>toh807</t>
+          <t>toh813</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13143,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>toh808</t>
+          <t>toh1098</t>
         </is>
       </c>
     </row>
@@ -13128,7 +13153,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>toh811</t>
+          <t>toh814</t>
         </is>
       </c>
     </row>
@@ -13138,7 +13163,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>toh813</t>
+          <t>toh1099</t>
         </is>
       </c>
     </row>
@@ -13148,7 +13173,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>toh1098</t>
+          <t>toh815</t>
         </is>
       </c>
     </row>
@@ -13158,7 +13183,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>toh814</t>
+          <t>toh816</t>
         </is>
       </c>
     </row>
@@ -13168,7 +13193,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>toh1099</t>
+          <t>toh817</t>
         </is>
       </c>
     </row>
@@ -13178,7 +13203,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>toh815</t>
+          <t>toh1101</t>
         </is>
       </c>
     </row>
@@ -13188,7 +13213,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>toh816</t>
+          <t>toh818</t>
         </is>
       </c>
     </row>
@@ -13198,7 +13223,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>toh817</t>
+          <t>toh1102</t>
         </is>
       </c>
     </row>
@@ -13208,7 +13233,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>toh1101</t>
+          <t>toh819</t>
         </is>
       </c>
     </row>
@@ -13218,7 +13243,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>toh818</t>
+          <t>toh1100</t>
         </is>
       </c>
     </row>
@@ -13228,7 +13253,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>toh1102</t>
+          <t>toh820</t>
         </is>
       </c>
     </row>
@@ -13238,7 +13263,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>toh819</t>
+          <t>toh821</t>
         </is>
       </c>
     </row>
@@ -13248,7 +13273,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>toh1100</t>
+          <t>toh1104</t>
         </is>
       </c>
     </row>
@@ -13258,7 +13283,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>toh820</t>
+          <t>toh822</t>
         </is>
       </c>
     </row>
@@ -13268,7 +13293,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>toh821</t>
+          <t>toh1105</t>
         </is>
       </c>
     </row>
@@ -13278,7 +13303,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>toh1104</t>
+          <t>toh823</t>
         </is>
       </c>
     </row>
@@ -13288,7 +13313,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>toh822</t>
+          <t>toh1106</t>
         </is>
       </c>
     </row>
@@ -13298,7 +13323,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>toh1105</t>
+          <t>toh824</t>
         </is>
       </c>
     </row>
@@ -13308,7 +13333,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>toh823</t>
+          <t>toh825</t>
         </is>
       </c>
     </row>
@@ -13318,7 +13343,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>toh1106</t>
+          <t>toh829</t>
         </is>
       </c>
     </row>
@@ -13328,7 +13353,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>toh824</t>
+          <t>toh831</t>
         </is>
       </c>
     </row>
@@ -13338,7 +13363,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>toh825</t>
+          <t>toh832</t>
         </is>
       </c>
     </row>
@@ -13348,7 +13373,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>toh829</t>
+          <t>toh834</t>
         </is>
       </c>
     </row>
@@ -13358,7 +13383,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>toh831</t>
+          <t>toh835</t>
         </is>
       </c>
     </row>
@@ -13368,7 +13393,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>toh832</t>
+          <t>toh836</t>
         </is>
       </c>
     </row>
@@ -13378,7 +13403,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>toh834</t>
+          <t>toh837</t>
         </is>
       </c>
     </row>
@@ -13388,7 +13413,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>toh835</t>
+          <t>toh838</t>
         </is>
       </c>
     </row>
@@ -13398,7 +13423,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>toh836</t>
+          <t>toh839</t>
         </is>
       </c>
     </row>
@@ -13408,7 +13433,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>toh837</t>
+          <t>toh841-1</t>
         </is>
       </c>
     </row>
@@ -13418,7 +13443,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>toh838</t>
+          <t>toh841-2</t>
         </is>
       </c>
     </row>
@@ -13428,7 +13453,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>toh839</t>
+          <t>toh841-3</t>
         </is>
       </c>
     </row>
@@ -13438,7 +13463,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>toh841-1</t>
+          <t>toh841-4</t>
         </is>
       </c>
     </row>
@@ -13448,7 +13473,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>toh841-2</t>
+          <t>toh841-5</t>
         </is>
       </c>
     </row>
@@ -13458,7 +13483,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>toh841-3</t>
+          <t>toh841-6</t>
         </is>
       </c>
     </row>
@@ -13468,7 +13493,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>toh841-4</t>
+          <t>toh841-7</t>
         </is>
       </c>
     </row>
@@ -13478,7 +13503,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>toh841-5</t>
+          <t>toh841-8</t>
         </is>
       </c>
     </row>
@@ -13488,7 +13513,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>toh841-6</t>
+          <t>toh841a</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13523,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>toh841-7</t>
+          <t>toh842</t>
         </is>
       </c>
     </row>
@@ -13508,7 +13533,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>toh841-8</t>
+          <t>toh844</t>
         </is>
       </c>
     </row>
@@ -13518,7 +13543,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>toh841a</t>
+          <t>toh845-1</t>
         </is>
       </c>
     </row>
@@ -13528,7 +13553,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>toh842</t>
+          <t>toh845-2</t>
         </is>
       </c>
     </row>
@@ -13538,7 +13563,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>toh844</t>
+          <t>toh845-3</t>
         </is>
       </c>
     </row>
@@ -13548,7 +13573,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>toh845-1</t>
+          <t>toh845-4</t>
         </is>
       </c>
     </row>
@@ -13558,7 +13583,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>toh845-2</t>
+          <t>toh845-5</t>
         </is>
       </c>
     </row>
@@ -13568,7 +13593,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>toh845-3</t>
+          <t>toh846</t>
         </is>
       </c>
     </row>
@@ -13578,7 +13603,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>toh845-4</t>
+          <t>toh846a</t>
         </is>
       </c>
     </row>
@@ -13588,7 +13613,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>toh845-5</t>
+          <t>toh862</t>
         </is>
       </c>
     </row>
@@ -13598,7 +13623,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>toh846</t>
+          <t>toh865</t>
         </is>
       </c>
     </row>
@@ -13608,7 +13633,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>toh846a</t>
+          <t>toh891</t>
         </is>
       </c>
     </row>
@@ -13618,7 +13643,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>toh862</t>
+          <t>toh953</t>
         </is>
       </c>
     </row>
@@ -13628,7 +13653,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>toh865</t>
+          <t>toh987</t>
         </is>
       </c>
     </row>
@@ -13638,7 +13663,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>toh891</t>
+          <t>toh1024</t>
         </is>
       </c>
     </row>
@@ -13648,7 +13673,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>toh953</t>
+          <t>toh1059</t>
         </is>
       </c>
     </row>
@@ -13658,7 +13683,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>toh987</t>
+          <t>toh1059a</t>
         </is>
       </c>
     </row>
@@ -13668,7 +13693,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>toh1024</t>
+          <t>toh1066</t>
         </is>
       </c>
     </row>
@@ -13678,7 +13703,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>toh1059</t>
+          <t>toh1067</t>
         </is>
       </c>
     </row>
@@ -13688,7 +13713,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>toh1059a</t>
+          <t>toh1090</t>
         </is>
       </c>
     </row>
@@ -13698,7 +13723,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>toh1066</t>
+          <t>toh1091</t>
         </is>
       </c>
     </row>
@@ -13708,7 +13733,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>toh1067</t>
+          <t>toh1096</t>
         </is>
       </c>
     </row>
@@ -13718,7 +13743,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>toh1090</t>
+          <t>toh1107</t>
         </is>
       </c>
     </row>
@@ -13728,7 +13753,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>toh1091</t>
+          <t>toh4568-1</t>
         </is>
       </c>
     </row>
@@ -13738,7 +13763,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>toh1096</t>
+          <t>toh4568-2</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13773,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>toh1107</t>
+          <t>toh4568-3</t>
         </is>
       </c>
     </row>
@@ -13758,7 +13783,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>toh4568-1</t>
+          <t>toh4568-4</t>
         </is>
       </c>
     </row>
@@ -13767,36 +13792,6 @@
         <v>604</v>
       </c>
       <c r="B606" t="inlineStr">
-        <is>
-          <t>toh4568-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>toh4568-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>toh4568-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="inlineStr">
         <is>
           <t>toh4568-5</t>
         </is>
@@ -14070,7 +14065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14886,7 +14881,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -14921,22 +14916,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -14956,22 +14951,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:munivarman</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Munivarman</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8261</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -14991,22 +14986,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>P8210</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -15026,22 +15021,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -15061,22 +15056,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -15096,22 +15091,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8210</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -15131,22 +15126,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -15166,22 +15161,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -15201,22 +15196,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -15236,22 +15231,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -15271,22 +15266,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>eft:dpal-dbyangs</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>dpal dbyangs</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>P8260</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -15296,7 +15291,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -15306,32 +15301,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>eft:ska-ba-dpal-brtsegs</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ska ba dpal brtsegs</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>P8182</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>reviser</t>
+          <t>translatorTib</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>revisor</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -15341,7 +15336,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -15376,22 +15371,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:dpal-dbyangs</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>dpal dbyangs</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8260</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -15401,7 +15396,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -15411,32 +15406,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>eft:munivarman</t>
+          <t>eft:ska-ba-dpal-brtsegs</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Munivarman</t>
+          <t>ska ba dpal brtsegs</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>P8261</t>
+          <t>P8182</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>translatorTib</t>
+          <t>reviser</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>revisor</t>
         </is>
       </c>
     </row>
@@ -15446,22 +15441,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -15481,22 +15476,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -15516,22 +15511,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:munivarman</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Munivarman</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>P1KG8854</t>
+          <t>P8261</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -15551,22 +15546,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -15586,22 +15581,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -15621,22 +15616,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P1KG8854</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -15656,7 +15651,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -15691,7 +15686,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -15726,22 +15721,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -15761,22 +15756,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>527</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -15796,22 +15791,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>527</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -15831,22 +15826,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -15866,22 +15861,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -15901,22 +15896,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -15936,7 +15931,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -15971,22 +15966,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>eft:munivarman</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Munivarman</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>P8261</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -16006,22 +16001,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -16041,22 +16036,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>eft:prajnavarma</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Prajñāvarma</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -16076,22 +16071,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:munivarman</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Munivarman</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>P1KG8854</t>
+          <t>P8261</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -16111,22 +16106,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>P1KG8854</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -16146,22 +16141,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>eft:dipamkarasrijnana</t>
+          <t>eft:prajnavarma</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Dīpaṃkaraśrījñāna</t>
+          <t>Prajñāvarma</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>P3379</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -16181,22 +16176,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P1KG8854</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -16216,22 +16211,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P1KG8854</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -16251,22 +16246,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:dipamkarasrijnana</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Dīpaṃkaraśrījñāna</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P3379</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -16286,22 +16281,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>eft:buddhaprabha</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Buddhaprabha</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>P8268</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -16326,17 +16321,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -16346,7 +16341,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -16356,22 +16351,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -16391,22 +16386,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:buddhaprabha</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Buddhaprabha</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8268</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -16416,7 +16411,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -16426,22 +16421,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -16451,7 +16446,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -16461,22 +16456,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>eft:munivarman</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Munivarman</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>P8261</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -16496,22 +16491,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -16521,7 +16516,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -16531,22 +16526,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -16556,7 +16551,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>revisor</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -16566,22 +16561,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>eft:dgon-gling-rma</t>
+          <t>eft:munivarman</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>dgon gling rma</t>
+          <t>Munivarman</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>P8269</t>
+          <t>P8261</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -16591,7 +16586,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>revisor</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -16601,22 +16596,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>eft:dpal-gyi-lhun-po</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>dpal gyi lhun po</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>P4259</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -16626,7 +16621,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -16636,22 +16631,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>eft:dpal-brtsegs</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>dpal brtsegs</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>P8182</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -16661,7 +16656,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>revisor</t>
         </is>
       </c>
     </row>
@@ -16671,22 +16666,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:dgon-gling-rma</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>dgon gling rma</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8269</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -16696,7 +16691,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>revisor</t>
         </is>
       </c>
     </row>
@@ -16706,22 +16701,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>157</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:dpal-gyi-lhun-po</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>dpal gyi lhun po</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P4259</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -16741,22 +16736,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>157</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:dpal-brtsegs</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>dpal brtsegs</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P8182</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -16766,7 +16761,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -16776,22 +16771,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>158</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -16811,22 +16806,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>158</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>P4CZ16819</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -16836,7 +16831,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -16846,22 +16841,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -16881,22 +16876,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>eft:dharmatasila</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Dharmatāśīla</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>P8266</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -16906,7 +16901,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -16916,22 +16911,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P4CZ16819</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -16951,22 +16946,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -16976,7 +16971,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -16986,22 +16981,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>eft:ye-shes-snying-po</t>
+          <t>eft:dharmatasila</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ye shes snying po</t>
+          <t>Dharmatāśīla</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>P4255</t>
+          <t>P8266</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -17021,32 +17016,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>eft:dpal-brtsegs</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>dpal brtsegs</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>P8182</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>reviser</t>
+          <t>translatorTib</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>revisor</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17056,22 +17051,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>eft:visuddhasimha</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Viśuddhasiṃha</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>P8219</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -17081,7 +17076,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17091,22 +17086,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>163</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>eft:dge-ba-dpal</t>
+          <t>eft:ye-shes-snying-po</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>dge ba dpal</t>
+          <t>ye shes snying po</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>P4263</t>
+          <t>P4255</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -17126,27 +17121,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>163</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>eft:devacandra</t>
+          <t>eft:dpal-brtsegs</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Devacandra</t>
+          <t>dpal brtsegs</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>P8220</t>
+          <t>P8182</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>translatorTib</t>
+          <t>reviser</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -17161,22 +17156,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:visuddhasimha</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Viśuddhasiṃha</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8219</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -17196,22 +17191,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:dge-ba-dpal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>dge ba dpal</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P4263</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -17231,22 +17226,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:devacandra</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>Devacandra</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8220</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -17256,7 +17251,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>revisor</t>
         </is>
       </c>
     </row>
@@ -17266,22 +17261,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>165</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -17291,7 +17286,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17301,22 +17296,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>165</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -17326,7 +17321,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17336,22 +17331,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -17361,7 +17356,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17371,22 +17366,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -17396,7 +17391,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17406,22 +17401,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -17441,7 +17436,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -17476,22 +17471,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -17511,22 +17506,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -17536,7 +17531,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17546,22 +17541,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -17571,7 +17566,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17581,22 +17576,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -17616,22 +17611,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>eft:kamalagupta</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>kamalagupta</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>P8093</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -17641,7 +17636,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17651,22 +17646,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>171</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>eft:rin-chen-bzang-po</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>rin chen bzang po</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>P753</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17676,7 +17671,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17686,22 +17681,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>171</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>surendrabodhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -17721,22 +17716,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>173</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:kamalagupta</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>kamalagupta</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8093</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -17746,7 +17741,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17756,22 +17751,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>173</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:rin-chen-bzang-po</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>rin chen bzang po</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P753</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -17781,7 +17776,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17791,22 +17786,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>177</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>surendrabodhi</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -17816,7 +17811,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17826,22 +17821,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>177</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>P4CZ16819</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -17851,7 +17846,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -17861,7 +17856,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>178</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -17871,7 +17866,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>jinamitra</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -17896,22 +17891,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>178</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>eft:dharmatasila</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Dharmatāśīla</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>P8266</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -17931,22 +17926,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>179</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>eft:rin-chen-tsho</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>rin chen 'tsho</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>P8273</t>
+          <t>P4CZ16819</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -17956,7 +17951,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -17966,22 +17961,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>179</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -18001,22 +17996,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>179</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:dharmatasila</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dharmatāśīla</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8266</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -18026,7 +18021,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -18036,22 +18031,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>180</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:rin-chen-tsho</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>rin chen 'tsho</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8273</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -18061,7 +18056,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -18071,22 +18066,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>182</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>eft:jnanagarbha</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Jñānagarbha</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>P8217</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -18106,22 +18101,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>184</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -18141,22 +18136,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>184</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -18176,22 +18171,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>185</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:jnanagarbha</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Jñānagarbha</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8217</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -18211,22 +18206,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>196</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -18246,22 +18241,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>eft:sarvajnadeva</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Sarvajñādeva</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>P00KG07267</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -18281,22 +18276,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>eft:vijayasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Vijayaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>P8267</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -18316,22 +18311,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>P1KG8854</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -18351,22 +18346,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>212</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -18376,7 +18371,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -18386,22 +18381,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>eft:hwa-shang-zab-mo</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>hwa shang zab mo</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>P0TMP080</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -18421,22 +18416,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>eft:rnam-par-mi-rtog-pa</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>rnam par mi rtog pa</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>P0TMPT007</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -18446,7 +18441,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -18456,22 +18451,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>eft:munivarma</t>
+          <t>eft:sarvajnadeva</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>munivarma</t>
+          <t>Sarvajñādeva</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>P8261</t>
+          <t>P00KG07267</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -18491,22 +18486,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:vijayasila</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Vijayaśīla</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P8267</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -18516,7 +18511,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -18526,22 +18521,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>eft:rnam-par-mi-rtog-pa</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>rnam par mi rtog pa</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>P0TMPT007</t>
+          <t>P1KG8854</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -18561,22 +18556,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -18586,7 +18581,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -18596,22 +18591,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>eft:prajnavarman</t>
+          <t>eft:hwa-shang-zab-mo</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Prajñāvarman</t>
+          <t>hwa shang zab mo</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>P2548</t>
+          <t>P0TMP080</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -18631,22 +18626,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:rnam-par-mi-rtog-pa</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>rnam par mi rtog pa</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P0TMPT007</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -18656,7 +18651,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -18666,22 +18661,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:munivarma</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>munivarma</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P8261</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -18701,22 +18696,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:ye-shes-sde</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>ye shes sde</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>P4CZ16819</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -18726,7 +18721,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -18736,22 +18731,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>eft:ratnaraksita</t>
+          <t>eft:rnam-par-mi-rtog-pa</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Ratnarakṣita</t>
+          <t>rnam par mi rtog pa</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>P8265</t>
+          <t>P0TMPT007</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -18771,22 +18766,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -18806,22 +18801,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -18841,7 +18836,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -18876,22 +18871,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -18911,22 +18906,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:sakyaprabha</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Śākyaprabha</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P4CZ16819</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -18946,22 +18941,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:ratnaraksita</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Ratnarakṣita</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8265</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -18981,22 +18976,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>273</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -19016,22 +19011,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>273</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -19051,22 +19046,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>511</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -19086,22 +19081,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>511</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -19121,22 +19116,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>853</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>eft:devacandra</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Devacandra</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>P8220</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -19156,22 +19151,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>853</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>eft:dharmasribhadra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Dharmaśrībhadra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>P8171</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -19191,22 +19186,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>276</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>eft:gayadhara</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Gayādhara</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>P8151</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -19226,22 +19221,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>276</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>eft:krsnapandita</t>
+          <t>eft:prajnavarman</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Kṛṣnapaṇḍita</t>
+          <t>Prajñāvarman</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>P2956</t>
+          <t>P2548</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -19261,22 +19256,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>307</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>eft:tshul-khrims-rgyal-ba</t>
+          <t>eft:visuddhasimha</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>tshul khrims rgyal ba</t>
+          <t>Viśuddhasiṃha</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>P3456</t>
+          <t>P8219</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -19286,7 +19281,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -19296,22 +19291,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>309</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>eft:celu</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Celu</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>P8206</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -19331,22 +19326,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>628</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -19366,22 +19361,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:surendrabodhi</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Surendrabodhi</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -19401,22 +19396,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>347</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>P1KG8854</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -19436,22 +19431,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>347</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:devacandra</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Devacandra</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8220</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -19471,22 +19466,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>349</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:dharmasribhadra</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Dharmaśrībhadra</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8171</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -19506,22 +19501,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>384</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:gayadhara</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Gayādhara</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P8151</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -19541,22 +19536,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>437</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:krsnapandita</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Kṛṣnapaṇḍita</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P2956</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -19576,22 +19571,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>437</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:tshul-khrims-rgyal-ba</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>tshul khrims rgyal ba</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P3456</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -19601,7 +19596,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>translatorPandita</t>
+          <t>translator</t>
         </is>
       </c>
     </row>
@@ -19611,22 +19606,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>498</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:celu</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Celu</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8206</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -19646,7 +19641,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>503</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -19681,7 +19676,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>503</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -19716,22 +19711,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>503</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:silendrabodhi</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Śīlendrabodhi</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P1KG8854</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -19751,22 +19746,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>504</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -19786,22 +19781,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>504</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -19821,22 +19816,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>513</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -19856,22 +19851,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>513</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>eft:jnanasiddhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Jñānasiddhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>P8222</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -19891,22 +19886,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>P4CZ16819</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -19926,22 +19921,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>eft:silendrabodhi</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Śīlendrabodhi</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>P1KG8854</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -19961,22 +19956,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>854</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>eft:jnanasiddhi</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Jñānasiddhi</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>P8222</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -19996,22 +19991,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>854</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>eft:sakyaprabha</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Śākyaprabha</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>P4CZ16819</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -20031,7 +20026,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>515</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -20041,7 +20036,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>jinamitra</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -20066,22 +20061,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>515</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>eft:ye-shes-sde</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ye shes sde</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -20091,7 +20086,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>translatorPandita</t>
         </is>
       </c>
     </row>
@@ -20101,22 +20096,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>855</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>eft:punyasambhava</t>
+          <t>eft:jinamitra</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>punyasambhava</t>
+          <t>Jinamitra</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>P0TMP104</t>
+          <t>P8209</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -20136,22 +20131,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>855</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>eft:jinamitra</t>
+          <t>eft:danasila</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Jinamitra</t>
+          <t>Dānaśīla</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>P8209</t>
+          <t>P3214</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -20171,22 +20166,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>558</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>eft:danasila</t>
+          <t>eft:jnanasiddhi</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Dānaśīla</t>
+          <t>Jñānasiddhi</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>P3214</t>
+          <t>P8222</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -20206,30 +20201,345 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>eft:sakyaprabha</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Śākyaprabha</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>P4CZ16819</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>translatorPandita</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>eft:silendrabodhi</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Śīlendrabodhi</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>P1KG8854</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>translatorPandita</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>eft:jnanasiddhi</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Jñānasiddhi</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>P8222</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>translatorPandita</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>eft:sakyaprabha</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Śākyaprabha</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>P4CZ16819</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>translatorPandita</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>eft:jinamitra</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>jinamitra</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>P8209</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>translatorPandita</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>eft:ye-shes-sde</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>ye shes sde</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>translator</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>eft:punyasambhava</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>punyasambhava</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>P0TMP104</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>translatorPandita</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>eft:jinamitra</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Jinamitra</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>P8209</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>translatorPandita</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>eft:danasila</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Dānaśīla</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>P3214</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>translatorPandita</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
           <t>909</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>eft:danasila</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>Dānaśīla</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>P3214</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>translatorTib</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>translatorPandita</t>
         </is>

--- a/discrepancies.xlsx
+++ b/discrepancies.xlsx
@@ -1546,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B617"/>
+  <dimension ref="A1:C617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1560,6 +1560,11 @@
           <t>Toh</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>has_attributions</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1569,6 +1574,9 @@
         <is>
           <t>toh7</t>
         </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1580,6 +1588,9 @@
           <t>toh7a</t>
         </is>
       </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1590,6 +1601,9 @@
           <t>toh8-1</t>
         </is>
       </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1600,6 +1614,9 @@
           <t>toh8-2</t>
         </is>
       </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1610,6 +1627,9 @@
           <t>toh10</t>
         </is>
       </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1620,6 +1640,9 @@
           <t>toh15</t>
         </is>
       </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1630,6 +1653,9 @@
           <t>toh16</t>
         </is>
       </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1640,6 +1666,9 @@
           <t>toh17</t>
         </is>
       </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1650,6 +1679,9 @@
           <t>toh489</t>
         </is>
       </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1660,6 +1692,9 @@
           <t>toh18</t>
         </is>
       </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1670,6 +1705,9 @@
           <t>toh19</t>
         </is>
       </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1680,6 +1718,9 @@
           <t>toh554</t>
         </is>
       </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1690,6 +1731,9 @@
           <t>toh20</t>
         </is>
       </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1700,6 +1744,9 @@
           <t>toh491</t>
         </is>
       </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1710,6 +1757,9 @@
           <t>toh22</t>
         </is>
       </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1720,6 +1770,9 @@
           <t>toh530</t>
         </is>
       </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1730,6 +1783,9 @@
           <t>toh23</t>
         </is>
       </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1740,6 +1796,9 @@
           <t>toh24</t>
         </is>
       </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1750,6 +1809,9 @@
           <t>toh25</t>
         </is>
       </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1760,6 +1822,9 @@
           <t>toh553</t>
         </is>
       </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1770,6 +1835,9 @@
           <t>toh26</t>
         </is>
       </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1780,6 +1848,9 @@
           <t>toh27</t>
         </is>
       </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1790,6 +1861,9 @@
           <t>toh28</t>
         </is>
       </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1800,6 +1874,9 @@
           <t>toh29</t>
         </is>
       </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1810,6 +1887,9 @@
           <t>toh30</t>
         </is>
       </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1820,6 +1900,9 @@
           <t>toh40</t>
         </is>
       </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1830,6 +1913,9 @@
           <t>toh41</t>
         </is>
       </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1840,6 +1926,9 @@
           <t>toh42</t>
         </is>
       </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1850,6 +1939,9 @@
           <t>toh44-1</t>
         </is>
       </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1860,6 +1952,9 @@
           <t>toh44-2</t>
         </is>
       </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1870,6 +1965,9 @@
           <t>toh44-3</t>
         </is>
       </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1880,6 +1978,9 @@
           <t>toh44-4</t>
         </is>
       </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1890,6 +1991,9 @@
           <t>toh44-5</t>
         </is>
       </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1900,6 +2004,9 @@
           <t>toh44-6</t>
         </is>
       </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1910,6 +2017,9 @@
           <t>toh44-7</t>
         </is>
       </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1920,6 +2030,9 @@
           <t>toh44-8</t>
         </is>
       </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1930,6 +2043,9 @@
           <t>toh44-9</t>
         </is>
       </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1940,6 +2056,9 @@
           <t>toh44-10</t>
         </is>
       </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1950,6 +2069,9 @@
           <t>toh44-11</t>
         </is>
       </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1960,6 +2082,9 @@
           <t>toh44-12</t>
         </is>
       </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1970,6 +2095,9 @@
           <t>toh44-13</t>
         </is>
       </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1980,6 +2108,9 @@
           <t>toh44-14</t>
         </is>
       </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1990,6 +2121,9 @@
           <t>toh44-15</t>
         </is>
       </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2000,6 +2134,9 @@
           <t>toh44-16</t>
         </is>
       </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2010,6 +2147,9 @@
           <t>toh44-17</t>
         </is>
       </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2020,6 +2160,9 @@
           <t>toh44-18</t>
         </is>
       </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2030,6 +2173,9 @@
           <t>toh44-19</t>
         </is>
       </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2040,6 +2186,9 @@
           <t>toh44-20</t>
         </is>
       </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2050,6 +2199,9 @@
           <t>toh44-21</t>
         </is>
       </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2060,6 +2212,9 @@
           <t>toh44-22</t>
         </is>
       </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2070,6 +2225,9 @@
           <t>toh44-23</t>
         </is>
       </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2080,6 +2238,9 @@
           <t>toh44-24</t>
         </is>
       </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2090,6 +2251,9 @@
           <t>toh44-25</t>
         </is>
       </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2100,6 +2264,9 @@
           <t>toh44-26</t>
         </is>
       </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2110,6 +2277,9 @@
           <t>toh44-27</t>
         </is>
       </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2120,6 +2290,9 @@
           <t>toh44-28</t>
         </is>
       </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2130,6 +2303,9 @@
           <t>toh44-29</t>
         </is>
       </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2140,6 +2316,9 @@
           <t>toh44-30</t>
         </is>
       </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2150,6 +2329,9 @@
           <t>toh44-31</t>
         </is>
       </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2160,6 +2342,9 @@
           <t>toh44-32</t>
         </is>
       </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2170,6 +2355,9 @@
           <t>toh44-33</t>
         </is>
       </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2180,6 +2368,9 @@
           <t>toh44-34</t>
         </is>
       </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2190,6 +2381,9 @@
           <t>toh44-35</t>
         </is>
       </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2200,6 +2394,9 @@
           <t>toh44-36</t>
         </is>
       </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2210,6 +2407,9 @@
           <t>toh44-37</t>
         </is>
       </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2220,6 +2420,9 @@
           <t>toh44-38</t>
         </is>
       </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2230,6 +2433,9 @@
           <t>toh44-39</t>
         </is>
       </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2240,6 +2446,9 @@
           <t>toh44-40</t>
         </is>
       </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2250,6 +2459,9 @@
           <t>toh44-41</t>
         </is>
       </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2260,6 +2472,9 @@
           <t>toh44-42</t>
         </is>
       </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2270,6 +2485,9 @@
           <t>toh44-43</t>
         </is>
       </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2280,6 +2498,9 @@
           <t>toh44-44</t>
         </is>
       </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2290,6 +2511,9 @@
           <t>toh44-45</t>
         </is>
       </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2300,6 +2524,9 @@
           <t>toh44-45a</t>
         </is>
       </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2310,6 +2537,9 @@
           <t>toh1095</t>
         </is>
       </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2320,6 +2550,9 @@
           <t>toh48</t>
         </is>
       </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2330,6 +2563,9 @@
           <t>toh51</t>
         </is>
       </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2340,6 +2576,9 @@
           <t>toh55</t>
         </is>
       </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2350,6 +2589,9 @@
           <t>toh57</t>
         </is>
       </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2360,6 +2602,9 @@
           <t>toh58</t>
         </is>
       </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2370,6 +2615,9 @@
           <t>toh61</t>
         </is>
       </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2380,6 +2628,9 @@
           <t>toh64</t>
         </is>
       </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2390,6 +2641,9 @@
           <t>toh84</t>
         </is>
       </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2400,6 +2654,9 @@
           <t>toh106</t>
         </is>
       </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2410,6 +2667,9 @@
           <t>toh110</t>
         </is>
       </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2420,6 +2680,9 @@
           <t>toh119</t>
         </is>
       </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2430,6 +2693,9 @@
           <t>toh122</t>
         </is>
       </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2440,6 +2706,9 @@
           <t>toh123</t>
         </is>
       </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2450,6 +2719,9 @@
           <t>toh125</t>
         </is>
       </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2460,6 +2732,9 @@
           <t>toh135</t>
         </is>
       </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2470,6 +2745,9 @@
           <t>toh137</t>
         </is>
       </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2480,6 +2758,9 @@
           <t>toh140</t>
         </is>
       </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2490,6 +2771,9 @@
           <t>toh525</t>
         </is>
       </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2500,6 +2784,9 @@
           <t>toh141</t>
         </is>
       </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2510,6 +2797,9 @@
           <t>toh526</t>
         </is>
       </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2520,6 +2810,9 @@
           <t>toh916</t>
         </is>
       </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2530,6 +2823,9 @@
           <t>toh143</t>
         </is>
       </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2540,6 +2836,9 @@
           <t>toh611</t>
         </is>
       </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2550,6 +2849,9 @@
           <t>toh918</t>
         </is>
       </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2560,6 +2862,9 @@
           <t>toh149</t>
         </is>
       </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2570,6 +2875,9 @@
           <t>toh168</t>
         </is>
       </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2580,6 +2888,9 @@
           <t>toh172</t>
         </is>
       </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2590,6 +2901,9 @@
           <t>toh174</t>
         </is>
       </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2600,6 +2914,9 @@
           <t>toh186</t>
         </is>
       </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2610,6 +2927,9 @@
           <t>toh187</t>
         </is>
       </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2620,6 +2940,9 @@
           <t>toh192</t>
         </is>
       </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2630,6 +2953,9 @@
           <t>toh193</t>
         </is>
       </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2640,6 +2966,9 @@
           <t>toh739</t>
         </is>
       </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2650,6 +2979,9 @@
           <t>toh194</t>
         </is>
       </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2660,6 +2992,9 @@
           <t>toh206</t>
         </is>
       </c>
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2670,6 +3005,9 @@
           <t>toh207</t>
         </is>
       </c>
+      <c r="C112" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2680,6 +3018,9 @@
           <t>toh210</t>
         </is>
       </c>
+      <c r="C113" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2690,6 +3031,9 @@
           <t>toh211</t>
         </is>
       </c>
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2700,6 +3044,9 @@
           <t>toh520</t>
         </is>
       </c>
+      <c r="C115" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2710,6 +3057,9 @@
           <t>toh980</t>
         </is>
       </c>
+      <c r="C116" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2720,6 +3070,9 @@
           <t>toh216</t>
         </is>
       </c>
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2730,6 +3083,9 @@
           <t>toh236</t>
         </is>
       </c>
+      <c r="C118" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2740,6 +3096,9 @@
           <t>toh237</t>
         </is>
       </c>
+      <c r="C119" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2750,6 +3109,9 @@
           <t>toh241</t>
         </is>
       </c>
+      <c r="C120" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2760,6 +3122,9 @@
           <t>toh243</t>
         </is>
       </c>
+      <c r="C121" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2770,6 +3135,9 @@
           <t>toh250</t>
         </is>
       </c>
+      <c r="C122" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2780,6 +3148,9 @@
           <t>toh251</t>
         </is>
       </c>
+      <c r="C123" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2790,6 +3161,9 @@
           <t>toh252</t>
         </is>
       </c>
+      <c r="C124" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2800,6 +3174,9 @@
           <t>toh254</t>
         </is>
       </c>
+      <c r="C125" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2810,6 +3187,9 @@
           <t>toh255</t>
         </is>
       </c>
+      <c r="C126" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2820,6 +3200,9 @@
           <t>toh256</t>
         </is>
       </c>
+      <c r="C127" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -2830,6 +3213,9 @@
           <t>toh261</t>
         </is>
       </c>
+      <c r="C128" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -2840,6 +3226,9 @@
           <t>toh262</t>
         </is>
       </c>
+      <c r="C129" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -2850,6 +3239,9 @@
           <t>toh263</t>
         </is>
       </c>
+      <c r="C130" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -2860,6 +3252,9 @@
           <t>toh264</t>
         </is>
       </c>
+      <c r="C131" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -2870,6 +3265,9 @@
           <t>toh265</t>
         </is>
       </c>
+      <c r="C132" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -2880,6 +3278,9 @@
           <t>toh266</t>
         </is>
       </c>
+      <c r="C133" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -2890,6 +3291,9 @@
           <t>toh267</t>
         </is>
       </c>
+      <c r="C134" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -2900,6 +3304,9 @@
           <t>toh268</t>
         </is>
       </c>
+      <c r="C135" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -2910,6 +3317,9 @@
           <t>toh270</t>
         </is>
       </c>
+      <c r="C136" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -2920,6 +3330,9 @@
           <t>toh512</t>
         </is>
       </c>
+      <c r="C137" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -2930,6 +3343,9 @@
           <t>toh852</t>
         </is>
       </c>
+      <c r="C138" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -2940,6 +3356,9 @@
           <t>toh279</t>
         </is>
       </c>
+      <c r="C139" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -2950,6 +3369,9 @@
           <t>toh280</t>
         </is>
       </c>
+      <c r="C140" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -2960,6 +3382,9 @@
           <t>toh281</t>
         </is>
       </c>
+      <c r="C141" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -2970,6 +3395,9 @@
           <t>toh282</t>
         </is>
       </c>
+      <c r="C142" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -2980,6 +3408,9 @@
           <t>toh283</t>
         </is>
       </c>
+      <c r="C143" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -2990,6 +3421,9 @@
           <t>toh284</t>
         </is>
       </c>
+      <c r="C144" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3000,6 +3434,9 @@
           <t>toh285</t>
         </is>
       </c>
+      <c r="C145" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3010,6 +3447,9 @@
           <t>toh287</t>
         </is>
       </c>
+      <c r="C146" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3020,6 +3460,9 @@
           <t>toh296</t>
         </is>
       </c>
+      <c r="C147" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3030,6 +3473,9 @@
           <t>toh297</t>
         </is>
       </c>
+      <c r="C148" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3040,6 +3486,9 @@
           <t>toh300</t>
         </is>
       </c>
+      <c r="C149" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3050,6 +3499,9 @@
           <t>toh302</t>
         </is>
       </c>
+      <c r="C150" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3060,6 +3512,9 @@
           <t>toh303</t>
         </is>
       </c>
+      <c r="C151" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3070,6 +3525,9 @@
           <t>toh305</t>
         </is>
       </c>
+      <c r="C152" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3080,6 +3538,9 @@
           <t>toh308</t>
         </is>
       </c>
+      <c r="C153" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3090,6 +3551,9 @@
           <t>toh310</t>
         </is>
       </c>
+      <c r="C154" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3100,6 +3564,9 @@
           <t>toh311</t>
         </is>
       </c>
+      <c r="C155" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3110,6 +3577,9 @@
           <t>toh312</t>
         </is>
       </c>
+      <c r="C156" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3120,6 +3590,9 @@
           <t>toh313</t>
         </is>
       </c>
+      <c r="C157" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3130,6 +3603,9 @@
           <t>toh314</t>
         </is>
       </c>
+      <c r="C158" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3140,6 +3616,9 @@
           <t>toh315</t>
         </is>
       </c>
+      <c r="C159" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3150,6 +3629,9 @@
           <t>toh316</t>
         </is>
       </c>
+      <c r="C160" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3160,6 +3642,9 @@
           <t>toh318</t>
         </is>
       </c>
+      <c r="C161" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3170,6 +3655,9 @@
           <t>toh321</t>
         </is>
       </c>
+      <c r="C162" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3180,6 +3668,9 @@
           <t>toh322</t>
         </is>
       </c>
+      <c r="C163" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3190,6 +3681,9 @@
           <t>toh323</t>
         </is>
       </c>
+      <c r="C164" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3200,6 +3694,9 @@
           <t>toh324</t>
         </is>
       </c>
+      <c r="C165" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -3210,6 +3707,9 @@
           <t>toh325</t>
         </is>
       </c>
+      <c r="C166" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -3220,6 +3720,9 @@
           <t>toh328</t>
         </is>
       </c>
+      <c r="C167" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -3230,6 +3733,9 @@
           <t>toh329</t>
         </is>
       </c>
+      <c r="C168" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -3240,6 +3746,9 @@
           <t>toh331</t>
         </is>
       </c>
+      <c r="C169" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -3250,6 +3759,9 @@
           <t>toh335</t>
         </is>
       </c>
+      <c r="C170" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -3260,6 +3772,9 @@
           <t>toh336</t>
         </is>
       </c>
+      <c r="C171" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -3270,6 +3785,9 @@
           <t>toh337</t>
         </is>
       </c>
+      <c r="C172" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -3280,6 +3798,9 @@
           <t>toh338</t>
         </is>
       </c>
+      <c r="C173" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -3290,6 +3811,9 @@
           <t>toh339</t>
         </is>
       </c>
+      <c r="C174" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -3300,6 +3824,9 @@
           <t>toh340</t>
         </is>
       </c>
+      <c r="C175" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -3310,6 +3837,9 @@
           <t>toh341</t>
         </is>
       </c>
+      <c r="C176" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -3320,6 +3850,9 @@
           <t>toh342</t>
         </is>
       </c>
+      <c r="C177" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -3330,6 +3863,9 @@
           <t>toh350</t>
         </is>
       </c>
+      <c r="C178" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -3340,6 +3876,9 @@
           <t>toh352</t>
         </is>
       </c>
+      <c r="C179" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -3350,6 +3889,9 @@
           <t>toh353</t>
         </is>
       </c>
+      <c r="C180" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -3360,6 +3902,9 @@
           <t>toh355</t>
         </is>
       </c>
+      <c r="C181" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -3370,6 +3915,9 @@
           <t>toh356</t>
         </is>
       </c>
+      <c r="C182" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -3380,6 +3928,9 @@
           <t>toh357</t>
         </is>
       </c>
+      <c r="C183" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -3390,6 +3941,9 @@
           <t>toh359</t>
         </is>
       </c>
+      <c r="C184" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -3400,6 +3954,9 @@
           <t>toh366</t>
         </is>
       </c>
+      <c r="C185" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -3410,6 +3967,9 @@
           <t>toh378</t>
         </is>
       </c>
+      <c r="C186" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -3420,6 +3980,9 @@
           <t>toh417</t>
         </is>
       </c>
+      <c r="C187" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -3430,6 +3993,9 @@
           <t>toh433</t>
         </is>
       </c>
+      <c r="C188" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -3440,6 +4006,9 @@
           <t>toh434</t>
         </is>
       </c>
+      <c r="C189" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -3450,6 +4019,9 @@
           <t>toh438</t>
         </is>
       </c>
+      <c r="C190" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -3460,6 +4032,9 @@
           <t>toh452</t>
         </is>
       </c>
+      <c r="C191" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -3470,6 +4045,9 @@
           <t>toh456</t>
         </is>
       </c>
+      <c r="C192" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -3480,6 +4058,9 @@
           <t>toh460a</t>
         </is>
       </c>
+      <c r="C193" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -3490,6 +4071,9 @@
           <t>toh952</t>
         </is>
       </c>
+      <c r="C194" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -3500,6 +4084,9 @@
           <t>toh469</t>
         </is>
       </c>
+      <c r="C195" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -3510,6 +4097,9 @@
           <t>toh471</t>
         </is>
       </c>
+      <c r="C196" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -3520,6 +4110,9 @@
           <t>toh505a</t>
         </is>
       </c>
+      <c r="C197" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -3530,6 +4123,9 @@
           <t>toh508</t>
         </is>
       </c>
+      <c r="C198" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -3540,6 +4136,9 @@
           <t>toh509</t>
         </is>
       </c>
+      <c r="C199" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -3550,6 +4149,9 @@
           <t>toh920</t>
         </is>
       </c>
+      <c r="C200" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -3560,6 +4162,9 @@
           <t>toh516</t>
         </is>
       </c>
+      <c r="C201" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -3570,6 +4175,9 @@
           <t>toh886</t>
         </is>
       </c>
+      <c r="C202" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -3580,6 +4188,9 @@
           <t>toh519</t>
         </is>
       </c>
+      <c r="C203" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -3590,6 +4201,9 @@
           <t>toh979</t>
         </is>
       </c>
+      <c r="C204" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -3600,6 +4214,9 @@
           <t>toh521</t>
         </is>
       </c>
+      <c r="C205" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -3610,6 +4227,9 @@
           <t>toh981</t>
         </is>
       </c>
+      <c r="C206" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -3620,6 +4240,9 @@
           <t>toh522</t>
         </is>
       </c>
+      <c r="C207" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -3630,6 +4253,9 @@
           <t>toh848</t>
         </is>
       </c>
+      <c r="C208" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -3640,6 +4266,9 @@
           <t>toh524</t>
         </is>
       </c>
+      <c r="C209" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -3650,6 +4279,9 @@
           <t>toh977</t>
         </is>
       </c>
+      <c r="C210" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -3660,6 +4292,9 @@
           <t>toh528</t>
         </is>
       </c>
+      <c r="C211" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -3670,6 +4305,9 @@
           <t>toh858</t>
         </is>
       </c>
+      <c r="C212" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -3680,6 +4318,9 @@
           <t>toh532</t>
         </is>
       </c>
+      <c r="C213" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -3690,6 +4331,9 @@
           <t>toh873</t>
         </is>
       </c>
+      <c r="C214" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -3700,6 +4344,9 @@
           <t>toh533</t>
         </is>
       </c>
+      <c r="C215" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -3710,6 +4357,9 @@
           <t>toh860</t>
         </is>
       </c>
+      <c r="C216" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -3720,6 +4370,9 @@
           <t>toh534</t>
         </is>
       </c>
+      <c r="C217" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -3730,6 +4383,9 @@
           <t>toh861</t>
         </is>
       </c>
+      <c r="C218" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -3740,6 +4396,9 @@
           <t>toh535</t>
         </is>
       </c>
+      <c r="C219" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -3750,6 +4409,9 @@
           <t>toh868</t>
         </is>
       </c>
+      <c r="C220" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -3760,6 +4422,9 @@
           <t>toh536</t>
         </is>
       </c>
+      <c r="C221" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -3770,6 +4435,9 @@
           <t>toh869</t>
         </is>
       </c>
+      <c r="C222" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -3780,6 +4448,9 @@
           <t>toh537</t>
         </is>
       </c>
+      <c r="C223" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -3790,6 +4461,9 @@
           <t>toh870</t>
         </is>
       </c>
+      <c r="C224" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -3800,6 +4474,9 @@
           <t>toh538</t>
         </is>
       </c>
+      <c r="C225" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -3810,6 +4487,9 @@
           <t>toh1068</t>
         </is>
       </c>
+      <c r="C226" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -3820,6 +4500,9 @@
           <t>toh539</t>
         </is>
       </c>
+      <c r="C227" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -3830,6 +4513,9 @@
           <t>toh1069</t>
         </is>
       </c>
+      <c r="C228" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -3840,6 +4526,9 @@
           <t>toh539a</t>
         </is>
       </c>
+      <c r="C229" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -3850,6 +4539,9 @@
           <t>toh1070</t>
         </is>
       </c>
+      <c r="C230" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -3860,6 +4552,9 @@
           <t>toh539b</t>
         </is>
       </c>
+      <c r="C231" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -3870,6 +4565,9 @@
           <t>toh1071</t>
         </is>
       </c>
+      <c r="C232" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -3880,6 +4578,9 @@
           <t>toh539c</t>
         </is>
       </c>
+      <c r="C233" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -3890,6 +4591,9 @@
           <t>toh1072</t>
         </is>
       </c>
+      <c r="C234" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -3900,6 +4604,9 @@
           <t>toh539d</t>
         </is>
       </c>
+      <c r="C235" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -3910,6 +4617,9 @@
           <t>toh1073</t>
         </is>
       </c>
+      <c r="C236" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -3920,6 +4630,9 @@
           <t>toh539e</t>
         </is>
       </c>
+      <c r="C237" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -3930,6 +4643,9 @@
           <t>toh774</t>
         </is>
       </c>
+      <c r="C238" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -3940,6 +4656,9 @@
           <t>toh1074</t>
         </is>
       </c>
+      <c r="C239" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -3950,6 +4669,9 @@
           <t>toh539f</t>
         </is>
       </c>
+      <c r="C240" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -3960,6 +4682,9 @@
           <t>toh866</t>
         </is>
       </c>
+      <c r="C241" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -3970,6 +4695,9 @@
           <t>toh540</t>
         </is>
       </c>
+      <c r="C242" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -3980,6 +4708,9 @@
           <t>toh1078</t>
         </is>
       </c>
+      <c r="C243" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -3990,6 +4721,9 @@
           <t>toh541</t>
         </is>
       </c>
+      <c r="C244" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -4000,6 +4734,9 @@
           <t>toh931</t>
         </is>
       </c>
+      <c r="C245" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -4010,6 +4747,9 @@
           <t>toh546</t>
         </is>
       </c>
+      <c r="C246" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -4020,6 +4760,9 @@
           <t>toh893</t>
         </is>
       </c>
+      <c r="C247" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -4030,6 +4773,9 @@
           <t>toh547</t>
         </is>
       </c>
+      <c r="C248" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -4040,6 +4786,9 @@
           <t>toh548</t>
         </is>
       </c>
+      <c r="C249" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -4050,6 +4799,9 @@
           <t>toh894</t>
         </is>
       </c>
+      <c r="C250" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -4060,6 +4812,9 @@
           <t>toh549</t>
         </is>
       </c>
+      <c r="C251" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -4070,6 +4825,9 @@
           <t>toh895</t>
         </is>
       </c>
+      <c r="C252" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -4080,6 +4838,9 @@
           <t>toh550</t>
         </is>
       </c>
+      <c r="C253" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -4090,6 +4851,9 @@
           <t>toh896</t>
         </is>
       </c>
+      <c r="C254" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -4100,6 +4864,9 @@
           <t>toh551</t>
         </is>
       </c>
+      <c r="C255" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -4110,6 +4877,9 @@
           <t>toh552</t>
         </is>
       </c>
+      <c r="C256" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -4120,6 +4890,9 @@
           <t>toh557</t>
         </is>
       </c>
+      <c r="C257" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -4130,6 +4903,9 @@
           <t>toh560</t>
         </is>
       </c>
+      <c r="C258" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -4140,6 +4916,9 @@
           <t>toh565</t>
         </is>
       </c>
+      <c r="C259" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -4150,6 +4929,9 @@
           <t>toh566</t>
         </is>
       </c>
+      <c r="C260" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -4160,6 +4942,9 @@
           <t>toh568</t>
         </is>
       </c>
+      <c r="C261" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -4170,6 +4955,9 @@
           <t>toh1004</t>
         </is>
       </c>
+      <c r="C262" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -4180,6 +4968,9 @@
           <t>toh571</t>
         </is>
       </c>
+      <c r="C263" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -4190,6 +4981,9 @@
           <t>toh990</t>
         </is>
       </c>
+      <c r="C264" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -4200,6 +4994,9 @@
           <t>toh572</t>
         </is>
       </c>
+      <c r="C265" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -4210,6 +5007,9 @@
           <t>toh993</t>
         </is>
       </c>
+      <c r="C266" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -4220,6 +5020,9 @@
           <t>toh573</t>
         </is>
       </c>
+      <c r="C267" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -4230,6 +5033,9 @@
           <t>toh996</t>
         </is>
       </c>
+      <c r="C268" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -4240,6 +5046,9 @@
           <t>toh575</t>
         </is>
       </c>
+      <c r="C269" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -4250,6 +5059,9 @@
           <t>toh917</t>
         </is>
       </c>
+      <c r="C270" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -4260,6 +5072,9 @@
           <t>toh576</t>
         </is>
       </c>
+      <c r="C271" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -4270,6 +5085,9 @@
           <t>toh932</t>
         </is>
       </c>
+      <c r="C272" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -4280,6 +5098,9 @@
           <t>toh577</t>
         </is>
       </c>
+      <c r="C273" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -4290,6 +5111,9 @@
           <t>toh933</t>
         </is>
       </c>
+      <c r="C274" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -4300,6 +5124,9 @@
           <t>toh578</t>
         </is>
       </c>
+      <c r="C275" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -4310,6 +5137,9 @@
           <t>toh934</t>
         </is>
       </c>
+      <c r="C276" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -4320,6 +5150,9 @@
           <t>toh579</t>
         </is>
       </c>
+      <c r="C277" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -4330,6 +5163,9 @@
           <t>toh935</t>
         </is>
       </c>
+      <c r="C278" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -4340,6 +5176,9 @@
           <t>toh580</t>
         </is>
       </c>
+      <c r="C279" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -4350,6 +5189,9 @@
           <t>toh936</t>
         </is>
       </c>
+      <c r="C280" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -4360,6 +5202,9 @@
           <t>toh581</t>
         </is>
       </c>
+      <c r="C281" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -4370,6 +5215,9 @@
           <t>toh937</t>
         </is>
       </c>
+      <c r="C282" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -4380,6 +5228,9 @@
           <t>toh582</t>
         </is>
       </c>
+      <c r="C283" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -4390,6 +5241,9 @@
           <t>toh938</t>
         </is>
       </c>
+      <c r="C284" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -4400,6 +5254,9 @@
           <t>toh583</t>
         </is>
       </c>
+      <c r="C285" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -4410,6 +5267,9 @@
           <t>toh939</t>
         </is>
       </c>
+      <c r="C286" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -4420,6 +5280,9 @@
           <t>toh584</t>
         </is>
       </c>
+      <c r="C287" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -4430,6 +5293,9 @@
           <t>toh940</t>
         </is>
       </c>
+      <c r="C288" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -4440,6 +5306,9 @@
           <t>toh585</t>
         </is>
       </c>
+      <c r="C289" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -4450,6 +5319,9 @@
           <t>toh941</t>
         </is>
       </c>
+      <c r="C290" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -4460,6 +5332,9 @@
           <t>toh586</t>
         </is>
       </c>
+      <c r="C291" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -4470,6 +5345,9 @@
           <t>toh942</t>
         </is>
       </c>
+      <c r="C292" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -4480,6 +5358,9 @@
           <t>toh587</t>
         </is>
       </c>
+      <c r="C293" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -4490,6 +5371,9 @@
           <t>toh943</t>
         </is>
       </c>
+      <c r="C294" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -4500,6 +5384,9 @@
           <t>toh588</t>
         </is>
       </c>
+      <c r="C295" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -4510,6 +5397,9 @@
           <t>toh944</t>
         </is>
       </c>
+      <c r="C296" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -4520,6 +5410,9 @@
           <t>toh589</t>
         </is>
       </c>
+      <c r="C297" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -4530,6 +5423,9 @@
           <t>toh945</t>
         </is>
       </c>
+      <c r="C298" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -4540,6 +5436,9 @@
           <t>toh590</t>
         </is>
       </c>
+      <c r="C299" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -4550,6 +5449,9 @@
           <t>toh985</t>
         </is>
       </c>
+      <c r="C300" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -4560,6 +5462,9 @@
           <t>toh592</t>
         </is>
       </c>
+      <c r="C301" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -4570,6 +5475,9 @@
           <t>toh986</t>
         </is>
       </c>
+      <c r="C302" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -4580,6 +5488,9 @@
           <t>toh593</t>
         </is>
       </c>
+      <c r="C303" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -4590,6 +5501,9 @@
           <t>toh595</t>
         </is>
       </c>
+      <c r="C304" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -4600,6 +5514,9 @@
           <t>toh596</t>
         </is>
       </c>
+      <c r="C305" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -4610,6 +5527,9 @@
           <t>toh600</t>
         </is>
       </c>
+      <c r="C306" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -4620,6 +5540,9 @@
           <t>toh962</t>
         </is>
       </c>
+      <c r="C307" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -4630,6 +5553,9 @@
           <t>toh601</t>
         </is>
       </c>
+      <c r="C308" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -4640,6 +5566,9 @@
           <t>toh884</t>
         </is>
       </c>
+      <c r="C309" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -4650,6 +5579,9 @@
           <t>toh602</t>
         </is>
       </c>
+      <c r="C310" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -4660,6 +5592,9 @@
           <t>toh921</t>
         </is>
       </c>
+      <c r="C311" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -4670,6 +5605,9 @@
           <t>toh603</t>
         </is>
       </c>
+      <c r="C312" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -4680,6 +5618,9 @@
           <t>toh913</t>
         </is>
       </c>
+      <c r="C313" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -4690,6 +5631,9 @@
           <t>toh604</t>
         </is>
       </c>
+      <c r="C314" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -4700,6 +5644,9 @@
           <t>toh605</t>
         </is>
       </c>
+      <c r="C315" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -4710,6 +5657,9 @@
           <t>toh607</t>
         </is>
       </c>
+      <c r="C316" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -4720,6 +5670,9 @@
           <t>toh613</t>
         </is>
       </c>
+      <c r="C317" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -4730,6 +5683,9 @@
           <t>toh989</t>
         </is>
       </c>
+      <c r="C318" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -4740,6 +5696,9 @@
           <t>toh618</t>
         </is>
       </c>
+      <c r="C319" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -4750,6 +5709,9 @@
           <t>toh967</t>
         </is>
       </c>
+      <c r="C320" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -4760,6 +5722,9 @@
           <t>toh619</t>
         </is>
       </c>
+      <c r="C321" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -4770,6 +5735,9 @@
           <t>toh1008</t>
         </is>
       </c>
+      <c r="C322" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -4780,6 +5748,9 @@
           <t>toh620</t>
         </is>
       </c>
+      <c r="C323" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -4790,6 +5761,9 @@
           <t>toh1018</t>
         </is>
       </c>
+      <c r="C324" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -4800,6 +5774,9 @@
           <t>toh622</t>
         </is>
       </c>
+      <c r="C325" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -4810,6 +5787,9 @@
           <t>toh1014</t>
         </is>
       </c>
+      <c r="C326" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -4820,6 +5800,9 @@
           <t>toh623</t>
         </is>
       </c>
+      <c r="C327" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -4830,6 +5813,9 @@
           <t>toh1015</t>
         </is>
       </c>
+      <c r="C328" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -4840,6 +5826,9 @@
           <t>toh624</t>
         </is>
       </c>
+      <c r="C329" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -4850,6 +5839,9 @@
           <t>toh1017</t>
         </is>
       </c>
+      <c r="C330" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -4860,6 +5852,9 @@
           <t>toh626</t>
         </is>
       </c>
+      <c r="C331" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -4870,6 +5865,9 @@
           <t>toh1019</t>
         </is>
       </c>
+      <c r="C332" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -4880,6 +5878,9 @@
           <t>toh627</t>
         </is>
       </c>
+      <c r="C333" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -4890,6 +5891,9 @@
           <t>toh1052</t>
         </is>
       </c>
+      <c r="C334" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -4900,6 +5904,9 @@
           <t>toh629</t>
         </is>
       </c>
+      <c r="C335" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -4910,6 +5917,9 @@
           <t>toh961</t>
         </is>
       </c>
+      <c r="C336" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -4920,6 +5930,9 @@
           <t>toh630</t>
         </is>
       </c>
+      <c r="C337" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -4930,6 +5943,9 @@
           <t>toh1010</t>
         </is>
       </c>
+      <c r="C338" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -4940,6 +5956,9 @@
           <t>toh632</t>
         </is>
       </c>
+      <c r="C339" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -4950,6 +5969,9 @@
           <t>toh634</t>
         </is>
       </c>
+      <c r="C340" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -4960,6 +5982,9 @@
           <t>toh874</t>
         </is>
       </c>
+      <c r="C341" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -4970,6 +5995,9 @@
           <t>toh635</t>
         </is>
       </c>
+      <c r="C342" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -4980,6 +6008,9 @@
           <t>toh875</t>
         </is>
       </c>
+      <c r="C343" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -4990,6 +6021,9 @@
           <t>toh636</t>
         </is>
       </c>
+      <c r="C344" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -5000,6 +6034,9 @@
           <t>toh876</t>
         </is>
       </c>
+      <c r="C345" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -5010,6 +6047,9 @@
           <t>toh637</t>
         </is>
       </c>
+      <c r="C346" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -5020,6 +6060,9 @@
           <t>toh877</t>
         </is>
       </c>
+      <c r="C347" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -5030,6 +6073,9 @@
           <t>toh638</t>
         </is>
       </c>
+      <c r="C348" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -5040,6 +6086,9 @@
           <t>toh878</t>
         </is>
       </c>
+      <c r="C349" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -5050,6 +6099,9 @@
           <t>toh639</t>
         </is>
       </c>
+      <c r="C350" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -5060,6 +6112,9 @@
           <t>toh879</t>
         </is>
       </c>
+      <c r="C351" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -5070,6 +6125,9 @@
           <t>toh640</t>
         </is>
       </c>
+      <c r="C352" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -5080,6 +6138,9 @@
           <t>toh880</t>
         </is>
       </c>
+      <c r="C353" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -5090,6 +6151,9 @@
           <t>toh641</t>
         </is>
       </c>
+      <c r="C354" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -5100,6 +6164,9 @@
           <t>toh881</t>
         </is>
       </c>
+      <c r="C355" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -5110,6 +6177,9 @@
           <t>toh642</t>
         </is>
       </c>
+      <c r="C356" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -5120,6 +6190,9 @@
           <t>toh645</t>
         </is>
       </c>
+      <c r="C357" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -5130,6 +6203,9 @@
           <t>toh646</t>
         </is>
       </c>
+      <c r="C358" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -5140,6 +6216,9 @@
           <t>toh1080</t>
         </is>
       </c>
+      <c r="C359" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -5150,6 +6229,9 @@
           <t>toh647</t>
         </is>
       </c>
+      <c r="C360" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -5160,6 +6242,9 @@
           <t>toh1079</t>
         </is>
       </c>
+      <c r="C361" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -5170,6 +6255,9 @@
           <t>toh649</t>
         </is>
       </c>
+      <c r="C362" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -5180,6 +6268,9 @@
           <t>toh1077</t>
         </is>
       </c>
+      <c r="C363" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -5190,6 +6281,9 @@
           <t>toh651</t>
         </is>
       </c>
+      <c r="C364" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -5200,6 +6294,9 @@
           <t>toh1040</t>
         </is>
       </c>
+      <c r="C365" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -5210,6 +6307,9 @@
           <t>toh652</t>
         </is>
       </c>
+      <c r="C366" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -5220,6 +6320,9 @@
           <t>toh863</t>
         </is>
       </c>
+      <c r="C367" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -5230,6 +6333,9 @@
           <t>toh655</t>
         </is>
       </c>
+      <c r="C368" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -5240,6 +6346,9 @@
           <t>toh959</t>
         </is>
       </c>
+      <c r="C369" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -5250,6 +6359,9 @@
           <t>toh659</t>
         </is>
       </c>
+      <c r="C370" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -5260,6 +6372,9 @@
           <t>toh1065</t>
         </is>
       </c>
+      <c r="C371" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -5270,6 +6385,9 @@
           <t>toh661</t>
         </is>
       </c>
+      <c r="C372" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -5280,6 +6398,9 @@
           <t>toh998</t>
         </is>
       </c>
+      <c r="C373" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -5290,6 +6411,9 @@
           <t>toh662</t>
         </is>
       </c>
+      <c r="C374" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -5300,6 +6424,9 @@
           <t>toh1007</t>
         </is>
       </c>
+      <c r="C375" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -5310,6 +6437,9 @@
           <t>toh663</t>
         </is>
       </c>
+      <c r="C376" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -5320,6 +6450,9 @@
           <t>toh664</t>
         </is>
       </c>
+      <c r="C377" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -5330,6 +6463,9 @@
           <t>toh665</t>
         </is>
       </c>
+      <c r="C378" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -5340,6 +6476,9 @@
           <t>toh1084</t>
         </is>
       </c>
+      <c r="C379" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -5350,6 +6489,9 @@
           <t>toh668</t>
         </is>
       </c>
+      <c r="C380" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -5360,6 +6502,9 @@
           <t>toh1085</t>
         </is>
       </c>
+      <c r="C381" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -5370,6 +6515,9 @@
           <t>toh670</t>
         </is>
       </c>
+      <c r="C382" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -5380,6 +6528,9 @@
           <t>toh1087</t>
         </is>
       </c>
+      <c r="C383" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -5390,6 +6541,9 @@
           <t>toh671</t>
         </is>
       </c>
+      <c r="C384" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -5400,6 +6554,9 @@
           <t>toh672</t>
         </is>
       </c>
+      <c r="C385" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -5410,6 +6567,9 @@
           <t>toh1088</t>
         </is>
       </c>
+      <c r="C386" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -5420,6 +6580,9 @@
           <t>toh673</t>
         </is>
       </c>
+      <c r="C387" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -5430,6 +6593,9 @@
           <t>toh1089</t>
         </is>
       </c>
+      <c r="C388" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -5440,6 +6606,9 @@
           <t>toh673a</t>
         </is>
       </c>
+      <c r="C389" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -5450,6 +6619,9 @@
           <t>toh674</t>
         </is>
       </c>
+      <c r="C390" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -5460,6 +6632,9 @@
           <t>toh849</t>
         </is>
       </c>
+      <c r="C391" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -5470,6 +6645,9 @@
           <t>toh675</t>
         </is>
       </c>
+      <c r="C392" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -5480,6 +6658,9 @@
           <t>toh677</t>
         </is>
       </c>
+      <c r="C393" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -5490,6 +6671,9 @@
           <t>toh864</t>
         </is>
       </c>
+      <c r="C394" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -5500,6 +6684,9 @@
           <t>toh678</t>
         </is>
       </c>
+      <c r="C395" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -5510,6 +6697,9 @@
           <t>toh867</t>
         </is>
       </c>
+      <c r="C396" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -5520,6 +6710,9 @@
           <t>toh679</t>
         </is>
       </c>
+      <c r="C397" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -5530,6 +6723,9 @@
           <t>toh851</t>
         </is>
       </c>
+      <c r="C398" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -5540,6 +6736,9 @@
           <t>toh680</t>
         </is>
       </c>
+      <c r="C399" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -5550,6 +6749,9 @@
           <t>toh889</t>
         </is>
       </c>
+      <c r="C400" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -5560,6 +6762,9 @@
           <t>toh683</t>
         </is>
       </c>
+      <c r="C401" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -5570,6 +6775,9 @@
           <t>toh688</t>
         </is>
       </c>
+      <c r="C402" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -5580,6 +6788,9 @@
           <t>toh902</t>
         </is>
       </c>
+      <c r="C403" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -5590,6 +6801,9 @@
           <t>toh690</t>
         </is>
       </c>
+      <c r="C404" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -5600,6 +6814,9 @@
           <t>toh695</t>
         </is>
       </c>
+      <c r="C405" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -5610,6 +6827,9 @@
           <t>toh911</t>
         </is>
       </c>
+      <c r="C406" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -5620,6 +6840,9 @@
           <t>toh696</t>
         </is>
       </c>
+      <c r="C407" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -5630,6 +6853,9 @@
           <t>toh910</t>
         </is>
       </c>
+      <c r="C408" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -5640,6 +6866,9 @@
           <t>toh697</t>
         </is>
       </c>
+      <c r="C409" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -5650,6 +6879,9 @@
           <t>toh905</t>
         </is>
       </c>
+      <c r="C410" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -5660,6 +6892,9 @@
           <t>toh698</t>
         </is>
       </c>
+      <c r="C411" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -5670,6 +6905,9 @@
           <t>toh908</t>
         </is>
       </c>
+      <c r="C412" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -5680,6 +6918,9 @@
           <t>toh705</t>
         </is>
       </c>
+      <c r="C413" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -5690,6 +6931,9 @@
           <t>toh900</t>
         </is>
       </c>
+      <c r="C414" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -5700,6 +6944,9 @@
           <t>toh706</t>
         </is>
       </c>
+      <c r="C415" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -5710,6 +6957,9 @@
           <t>toh709</t>
         </is>
       </c>
+      <c r="C416" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -5720,6 +6970,9 @@
           <t>toh978</t>
         </is>
       </c>
+      <c r="C417" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -5730,6 +6983,9 @@
           <t>toh710</t>
         </is>
       </c>
+      <c r="C418" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -5740,6 +6996,9 @@
           <t>toh930</t>
         </is>
       </c>
+      <c r="C419" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -5750,6 +7009,9 @@
           <t>toh711</t>
         </is>
       </c>
+      <c r="C420" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -5760,6 +7022,9 @@
           <t>toh1042</t>
         </is>
       </c>
+      <c r="C421" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -5770,6 +7035,9 @@
           <t>toh712</t>
         </is>
       </c>
+      <c r="C422" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -5780,6 +7048,9 @@
           <t>toh1043</t>
         </is>
       </c>
+      <c r="C423" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -5790,6 +7061,9 @@
           <t>toh713</t>
         </is>
       </c>
+      <c r="C424" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -5800,6 +7074,9 @@
           <t>toh1044</t>
         </is>
       </c>
+      <c r="C425" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -5810,6 +7087,9 @@
           <t>toh714</t>
         </is>
       </c>
+      <c r="C426" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -5820,6 +7100,9 @@
           <t>toh1045</t>
         </is>
       </c>
+      <c r="C427" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -5830,6 +7113,9 @@
           <t>toh715</t>
         </is>
       </c>
+      <c r="C428" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -5840,6 +7126,9 @@
           <t>toh1046</t>
         </is>
       </c>
+      <c r="C429" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -5850,6 +7139,9 @@
           <t>toh716</t>
         </is>
       </c>
+      <c r="C430" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -5860,6 +7152,9 @@
           <t>toh1047</t>
         </is>
       </c>
+      <c r="C431" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -5870,6 +7165,9 @@
           <t>toh717</t>
         </is>
       </c>
+      <c r="C432" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -5880,6 +7178,9 @@
           <t>toh1048</t>
         </is>
       </c>
+      <c r="C433" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -5890,6 +7191,9 @@
           <t>toh720</t>
         </is>
       </c>
+      <c r="C434" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -5900,6 +7204,9 @@
           <t>toh1041</t>
         </is>
       </c>
+      <c r="C435" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -5910,6 +7217,9 @@
           <t>toh722</t>
         </is>
       </c>
+      <c r="C436" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -5920,6 +7230,9 @@
           <t>toh812</t>
         </is>
       </c>
+      <c r="C437" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -5930,6 +7243,9 @@
           <t>toh1094</t>
         </is>
       </c>
+      <c r="C438" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -5940,6 +7256,9 @@
           <t>toh727</t>
         </is>
       </c>
+      <c r="C439" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -5950,6 +7269,9 @@
           <t>toh1000</t>
         </is>
       </c>
+      <c r="C440" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -5960,6 +7282,9 @@
           <t>toh728</t>
         </is>
       </c>
+      <c r="C441" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -5970,6 +7295,9 @@
           <t>toh729</t>
         </is>
       </c>
+      <c r="C442" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -5980,6 +7308,9 @@
           <t>toh1001</t>
         </is>
       </c>
+      <c r="C443" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -5990,6 +7321,9 @@
           <t>toh730</t>
         </is>
       </c>
+      <c r="C444" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -6000,6 +7334,9 @@
           <t>toh1002</t>
         </is>
       </c>
+      <c r="C445" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -6010,6 +7347,9 @@
           <t>toh731</t>
         </is>
       </c>
+      <c r="C446" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -6020,6 +7360,9 @@
           <t>toh732</t>
         </is>
       </c>
+      <c r="C447" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -6030,6 +7373,9 @@
           <t>toh992</t>
         </is>
       </c>
+      <c r="C448" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -6040,6 +7386,9 @@
           <t>toh733</t>
         </is>
       </c>
+      <c r="C449" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -6050,6 +7399,9 @@
           <t>toh906</t>
         </is>
       </c>
+      <c r="C450" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -6060,6 +7412,9 @@
           <t>toh734</t>
         </is>
       </c>
+      <c r="C451" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -6070,6 +7425,9 @@
           <t>toh968</t>
         </is>
       </c>
+      <c r="C452" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -6080,6 +7438,9 @@
           <t>toh735</t>
         </is>
       </c>
+      <c r="C453" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -6090,6 +7451,9 @@
           <t>toh994</t>
         </is>
       </c>
+      <c r="C454" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -6100,6 +7464,9 @@
           <t>toh736</t>
         </is>
       </c>
+      <c r="C455" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -6110,6 +7477,9 @@
           <t>toh995</t>
         </is>
       </c>
+      <c r="C456" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -6120,6 +7490,9 @@
           <t>toh737</t>
         </is>
       </c>
+      <c r="C457" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -6130,6 +7503,9 @@
           <t>toh960</t>
         </is>
       </c>
+      <c r="C458" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -6140,6 +7516,9 @@
           <t>toh738</t>
         </is>
       </c>
+      <c r="C459" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -6150,6 +7529,9 @@
           <t>toh1092</t>
         </is>
       </c>
+      <c r="C460" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -6160,6 +7542,9 @@
           <t>toh742</t>
         </is>
       </c>
+      <c r="C461" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -6170,6 +7555,9 @@
           <t>toh1036</t>
         </is>
       </c>
+      <c r="C462" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -6180,6 +7568,9 @@
           <t>toh743</t>
         </is>
       </c>
+      <c r="C463" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -6190,6 +7581,9 @@
           <t>toh1009</t>
         </is>
       </c>
+      <c r="C464" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -6200,6 +7594,9 @@
           <t>toh744a</t>
         </is>
       </c>
+      <c r="C465" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -6210,6 +7607,9 @@
           <t>toh749</t>
         </is>
       </c>
+      <c r="C466" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -6220,6 +7620,9 @@
           <t>toh950</t>
         </is>
       </c>
+      <c r="C467" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -6230,6 +7633,9 @@
           <t>toh753</t>
         </is>
       </c>
+      <c r="C468" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -6240,6 +7646,9 @@
           <t>toh955</t>
         </is>
       </c>
+      <c r="C469" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -6250,6 +7659,9 @@
           <t>toh755</t>
         </is>
       </c>
+      <c r="C470" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -6260,6 +7672,9 @@
           <t>toh957</t>
         </is>
       </c>
+      <c r="C471" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -6270,6 +7685,9 @@
           <t>toh756</t>
         </is>
       </c>
+      <c r="C472" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -6280,6 +7698,9 @@
           <t>toh759</t>
         </is>
       </c>
+      <c r="C473" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -6290,6 +7711,9 @@
           <t>toh964</t>
         </is>
       </c>
+      <c r="C474" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -6300,6 +7724,9 @@
           <t>toh760</t>
         </is>
       </c>
+      <c r="C475" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -6310,6 +7737,9 @@
           <t>toh965</t>
         </is>
       </c>
+      <c r="C476" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -6320,6 +7750,9 @@
           <t>toh761</t>
         </is>
       </c>
+      <c r="C477" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -6330,6 +7763,9 @@
           <t>toh762</t>
         </is>
       </c>
+      <c r="C478" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -6340,6 +7776,9 @@
           <t>toh763</t>
         </is>
       </c>
+      <c r="C479" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -6350,6 +7789,9 @@
           <t>toh966</t>
         </is>
       </c>
+      <c r="C480" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -6360,6 +7802,9 @@
           <t>toh768</t>
         </is>
       </c>
+      <c r="C481" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -6370,6 +7815,9 @@
           <t>toh973</t>
         </is>
       </c>
+      <c r="C482" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -6380,6 +7828,9 @@
           <t>toh769</t>
         </is>
       </c>
+      <c r="C483" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -6390,6 +7841,9 @@
           <t>toh971</t>
         </is>
       </c>
+      <c r="C484" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -6400,6 +7854,9 @@
           <t>toh771</t>
         </is>
       </c>
+      <c r="C485" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -6410,6 +7867,9 @@
           <t>toh972</t>
         </is>
       </c>
+      <c r="C486" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -6420,6 +7880,9 @@
           <t>toh775</t>
         </is>
       </c>
+      <c r="C487" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -6430,6 +7893,9 @@
           <t>toh1075</t>
         </is>
       </c>
+      <c r="C488" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -6440,6 +7906,9 @@
           <t>toh776</t>
         </is>
       </c>
+      <c r="C489" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -6450,6 +7919,9 @@
           <t>toh1076</t>
         </is>
       </c>
+      <c r="C490" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -6460,6 +7932,9 @@
           <t>toh777</t>
         </is>
       </c>
+      <c r="C491" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -6470,6 +7945,9 @@
           <t>toh1011</t>
         </is>
       </c>
+      <c r="C492" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -6480,6 +7958,9 @@
           <t>toh778</t>
         </is>
       </c>
+      <c r="C493" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -6490,6 +7971,9 @@
           <t>toh1012</t>
         </is>
       </c>
+      <c r="C494" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -6500,6 +7984,9 @@
           <t>toh779</t>
         </is>
       </c>
+      <c r="C495" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -6510,6 +7997,9 @@
           <t>toh1049</t>
         </is>
       </c>
+      <c r="C496" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -6520,6 +8010,9 @@
           <t>toh780</t>
         </is>
       </c>
+      <c r="C497" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -6530,6 +8023,9 @@
           <t>toh1031</t>
         </is>
       </c>
+      <c r="C498" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -6540,6 +8036,9 @@
           <t>toh781</t>
         </is>
       </c>
+      <c r="C499" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -6550,6 +8049,9 @@
           <t>toh1032</t>
         </is>
       </c>
+      <c r="C500" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -6560,6 +8062,9 @@
           <t>toh782</t>
         </is>
       </c>
+      <c r="C501" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -6570,6 +8075,9 @@
           <t>toh1013</t>
         </is>
       </c>
+      <c r="C502" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -6580,6 +8088,9 @@
           <t>toh783</t>
         </is>
       </c>
+      <c r="C503" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -6590,6 +8101,9 @@
           <t>toh1060</t>
         </is>
       </c>
+      <c r="C504" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -6600,6 +8114,9 @@
           <t>toh784</t>
         </is>
       </c>
+      <c r="C505" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -6610,6 +8127,9 @@
           <t>toh1021</t>
         </is>
       </c>
+      <c r="C506" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -6620,6 +8140,9 @@
           <t>toh785</t>
         </is>
       </c>
+      <c r="C507" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -6630,6 +8153,9 @@
           <t>toh1022</t>
         </is>
       </c>
+      <c r="C508" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -6640,6 +8166,9 @@
           <t>toh786</t>
         </is>
       </c>
+      <c r="C509" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -6650,6 +8179,9 @@
           <t>toh1023</t>
         </is>
       </c>
+      <c r="C510" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -6660,6 +8192,9 @@
           <t>toh787</t>
         </is>
       </c>
+      <c r="C511" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -6670,6 +8205,9 @@
           <t>toh1025</t>
         </is>
       </c>
+      <c r="C512" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -6680,6 +8218,9 @@
           <t>toh788</t>
         </is>
       </c>
+      <c r="C513" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -6690,6 +8231,9 @@
           <t>toh1026</t>
         </is>
       </c>
+      <c r="C514" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -6700,6 +8244,9 @@
           <t>toh789</t>
         </is>
       </c>
+      <c r="C515" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -6710,6 +8257,9 @@
           <t>toh1027</t>
         </is>
       </c>
+      <c r="C516" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -6720,6 +8270,9 @@
           <t>toh790</t>
         </is>
       </c>
+      <c r="C517" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -6730,6 +8283,9 @@
           <t>toh1028</t>
         </is>
       </c>
+      <c r="C518" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -6740,6 +8296,9 @@
           <t>toh791</t>
         </is>
       </c>
+      <c r="C519" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -6750,6 +8309,9 @@
           <t>toh1033</t>
         </is>
       </c>
+      <c r="C520" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -6760,6 +8322,9 @@
           <t>toh792</t>
         </is>
       </c>
+      <c r="C521" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -6770,6 +8335,9 @@
           <t>toh1034</t>
         </is>
       </c>
+      <c r="C522" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -6780,6 +8348,9 @@
           <t>toh793</t>
         </is>
       </c>
+      <c r="C523" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -6790,6 +8361,9 @@
           <t>toh1029</t>
         </is>
       </c>
+      <c r="C524" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -6800,6 +8374,9 @@
           <t>toh794</t>
         </is>
       </c>
+      <c r="C525" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -6810,6 +8387,9 @@
           <t>toh1030</t>
         </is>
       </c>
+      <c r="C526" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -6820,6 +8400,9 @@
           <t>toh795</t>
         </is>
       </c>
+      <c r="C527" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -6830,6 +8413,9 @@
           <t>toh1051</t>
         </is>
       </c>
+      <c r="C528" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -6840,6 +8426,9 @@
           <t>toh796</t>
         </is>
       </c>
+      <c r="C529" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -6850,6 +8439,9 @@
           <t>toh1035</t>
         </is>
       </c>
+      <c r="C530" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -6860,6 +8452,9 @@
           <t>toh797</t>
         </is>
       </c>
+      <c r="C531" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -6870,6 +8465,9 @@
           <t>toh1053</t>
         </is>
       </c>
+      <c r="C532" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -6880,6 +8478,9 @@
           <t>toh798</t>
         </is>
       </c>
+      <c r="C533" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -6890,6 +8491,9 @@
           <t>toh1054</t>
         </is>
       </c>
+      <c r="C534" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -6900,6 +8504,9 @@
           <t>toh799</t>
         </is>
       </c>
+      <c r="C535" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -6910,6 +8517,9 @@
           <t>toh1055</t>
         </is>
       </c>
+      <c r="C536" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -6920,6 +8530,9 @@
           <t>toh800</t>
         </is>
       </c>
+      <c r="C537" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -6930,6 +8543,9 @@
           <t>toh1056</t>
         </is>
       </c>
+      <c r="C538" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -6940,6 +8556,9 @@
           <t>toh801</t>
         </is>
       </c>
+      <c r="C539" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -6950,6 +8569,9 @@
           <t>toh1057</t>
         </is>
       </c>
+      <c r="C540" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -6960,6 +8582,9 @@
           <t>toh802</t>
         </is>
       </c>
+      <c r="C541" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -6970,6 +8595,9 @@
           <t>toh1058</t>
         </is>
       </c>
+      <c r="C542" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -6980,6 +8608,9 @@
           <t>toh803</t>
         </is>
       </c>
+      <c r="C543" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -6990,6 +8621,9 @@
           <t>toh1050</t>
         </is>
       </c>
+      <c r="C544" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -7000,6 +8634,9 @@
           <t>toh805</t>
         </is>
       </c>
+      <c r="C545" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -7010,6 +8647,9 @@
           <t>toh806</t>
         </is>
       </c>
+      <c r="C546" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -7020,6 +8660,9 @@
           <t>toh807</t>
         </is>
       </c>
+      <c r="C547" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -7030,6 +8673,9 @@
           <t>toh808</t>
         </is>
       </c>
+      <c r="C548" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -7040,6 +8686,9 @@
           <t>toh811</t>
         </is>
       </c>
+      <c r="C549" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -7050,6 +8699,9 @@
           <t>toh813</t>
         </is>
       </c>
+      <c r="C550" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -7060,6 +8712,9 @@
           <t>toh1098</t>
         </is>
       </c>
+      <c r="C551" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -7070,6 +8725,9 @@
           <t>toh814</t>
         </is>
       </c>
+      <c r="C552" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -7080,6 +8738,9 @@
           <t>toh1099</t>
         </is>
       </c>
+      <c r="C553" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -7090,6 +8751,9 @@
           <t>toh815</t>
         </is>
       </c>
+      <c r="C554" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -7100,6 +8764,9 @@
           <t>toh816</t>
         </is>
       </c>
+      <c r="C555" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -7110,6 +8777,9 @@
           <t>toh817</t>
         </is>
       </c>
+      <c r="C556" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -7120,6 +8790,9 @@
           <t>toh1101</t>
         </is>
       </c>
+      <c r="C557" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -7130,6 +8803,9 @@
           <t>toh818</t>
         </is>
       </c>
+      <c r="C558" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -7140,6 +8816,9 @@
           <t>toh1102</t>
         </is>
       </c>
+      <c r="C559" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -7150,6 +8829,9 @@
           <t>toh819</t>
         </is>
       </c>
+      <c r="C560" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -7160,6 +8842,9 @@
           <t>toh1100</t>
         </is>
       </c>
+      <c r="C561" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -7170,6 +8855,9 @@
           <t>toh820</t>
         </is>
       </c>
+      <c r="C562" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -7180,6 +8868,9 @@
           <t>toh821</t>
         </is>
       </c>
+      <c r="C563" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -7190,6 +8881,9 @@
           <t>toh1104</t>
         </is>
       </c>
+      <c r="C564" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -7200,6 +8894,9 @@
           <t>toh822</t>
         </is>
       </c>
+      <c r="C565" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -7210,6 +8907,9 @@
           <t>toh1105</t>
         </is>
       </c>
+      <c r="C566" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -7220,6 +8920,9 @@
           <t>toh823</t>
         </is>
       </c>
+      <c r="C567" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -7230,6 +8933,9 @@
           <t>toh1106</t>
         </is>
       </c>
+      <c r="C568" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -7240,6 +8946,9 @@
           <t>toh824</t>
         </is>
       </c>
+      <c r="C569" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -7250,6 +8959,9 @@
           <t>toh825</t>
         </is>
       </c>
+      <c r="C570" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -7260,6 +8972,9 @@
           <t>toh829</t>
         </is>
       </c>
+      <c r="C571" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -7270,6 +8985,9 @@
           <t>toh830</t>
         </is>
       </c>
+      <c r="C572" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -7280,6 +8998,9 @@
           <t>toh831</t>
         </is>
       </c>
+      <c r="C573" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -7290,6 +9011,9 @@
           <t>toh832</t>
         </is>
       </c>
+      <c r="C574" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -7300,6 +9024,9 @@
           <t>toh834</t>
         </is>
       </c>
+      <c r="C575" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
@@ -7310,6 +9037,9 @@
           <t>toh835</t>
         </is>
       </c>
+      <c r="C576" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -7320,6 +9050,9 @@
           <t>toh836</t>
         </is>
       </c>
+      <c r="C577" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -7330,6 +9063,9 @@
           <t>toh837</t>
         </is>
       </c>
+      <c r="C578" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -7340,6 +9076,9 @@
           <t>toh838</t>
         </is>
       </c>
+      <c r="C579" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -7350,6 +9089,9 @@
           <t>toh839</t>
         </is>
       </c>
+      <c r="C580" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -7360,6 +9102,9 @@
           <t>toh841-1</t>
         </is>
       </c>
+      <c r="C581" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -7370,6 +9115,9 @@
           <t>toh841-2</t>
         </is>
       </c>
+      <c r="C582" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -7380,6 +9128,9 @@
           <t>toh841-3</t>
         </is>
       </c>
+      <c r="C583" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -7390,6 +9141,9 @@
           <t>toh841-4</t>
         </is>
       </c>
+      <c r="C584" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -7400,6 +9154,9 @@
           <t>toh841-5</t>
         </is>
       </c>
+      <c r="C585" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -7410,6 +9167,9 @@
           <t>toh841-6</t>
         </is>
       </c>
+      <c r="C586" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -7420,6 +9180,9 @@
           <t>toh841-7</t>
         </is>
       </c>
+      <c r="C587" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -7430,6 +9193,9 @@
           <t>toh841-8</t>
         </is>
       </c>
+      <c r="C588" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -7440,6 +9206,9 @@
           <t>toh841a</t>
         </is>
       </c>
+      <c r="C589" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -7450,6 +9219,9 @@
           <t>toh842</t>
         </is>
       </c>
+      <c r="C590" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -7460,6 +9232,9 @@
           <t>toh844</t>
         </is>
       </c>
+      <c r="C591" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -7470,6 +9245,9 @@
           <t>toh845-1</t>
         </is>
       </c>
+      <c r="C592" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -7480,6 +9258,9 @@
           <t>toh845-2</t>
         </is>
       </c>
+      <c r="C593" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -7490,6 +9271,9 @@
           <t>toh845-3</t>
         </is>
       </c>
+      <c r="C594" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -7500,6 +9284,9 @@
           <t>toh845-4</t>
         </is>
       </c>
+      <c r="C595" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -7510,6 +9297,9 @@
           <t>toh845-5</t>
         </is>
       </c>
+      <c r="C596" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -7520,6 +9310,9 @@
           <t>toh846</t>
         </is>
       </c>
+      <c r="C597" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -7530,6 +9323,9 @@
           <t>toh846a</t>
         </is>
       </c>
+      <c r="C598" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -7540,6 +9336,9 @@
           <t>toh862</t>
         </is>
       </c>
+      <c r="C599" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -7550,6 +9349,9 @@
           <t>toh865</t>
         </is>
       </c>
+      <c r="C600" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -7560,6 +9362,9 @@
           <t>toh891</t>
         </is>
       </c>
+      <c r="C601" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -7570,6 +9375,9 @@
           <t>toh953</t>
         </is>
       </c>
+      <c r="C602" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -7580,6 +9388,9 @@
           <t>toh987</t>
         </is>
       </c>
+      <c r="C603" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -7590,6 +9401,9 @@
           <t>toh1024</t>
         </is>
       </c>
+      <c r="C604" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -7600,6 +9414,9 @@
           <t>toh1059</t>
         </is>
       </c>
+      <c r="C605" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
@@ -7610,6 +9427,9 @@
           <t>toh1059a</t>
         </is>
       </c>
+      <c r="C606" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -7620,6 +9440,9 @@
           <t>toh1066</t>
         </is>
       </c>
+      <c r="C607" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -7630,6 +9453,9 @@
           <t>toh1067</t>
         </is>
       </c>
+      <c r="C608" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
@@ -7640,6 +9466,9 @@
           <t>toh1090</t>
         </is>
       </c>
+      <c r="C609" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
@@ -7650,6 +9479,9 @@
           <t>toh1091</t>
         </is>
       </c>
+      <c r="C610" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
@@ -7660,6 +9492,9 @@
           <t>toh1096</t>
         </is>
       </c>
+      <c r="C611" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
@@ -7670,6 +9505,9 @@
           <t>toh1107</t>
         </is>
       </c>
+      <c r="C612" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -7680,6 +9518,9 @@
           <t>toh4568-1</t>
         </is>
       </c>
+      <c r="C613" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -7690,6 +9531,9 @@
           <t>toh4568-2</t>
         </is>
       </c>
+      <c r="C614" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -7700,6 +9544,9 @@
           <t>toh4568-3</t>
         </is>
       </c>
+      <c r="C615" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -7710,6 +9557,9 @@
           <t>toh4568-4</t>
         </is>
       </c>
+      <c r="C616" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
@@ -7719,6 +9569,9 @@
         <is>
           <t>toh4568-5</t>
         </is>
+      </c>
+      <c r="C617" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/discrepancies.xlsx
+++ b/discrepancies.xlsx
@@ -13,6 +13,7 @@
     <sheet name="matchable works" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="attributable works" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="discrepant roles" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="attributions to add" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22401,4 +22402,875 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>indicated_value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>text_bdrc_id</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>text_84000_ids</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>attribution_lang</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D51</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>go cha’i bkod pa bstan pa</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gö Chödrup</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>WA0RK0051</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>eft:g-ch-drup</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>D84</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bu mo rnam dag dad pas zhus pa</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gö Chödrup</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>WA0RK0084</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>eft:g-ch-drup</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>yongs su mya ngan las 'das pa chen po'i mdo/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>wang phab zhwun (wang phan zhun)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>WA0RK0119</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>eft:wang-phab-zhwun-wang-phan-zhun-</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D119</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>yongs su mya ngan las 'das pa chen po'i mdo/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>dge ba'i blo gros</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>WA0RK0119</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>eft:dge-ba-i-blo-gros</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>D119</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>yongs su mya ngan las 'das pa chen po'i mdo/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>rgya mtsho'i sde</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>WA0RK0119</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>eft:rgya-mtsho-i-sde</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>D267</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>dpang skong phyag brgya pa</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Thönmi Sambhoṭa</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>WA0RK0267</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>eft:th-nmi-sambhota</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>D287</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>dam pa’i chos dran pa nye bar gzhag pa</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tsultrim Gyaltsen</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>WA0RK0287</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>eft:tsultrim-gyaltsen</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>D287</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>dam pa’i chos dran pa nye bar gzhag pa</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Shang Buchikpa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>WA0RK0287</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>eft:shang-buchikpa</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>D287</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>dam pa’i chos dran pa nye bar gzhag pa</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sherap Ö</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>WA0RK0287</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>eft:sherap-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>D300</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>dge ba’i bshes gnyen bsten pa’i mdo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Paṇḍita Dharmākara</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>WA0RK0300</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>eft:pandita-dharmakara</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>D300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dge ba’i bshes gnyen bsten pa’i mdo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Lotsāwa Zangkyong (bzang skyong)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>WA0RK0300</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>eft:lotsawa-zangkyong-bzang-skyong-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>D312</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>yangs pa’i grong khyer du ’jug pa’i mdo chen po</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Surendrabodhi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>WA0RK0312</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>eft:surendrabodhi</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>D312</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>yangs pa’i grong khyer du ’jug pa’i mdo chen po</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>WA0RK0312</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>D438</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sgrol ma la phyag ’tshal nyi shu rtsa gcig gis bstod pa</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nyen Lotsawa Darma Drak</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>WA0RK0438</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>eft:nyen-lotsawa-darma-drak</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>D674</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>tshe dang ye shes dpag tu med pa’i mdo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Patsap Nyima Drak [?]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>WA0RK0668</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>eft:patsap-nyima-drak-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>D849</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>tshe dang ye shes dpag tu med pa’i mdo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Patsap Nyima Drak [?]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>WA0RK0668</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>eft:patsap-nyima-drak-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>D830</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ye shes rngam pa glog gi 'khor lo/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>vajrvisramitra</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>WA0RK0824</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>eft:vajrvisramitra</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>D830</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ye shes rngam pa glog gi 'khor lo/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>vairocanaraksita</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>WA0RK0824</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>eft:vairocanaraksita</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/discrepancies.xlsx
+++ b/discrepancies.xlsx
@@ -22976,7 +22976,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8228</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -23021,7 +23021,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">

--- a/discrepancies.xlsx
+++ b/discrepancies.xlsx
@@ -1547,7 +1547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C617"/>
+  <dimension ref="A1:C634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,11 +1573,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>toh7</t>
+          <t>toh1-1</t>
         </is>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>toh7a</t>
+          <t>toh1-2</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>toh8-1</t>
+          <t>toh1-3</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>toh8-2</t>
+          <t>toh1-4</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>toh10</t>
+          <t>toh1-5</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -1638,11 +1638,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>toh15</t>
+          <t>toh1-6</t>
         </is>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>toh16</t>
+          <t>toh1-7</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>toh17</t>
+          <t>toh1-8</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>toh489</t>
+          <t>toh1-9</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>toh18</t>
+          <t>toh1-10</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>toh19</t>
+          <t>toh1-11</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>toh554</t>
+          <t>toh1-12</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>toh20</t>
+          <t>toh1-13</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>toh491</t>
+          <t>toh1-14</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>toh22</t>
+          <t>toh1-15</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>toh530</t>
+          <t>toh1-16</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>toh23</t>
+          <t>toh1-17</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>toh24</t>
+          <t>toh7</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>toh25</t>
+          <t>toh7a</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>toh553</t>
+          <t>toh8-1</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>toh26</t>
+          <t>toh8-2</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>toh27</t>
+          <t>toh10</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>toh28</t>
+          <t>toh15</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>toh29</t>
+          <t>toh16</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>toh30</t>
+          <t>toh17</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>toh40</t>
+          <t>toh489</t>
         </is>
       </c>
       <c r="C27" t="b">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>toh41</t>
+          <t>toh18</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>toh42</t>
+          <t>toh19</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>toh44-1</t>
+          <t>toh554</t>
         </is>
       </c>
       <c r="C30" t="b">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>toh44-2</t>
+          <t>toh20</t>
         </is>
       </c>
       <c r="C31" t="b">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>toh44-3</t>
+          <t>toh491</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>toh44-4</t>
+          <t>toh22</t>
         </is>
       </c>
       <c r="C33" t="b">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>toh44-5</t>
+          <t>toh530</t>
         </is>
       </c>
       <c r="C34" t="b">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>toh44-6</t>
+          <t>toh23</t>
         </is>
       </c>
       <c r="C35" t="b">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>toh44-7</t>
+          <t>toh24</t>
         </is>
       </c>
       <c r="C36" t="b">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>toh44-8</t>
+          <t>toh25</t>
         </is>
       </c>
       <c r="C37" t="b">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>toh44-9</t>
+          <t>toh553</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>toh44-10</t>
+          <t>toh26</t>
         </is>
       </c>
       <c r="C39" t="b">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>toh44-11</t>
+          <t>toh27</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>toh44-12</t>
+          <t>toh28</t>
         </is>
       </c>
       <c r="C41" t="b">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>toh44-13</t>
+          <t>toh29</t>
         </is>
       </c>
       <c r="C42" t="b">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>toh44-14</t>
+          <t>toh30</t>
         </is>
       </c>
       <c r="C43" t="b">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>toh44-15</t>
+          <t>toh40</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>toh44-16</t>
+          <t>toh41</t>
         </is>
       </c>
       <c r="C45" t="b">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>toh44-17</t>
+          <t>toh42</t>
         </is>
       </c>
       <c r="C46" t="b">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>toh44-18</t>
+          <t>toh44-1</t>
         </is>
       </c>
       <c r="C47" t="b">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>toh44-19</t>
+          <t>toh44-2</t>
         </is>
       </c>
       <c r="C48" t="b">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>toh44-20</t>
+          <t>toh44-3</t>
         </is>
       </c>
       <c r="C49" t="b">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>toh44-21</t>
+          <t>toh44-4</t>
         </is>
       </c>
       <c r="C50" t="b">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>toh44-22</t>
+          <t>toh44-5</t>
         </is>
       </c>
       <c r="C51" t="b">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>toh44-23</t>
+          <t>toh44-6</t>
         </is>
       </c>
       <c r="C52" t="b">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>toh44-24</t>
+          <t>toh44-7</t>
         </is>
       </c>
       <c r="C53" t="b">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>toh44-25</t>
+          <t>toh44-8</t>
         </is>
       </c>
       <c r="C54" t="b">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>toh44-26</t>
+          <t>toh44-9</t>
         </is>
       </c>
       <c r="C55" t="b">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>toh44-27</t>
+          <t>toh44-10</t>
         </is>
       </c>
       <c r="C56" t="b">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>toh44-28</t>
+          <t>toh44-11</t>
         </is>
       </c>
       <c r="C57" t="b">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>toh44-29</t>
+          <t>toh44-12</t>
         </is>
       </c>
       <c r="C58" t="b">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>toh44-30</t>
+          <t>toh44-13</t>
         </is>
       </c>
       <c r="C59" t="b">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>toh44-31</t>
+          <t>toh44-14</t>
         </is>
       </c>
       <c r="C60" t="b">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>toh44-32</t>
+          <t>toh44-15</t>
         </is>
       </c>
       <c r="C61" t="b">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>toh44-33</t>
+          <t>toh44-16</t>
         </is>
       </c>
       <c r="C62" t="b">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>toh44-34</t>
+          <t>toh44-17</t>
         </is>
       </c>
       <c r="C63" t="b">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>toh44-35</t>
+          <t>toh44-18</t>
         </is>
       </c>
       <c r="C64" t="b">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>toh44-36</t>
+          <t>toh44-19</t>
         </is>
       </c>
       <c r="C65" t="b">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>toh44-37</t>
+          <t>toh44-20</t>
         </is>
       </c>
       <c r="C66" t="b">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>toh44-38</t>
+          <t>toh44-21</t>
         </is>
       </c>
       <c r="C67" t="b">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>toh44-39</t>
+          <t>toh44-22</t>
         </is>
       </c>
       <c r="C68" t="b">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>toh44-40</t>
+          <t>toh44-23</t>
         </is>
       </c>
       <c r="C69" t="b">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>toh44-41</t>
+          <t>toh44-24</t>
         </is>
       </c>
       <c r="C70" t="b">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>toh44-42</t>
+          <t>toh44-25</t>
         </is>
       </c>
       <c r="C71" t="b">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>toh44-43</t>
+          <t>toh44-26</t>
         </is>
       </c>
       <c r="C72" t="b">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>toh44-44</t>
+          <t>toh44-27</t>
         </is>
       </c>
       <c r="C73" t="b">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>toh44-45</t>
+          <t>toh44-28</t>
         </is>
       </c>
       <c r="C74" t="b">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>toh44-45a</t>
+          <t>toh44-29</t>
         </is>
       </c>
       <c r="C75" t="b">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>toh1095</t>
+          <t>toh44-30</t>
         </is>
       </c>
       <c r="C76" t="b">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>toh48</t>
+          <t>toh44-31</t>
         </is>
       </c>
       <c r="C77" t="b">
@@ -2561,11 +2561,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>toh51</t>
+          <t>toh44-32</t>
         </is>
       </c>
       <c r="C78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>toh55</t>
+          <t>toh44-33</t>
         </is>
       </c>
       <c r="C79" t="b">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>toh57</t>
+          <t>toh44-34</t>
         </is>
       </c>
       <c r="C80" t="b">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>toh58</t>
+          <t>toh44-35</t>
         </is>
       </c>
       <c r="C81" t="b">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>toh61</t>
+          <t>toh44-36</t>
         </is>
       </c>
       <c r="C82" t="b">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>toh64</t>
+          <t>toh44-37</t>
         </is>
       </c>
       <c r="C83" t="b">
@@ -2639,11 +2639,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>toh84</t>
+          <t>toh44-38</t>
         </is>
       </c>
       <c r="C84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>toh106</t>
+          <t>toh44-39</t>
         </is>
       </c>
       <c r="C85" t="b">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>toh110</t>
+          <t>toh44-40</t>
         </is>
       </c>
       <c r="C86" t="b">
@@ -2678,11 +2678,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>toh119</t>
+          <t>toh44-41</t>
         </is>
       </c>
       <c r="C87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>toh122</t>
+          <t>toh44-42</t>
         </is>
       </c>
       <c r="C88" t="b">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>toh123</t>
+          <t>toh44-43</t>
         </is>
       </c>
       <c r="C89" t="b">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>toh125</t>
+          <t>toh44-44</t>
         </is>
       </c>
       <c r="C90" t="b">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>toh135</t>
+          <t>toh44-45</t>
         </is>
       </c>
       <c r="C91" t="b">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>toh137</t>
+          <t>toh44-45a</t>
         </is>
       </c>
       <c r="C92" t="b">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>toh140</t>
+          <t>toh1095</t>
         </is>
       </c>
       <c r="C93" t="b">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>toh525</t>
+          <t>toh48</t>
         </is>
       </c>
       <c r="C94" t="b">
@@ -2782,11 +2782,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>toh141</t>
+          <t>toh51</t>
         </is>
       </c>
       <c r="C95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>toh526</t>
+          <t>toh55</t>
         </is>
       </c>
       <c r="C96" t="b">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>toh916</t>
+          <t>toh57</t>
         </is>
       </c>
       <c r="C97" t="b">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>toh143</t>
+          <t>toh58</t>
         </is>
       </c>
       <c r="C98" t="b">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>toh611</t>
+          <t>toh61</t>
         </is>
       </c>
       <c r="C99" t="b">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>toh918</t>
+          <t>toh64</t>
         </is>
       </c>
       <c r="C100" t="b">
@@ -2860,11 +2860,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>toh149</t>
+          <t>toh84</t>
         </is>
       </c>
       <c r="C101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>toh168</t>
+          <t>toh106</t>
         </is>
       </c>
       <c r="C102" t="b">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>toh172</t>
+          <t>toh110</t>
         </is>
       </c>
       <c r="C103" t="b">
@@ -2899,11 +2899,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>toh174</t>
+          <t>toh119</t>
         </is>
       </c>
       <c r="C104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>toh186</t>
+          <t>toh122</t>
         </is>
       </c>
       <c r="C105" t="b">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>toh187</t>
+          <t>toh123</t>
         </is>
       </c>
       <c r="C106" t="b">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>toh192</t>
+          <t>toh125</t>
         </is>
       </c>
       <c r="C107" t="b">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>toh193</t>
+          <t>toh135</t>
         </is>
       </c>
       <c r="C108" t="b">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>toh739</t>
+          <t>toh137</t>
         </is>
       </c>
       <c r="C109" t="b">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>toh194</t>
+          <t>toh140</t>
         </is>
       </c>
       <c r="C110" t="b">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>toh206</t>
+          <t>toh525</t>
         </is>
       </c>
       <c r="C111" t="b">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>toh207</t>
+          <t>toh141</t>
         </is>
       </c>
       <c r="C112" t="b">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>toh210</t>
+          <t>toh526</t>
         </is>
       </c>
       <c r="C113" t="b">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>toh211</t>
+          <t>toh916</t>
         </is>
       </c>
       <c r="C114" t="b">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>toh520</t>
+          <t>toh143</t>
         </is>
       </c>
       <c r="C115" t="b">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>toh980</t>
+          <t>toh611</t>
         </is>
       </c>
       <c r="C116" t="b">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>toh216</t>
+          <t>toh918</t>
         </is>
       </c>
       <c r="C117" t="b">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>toh236</t>
+          <t>toh149</t>
         </is>
       </c>
       <c r="C118" t="b">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>toh237</t>
+          <t>toh168</t>
         </is>
       </c>
       <c r="C119" t="b">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>toh241</t>
+          <t>toh172</t>
         </is>
       </c>
       <c r="C120" t="b">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>toh243</t>
+          <t>toh174</t>
         </is>
       </c>
       <c r="C121" t="b">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>toh250</t>
+          <t>toh186</t>
         </is>
       </c>
       <c r="C122" t="b">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>toh251</t>
+          <t>toh187</t>
         </is>
       </c>
       <c r="C123" t="b">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>toh252</t>
+          <t>toh192</t>
         </is>
       </c>
       <c r="C124" t="b">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>toh254</t>
+          <t>toh193</t>
         </is>
       </c>
       <c r="C125" t="b">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>toh255</t>
+          <t>toh739</t>
         </is>
       </c>
       <c r="C126" t="b">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>toh256</t>
+          <t>toh194</t>
         </is>
       </c>
       <c r="C127" t="b">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>toh261</t>
+          <t>toh206</t>
         </is>
       </c>
       <c r="C128" t="b">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>toh262</t>
+          <t>toh207</t>
         </is>
       </c>
       <c r="C129" t="b">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>toh263</t>
+          <t>toh210</t>
         </is>
       </c>
       <c r="C130" t="b">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>toh264</t>
+          <t>toh211</t>
         </is>
       </c>
       <c r="C131" t="b">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>toh265</t>
+          <t>toh520</t>
         </is>
       </c>
       <c r="C132" t="b">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>toh266</t>
+          <t>toh980</t>
         </is>
       </c>
       <c r="C133" t="b">
@@ -3289,11 +3289,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>toh267</t>
+          <t>toh216</t>
         </is>
       </c>
       <c r="C134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>toh268</t>
+          <t>toh236</t>
         </is>
       </c>
       <c r="C135" t="b">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>toh270</t>
+          <t>toh237</t>
         </is>
       </c>
       <c r="C136" t="b">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>toh512</t>
+          <t>toh241</t>
         </is>
       </c>
       <c r="C137" t="b">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>toh852</t>
+          <t>toh243</t>
         </is>
       </c>
       <c r="C138" t="b">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>toh279</t>
+          <t>toh250</t>
         </is>
       </c>
       <c r="C139" t="b">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>toh280</t>
+          <t>toh251</t>
         </is>
       </c>
       <c r="C140" t="b">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>toh281</t>
+          <t>toh252</t>
         </is>
       </c>
       <c r="C141" t="b">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>toh282</t>
+          <t>toh254</t>
         </is>
       </c>
       <c r="C142" t="b">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>toh283</t>
+          <t>toh255</t>
         </is>
       </c>
       <c r="C143" t="b">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>toh284</t>
+          <t>toh256</t>
         </is>
       </c>
       <c r="C144" t="b">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>toh285</t>
+          <t>toh261</t>
         </is>
       </c>
       <c r="C145" t="b">
@@ -3445,11 +3445,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>toh287</t>
+          <t>toh262</t>
         </is>
       </c>
       <c r="C146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>toh296</t>
+          <t>toh263</t>
         </is>
       </c>
       <c r="C147" t="b">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>toh297</t>
+          <t>toh264</t>
         </is>
       </c>
       <c r="C148" t="b">
@@ -3484,11 +3484,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>toh300</t>
+          <t>toh265</t>
         </is>
       </c>
       <c r="C149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>toh302</t>
+          <t>toh266</t>
         </is>
       </c>
       <c r="C150" t="b">
@@ -3510,11 +3510,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>toh303</t>
+          <t>toh267</t>
         </is>
       </c>
       <c r="C151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>toh305</t>
+          <t>toh268</t>
         </is>
       </c>
       <c r="C152" t="b">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>toh308</t>
+          <t>toh270</t>
         </is>
       </c>
       <c r="C153" t="b">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>toh310</t>
+          <t>toh512</t>
         </is>
       </c>
       <c r="C154" t="b">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>toh311</t>
+          <t>toh852</t>
         </is>
       </c>
       <c r="C155" t="b">
@@ -3575,11 +3575,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>toh312</t>
+          <t>toh279</t>
         </is>
       </c>
       <c r="C156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>toh313</t>
+          <t>toh280</t>
         </is>
       </c>
       <c r="C157" t="b">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>toh314</t>
+          <t>toh281</t>
         </is>
       </c>
       <c r="C158" t="b">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>toh315</t>
+          <t>toh282</t>
         </is>
       </c>
       <c r="C159" t="b">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>toh316</t>
+          <t>toh283</t>
         </is>
       </c>
       <c r="C160" t="b">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>toh318</t>
+          <t>toh284</t>
         </is>
       </c>
       <c r="C161" t="b">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>toh321</t>
+          <t>toh285</t>
         </is>
       </c>
       <c r="C162" t="b">
@@ -3666,11 +3666,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>toh322</t>
+          <t>toh287</t>
         </is>
       </c>
       <c r="C163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>toh323</t>
+          <t>toh296</t>
         </is>
       </c>
       <c r="C164" t="b">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>toh324</t>
+          <t>toh297</t>
         </is>
       </c>
       <c r="C165" t="b">
@@ -3705,11 +3705,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>toh325</t>
+          <t>toh300</t>
         </is>
       </c>
       <c r="C166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>toh328</t>
+          <t>toh302</t>
         </is>
       </c>
       <c r="C167" t="b">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>toh329</t>
+          <t>toh303</t>
         </is>
       </c>
       <c r="C168" t="b">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>toh331</t>
+          <t>toh305</t>
         </is>
       </c>
       <c r="C169" t="b">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>toh335</t>
+          <t>toh308</t>
         </is>
       </c>
       <c r="C170" t="b">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>toh336</t>
+          <t>toh310</t>
         </is>
       </c>
       <c r="C171" t="b">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>toh337</t>
+          <t>toh311</t>
         </is>
       </c>
       <c r="C172" t="b">
@@ -3796,11 +3796,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>toh338</t>
+          <t>toh312</t>
         </is>
       </c>
       <c r="C173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>toh339</t>
+          <t>toh313</t>
         </is>
       </c>
       <c r="C174" t="b">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>toh340</t>
+          <t>toh314</t>
         </is>
       </c>
       <c r="C175" t="b">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>toh341</t>
+          <t>toh315</t>
         </is>
       </c>
       <c r="C176" t="b">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>toh342</t>
+          <t>toh316</t>
         </is>
       </c>
       <c r="C177" t="b">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>toh350</t>
+          <t>toh318</t>
         </is>
       </c>
       <c r="C178" t="b">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>toh352</t>
+          <t>toh321</t>
         </is>
       </c>
       <c r="C179" t="b">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>toh353</t>
+          <t>toh322</t>
         </is>
       </c>
       <c r="C180" t="b">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>toh355</t>
+          <t>toh323</t>
         </is>
       </c>
       <c r="C181" t="b">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>toh356</t>
+          <t>toh324</t>
         </is>
       </c>
       <c r="C182" t="b">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>toh357</t>
+          <t>toh325</t>
         </is>
       </c>
       <c r="C183" t="b">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>toh359</t>
+          <t>toh328</t>
         </is>
       </c>
       <c r="C184" t="b">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>toh366</t>
+          <t>toh329</t>
         </is>
       </c>
       <c r="C185" t="b">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>toh378</t>
+          <t>toh331</t>
         </is>
       </c>
       <c r="C186" t="b">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>toh417</t>
+          <t>toh335</t>
         </is>
       </c>
       <c r="C187" t="b">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>toh433</t>
+          <t>toh336</t>
         </is>
       </c>
       <c r="C188" t="b">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>toh434</t>
+          <t>toh337</t>
         </is>
       </c>
       <c r="C189" t="b">
@@ -4017,11 +4017,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>toh438</t>
+          <t>toh338</t>
         </is>
       </c>
       <c r="C190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>toh452</t>
+          <t>toh339</t>
         </is>
       </c>
       <c r="C191" t="b">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>toh456</t>
+          <t>toh340</t>
         </is>
       </c>
       <c r="C192" t="b">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>toh460a</t>
+          <t>toh341</t>
         </is>
       </c>
       <c r="C193" t="b">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>toh952</t>
+          <t>toh342</t>
         </is>
       </c>
       <c r="C194" t="b">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>toh469</t>
+          <t>toh350</t>
         </is>
       </c>
       <c r="C195" t="b">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>toh471</t>
+          <t>toh352</t>
         </is>
       </c>
       <c r="C196" t="b">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>toh505a</t>
+          <t>toh353</t>
         </is>
       </c>
       <c r="C197" t="b">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>toh508</t>
+          <t>toh355</t>
         </is>
       </c>
       <c r="C198" t="b">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>toh509</t>
+          <t>toh356</t>
         </is>
       </c>
       <c r="C199" t="b">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>toh920</t>
+          <t>toh357</t>
         </is>
       </c>
       <c r="C200" t="b">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>toh516</t>
+          <t>toh359</t>
         </is>
       </c>
       <c r="C201" t="b">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>toh886</t>
+          <t>toh366</t>
         </is>
       </c>
       <c r="C202" t="b">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>toh519</t>
+          <t>toh378</t>
         </is>
       </c>
       <c r="C203" t="b">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>toh979</t>
+          <t>toh417</t>
         </is>
       </c>
       <c r="C204" t="b">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>toh521</t>
+          <t>toh433</t>
         </is>
       </c>
       <c r="C205" t="b">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>toh981</t>
+          <t>toh434</t>
         </is>
       </c>
       <c r="C206" t="b">
@@ -4238,11 +4238,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>toh522</t>
+          <t>toh438</t>
         </is>
       </c>
       <c r="C207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>toh848</t>
+          <t>toh452</t>
         </is>
       </c>
       <c r="C208" t="b">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>toh524</t>
+          <t>toh456</t>
         </is>
       </c>
       <c r="C209" t="b">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>toh977</t>
+          <t>toh460a</t>
         </is>
       </c>
       <c r="C210" t="b">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>toh528</t>
+          <t>toh952</t>
         </is>
       </c>
       <c r="C211" t="b">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>toh858</t>
+          <t>toh469</t>
         </is>
       </c>
       <c r="C212" t="b">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>toh532</t>
+          <t>toh471</t>
         </is>
       </c>
       <c r="C213" t="b">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>toh873</t>
+          <t>toh505a</t>
         </is>
       </c>
       <c r="C214" t="b">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>toh533</t>
+          <t>toh508</t>
         </is>
       </c>
       <c r="C215" t="b">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>toh860</t>
+          <t>toh509</t>
         </is>
       </c>
       <c r="C216" t="b">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>toh534</t>
+          <t>toh920</t>
         </is>
       </c>
       <c r="C217" t="b">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>toh861</t>
+          <t>toh516</t>
         </is>
       </c>
       <c r="C218" t="b">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>toh535</t>
+          <t>toh886</t>
         </is>
       </c>
       <c r="C219" t="b">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>toh868</t>
+          <t>toh519</t>
         </is>
       </c>
       <c r="C220" t="b">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>toh536</t>
+          <t>toh979</t>
         </is>
       </c>
       <c r="C221" t="b">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>toh869</t>
+          <t>toh521</t>
         </is>
       </c>
       <c r="C222" t="b">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>toh537</t>
+          <t>toh981</t>
         </is>
       </c>
       <c r="C223" t="b">
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>toh870</t>
+          <t>toh522</t>
         </is>
       </c>
       <c r="C224" t="b">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>toh538</t>
+          <t>toh848</t>
         </is>
       </c>
       <c r="C225" t="b">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>toh1068</t>
+          <t>toh524</t>
         </is>
       </c>
       <c r="C226" t="b">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>toh539</t>
+          <t>toh977</t>
         </is>
       </c>
       <c r="C227" t="b">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>toh1069</t>
+          <t>toh528</t>
         </is>
       </c>
       <c r="C228" t="b">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>toh539a</t>
+          <t>toh858</t>
         </is>
       </c>
       <c r="C229" t="b">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>toh1070</t>
+          <t>toh532</t>
         </is>
       </c>
       <c r="C230" t="b">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>toh539b</t>
+          <t>toh873</t>
         </is>
       </c>
       <c r="C231" t="b">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>toh1071</t>
+          <t>toh533</t>
         </is>
       </c>
       <c r="C232" t="b">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>toh539c</t>
+          <t>toh860</t>
         </is>
       </c>
       <c r="C233" t="b">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>toh1072</t>
+          <t>toh534</t>
         </is>
       </c>
       <c r="C234" t="b">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>toh539d</t>
+          <t>toh861</t>
         </is>
       </c>
       <c r="C235" t="b">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>toh1073</t>
+          <t>toh535</t>
         </is>
       </c>
       <c r="C236" t="b">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>toh539e</t>
+          <t>toh868</t>
         </is>
       </c>
       <c r="C237" t="b">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>toh774</t>
+          <t>toh536</t>
         </is>
       </c>
       <c r="C238" t="b">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>toh1074</t>
+          <t>toh869</t>
         </is>
       </c>
       <c r="C239" t="b">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>toh539f</t>
+          <t>toh537</t>
         </is>
       </c>
       <c r="C240" t="b">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>toh866</t>
+          <t>toh870</t>
         </is>
       </c>
       <c r="C241" t="b">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>toh540</t>
+          <t>toh538</t>
         </is>
       </c>
       <c r="C242" t="b">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>toh1078</t>
+          <t>toh1068</t>
         </is>
       </c>
       <c r="C243" t="b">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>toh541</t>
+          <t>toh539</t>
         </is>
       </c>
       <c r="C244" t="b">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>toh931</t>
+          <t>toh1069</t>
         </is>
       </c>
       <c r="C245" t="b">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>toh546</t>
+          <t>toh539a</t>
         </is>
       </c>
       <c r="C246" t="b">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>toh893</t>
+          <t>toh1070</t>
         </is>
       </c>
       <c r="C247" t="b">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>toh547</t>
+          <t>toh539b</t>
         </is>
       </c>
       <c r="C248" t="b">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>toh548</t>
+          <t>toh1071</t>
         </is>
       </c>
       <c r="C249" t="b">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>toh894</t>
+          <t>toh539c</t>
         </is>
       </c>
       <c r="C250" t="b">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>toh549</t>
+          <t>toh1072</t>
         </is>
       </c>
       <c r="C251" t="b">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>toh895</t>
+          <t>toh539d</t>
         </is>
       </c>
       <c r="C252" t="b">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>toh550</t>
+          <t>toh1073</t>
         </is>
       </c>
       <c r="C253" t="b">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>toh896</t>
+          <t>toh539e</t>
         </is>
       </c>
       <c r="C254" t="b">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>toh551</t>
+          <t>toh774</t>
         </is>
       </c>
       <c r="C255" t="b">
@@ -4875,7 +4875,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>toh552</t>
+          <t>toh1074</t>
         </is>
       </c>
       <c r="C256" t="b">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>toh557</t>
+          <t>toh539f</t>
         </is>
       </c>
       <c r="C257" t="b">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>toh560</t>
+          <t>toh866</t>
         </is>
       </c>
       <c r="C258" t="b">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>toh565</t>
+          <t>toh540</t>
         </is>
       </c>
       <c r="C259" t="b">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>toh566</t>
+          <t>toh1078</t>
         </is>
       </c>
       <c r="C260" t="b">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>toh568</t>
+          <t>toh541</t>
         </is>
       </c>
       <c r="C261" t="b">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>toh1004</t>
+          <t>toh931</t>
         </is>
       </c>
       <c r="C262" t="b">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>toh571</t>
+          <t>toh546</t>
         </is>
       </c>
       <c r="C263" t="b">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>toh990</t>
+          <t>toh893</t>
         </is>
       </c>
       <c r="C264" t="b">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>toh572</t>
+          <t>toh547</t>
         </is>
       </c>
       <c r="C265" t="b">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>toh993</t>
+          <t>toh548</t>
         </is>
       </c>
       <c r="C266" t="b">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>toh573</t>
+          <t>toh894</t>
         </is>
       </c>
       <c r="C267" t="b">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>toh996</t>
+          <t>toh549</t>
         </is>
       </c>
       <c r="C268" t="b">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>toh575</t>
+          <t>toh895</t>
         </is>
       </c>
       <c r="C269" t="b">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>toh917</t>
+          <t>toh550</t>
         </is>
       </c>
       <c r="C270" t="b">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>toh576</t>
+          <t>toh896</t>
         </is>
       </c>
       <c r="C271" t="b">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>toh932</t>
+          <t>toh551</t>
         </is>
       </c>
       <c r="C272" t="b">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>toh577</t>
+          <t>toh552</t>
         </is>
       </c>
       <c r="C273" t="b">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>toh933</t>
+          <t>toh557</t>
         </is>
       </c>
       <c r="C274" t="b">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>toh578</t>
+          <t>toh560</t>
         </is>
       </c>
       <c r="C275" t="b">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>toh934</t>
+          <t>toh565</t>
         </is>
       </c>
       <c r="C276" t="b">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>toh579</t>
+          <t>toh566</t>
         </is>
       </c>
       <c r="C277" t="b">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>toh935</t>
+          <t>toh568</t>
         </is>
       </c>
       <c r="C278" t="b">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>toh580</t>
+          <t>toh1004</t>
         </is>
       </c>
       <c r="C279" t="b">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>toh936</t>
+          <t>toh571</t>
         </is>
       </c>
       <c r="C280" t="b">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>toh581</t>
+          <t>toh990</t>
         </is>
       </c>
       <c r="C281" t="b">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>toh937</t>
+          <t>toh572</t>
         </is>
       </c>
       <c r="C282" t="b">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>toh582</t>
+          <t>toh993</t>
         </is>
       </c>
       <c r="C283" t="b">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>toh938</t>
+          <t>toh573</t>
         </is>
       </c>
       <c r="C284" t="b">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>toh583</t>
+          <t>toh996</t>
         </is>
       </c>
       <c r="C285" t="b">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>toh939</t>
+          <t>toh575</t>
         </is>
       </c>
       <c r="C286" t="b">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>toh584</t>
+          <t>toh917</t>
         </is>
       </c>
       <c r="C287" t="b">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>toh940</t>
+          <t>toh576</t>
         </is>
       </c>
       <c r="C288" t="b">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>toh585</t>
+          <t>toh932</t>
         </is>
       </c>
       <c r="C289" t="b">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>toh941</t>
+          <t>toh577</t>
         </is>
       </c>
       <c r="C290" t="b">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>toh586</t>
+          <t>toh933</t>
         </is>
       </c>
       <c r="C291" t="b">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>toh942</t>
+          <t>toh578</t>
         </is>
       </c>
       <c r="C292" t="b">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>toh587</t>
+          <t>toh934</t>
         </is>
       </c>
       <c r="C293" t="b">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>toh943</t>
+          <t>toh579</t>
         </is>
       </c>
       <c r="C294" t="b">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>toh588</t>
+          <t>toh935</t>
         </is>
       </c>
       <c r="C295" t="b">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>toh944</t>
+          <t>toh580</t>
         </is>
       </c>
       <c r="C296" t="b">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>toh589</t>
+          <t>toh936</t>
         </is>
       </c>
       <c r="C297" t="b">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>toh945</t>
+          <t>toh581</t>
         </is>
       </c>
       <c r="C298" t="b">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>toh590</t>
+          <t>toh937</t>
         </is>
       </c>
       <c r="C299" t="b">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>toh985</t>
+          <t>toh582</t>
         </is>
       </c>
       <c r="C300" t="b">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>toh592</t>
+          <t>toh938</t>
         </is>
       </c>
       <c r="C301" t="b">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>toh986</t>
+          <t>toh583</t>
         </is>
       </c>
       <c r="C302" t="b">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>toh593</t>
+          <t>toh939</t>
         </is>
       </c>
       <c r="C303" t="b">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>toh595</t>
+          <t>toh584</t>
         </is>
       </c>
       <c r="C304" t="b">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>toh596</t>
+          <t>toh940</t>
         </is>
       </c>
       <c r="C305" t="b">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>toh600</t>
+          <t>toh585</t>
         </is>
       </c>
       <c r="C306" t="b">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>toh962</t>
+          <t>toh941</t>
         </is>
       </c>
       <c r="C307" t="b">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>toh601</t>
+          <t>toh586</t>
         </is>
       </c>
       <c r="C308" t="b">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>toh884</t>
+          <t>toh942</t>
         </is>
       </c>
       <c r="C309" t="b">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>toh602</t>
+          <t>toh587</t>
         </is>
       </c>
       <c r="C310" t="b">
@@ -5590,7 +5590,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>toh921</t>
+          <t>toh943</t>
         </is>
       </c>
       <c r="C311" t="b">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>toh603</t>
+          <t>toh588</t>
         </is>
       </c>
       <c r="C312" t="b">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>toh913</t>
+          <t>toh944</t>
         </is>
       </c>
       <c r="C313" t="b">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>toh604</t>
+          <t>toh589</t>
         </is>
       </c>
       <c r="C314" t="b">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>toh605</t>
+          <t>toh945</t>
         </is>
       </c>
       <c r="C315" t="b">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>toh607</t>
+          <t>toh590</t>
         </is>
       </c>
       <c r="C316" t="b">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>toh613</t>
+          <t>toh985</t>
         </is>
       </c>
       <c r="C317" t="b">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>toh989</t>
+          <t>toh592</t>
         </is>
       </c>
       <c r="C318" t="b">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>toh618</t>
+          <t>toh986</t>
         </is>
       </c>
       <c r="C319" t="b">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>toh967</t>
+          <t>toh593</t>
         </is>
       </c>
       <c r="C320" t="b">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>toh619</t>
+          <t>toh595</t>
         </is>
       </c>
       <c r="C321" t="b">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>toh1008</t>
+          <t>toh596</t>
         </is>
       </c>
       <c r="C322" t="b">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>toh620</t>
+          <t>toh600</t>
         </is>
       </c>
       <c r="C323" t="b">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>toh1018</t>
+          <t>toh962</t>
         </is>
       </c>
       <c r="C324" t="b">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>toh622</t>
+          <t>toh601</t>
         </is>
       </c>
       <c r="C325" t="b">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>toh1014</t>
+          <t>toh884</t>
         </is>
       </c>
       <c r="C326" t="b">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>toh623</t>
+          <t>toh602</t>
         </is>
       </c>
       <c r="C327" t="b">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>toh1015</t>
+          <t>toh921</t>
         </is>
       </c>
       <c r="C328" t="b">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>toh624</t>
+          <t>toh603</t>
         </is>
       </c>
       <c r="C329" t="b">
@@ -5837,7 +5837,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>toh1017</t>
+          <t>toh913</t>
         </is>
       </c>
       <c r="C330" t="b">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>toh626</t>
+          <t>toh604</t>
         </is>
       </c>
       <c r="C331" t="b">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>toh1019</t>
+          <t>toh605</t>
         </is>
       </c>
       <c r="C332" t="b">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>toh627</t>
+          <t>toh607</t>
         </is>
       </c>
       <c r="C333" t="b">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>toh1052</t>
+          <t>toh613</t>
         </is>
       </c>
       <c r="C334" t="b">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>toh629</t>
+          <t>toh989</t>
         </is>
       </c>
       <c r="C335" t="b">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>toh961</t>
+          <t>toh618</t>
         </is>
       </c>
       <c r="C336" t="b">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>toh630</t>
+          <t>toh967</t>
         </is>
       </c>
       <c r="C337" t="b">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>toh1010</t>
+          <t>toh619</t>
         </is>
       </c>
       <c r="C338" t="b">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>toh632</t>
+          <t>toh1008</t>
         </is>
       </c>
       <c r="C339" t="b">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>toh634</t>
+          <t>toh620</t>
         </is>
       </c>
       <c r="C340" t="b">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>toh874</t>
+          <t>toh1018</t>
         </is>
       </c>
       <c r="C341" t="b">
@@ -5993,7 +5993,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>toh635</t>
+          <t>toh622</t>
         </is>
       </c>
       <c r="C342" t="b">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>toh875</t>
+          <t>toh1014</t>
         </is>
       </c>
       <c r="C343" t="b">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>toh636</t>
+          <t>toh623</t>
         </is>
       </c>
       <c r="C344" t="b">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>toh876</t>
+          <t>toh1015</t>
         </is>
       </c>
       <c r="C345" t="b">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>toh637</t>
+          <t>toh624</t>
         </is>
       </c>
       <c r="C346" t="b">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>toh877</t>
+          <t>toh1017</t>
         </is>
       </c>
       <c r="C347" t="b">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>toh638</t>
+          <t>toh626</t>
         </is>
       </c>
       <c r="C348" t="b">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>toh878</t>
+          <t>toh1019</t>
         </is>
       </c>
       <c r="C349" t="b">
@@ -6097,7 +6097,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>toh639</t>
+          <t>toh627</t>
         </is>
       </c>
       <c r="C350" t="b">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>toh879</t>
+          <t>toh1052</t>
         </is>
       </c>
       <c r="C351" t="b">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>toh640</t>
+          <t>toh629</t>
         </is>
       </c>
       <c r="C352" t="b">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>toh880</t>
+          <t>toh961</t>
         </is>
       </c>
       <c r="C353" t="b">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>toh641</t>
+          <t>toh630</t>
         </is>
       </c>
       <c r="C354" t="b">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>toh881</t>
+          <t>toh1010</t>
         </is>
       </c>
       <c r="C355" t="b">
@@ -6175,7 +6175,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>toh642</t>
+          <t>toh632</t>
         </is>
       </c>
       <c r="C356" t="b">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>toh645</t>
+          <t>toh634</t>
         </is>
       </c>
       <c r="C357" t="b">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>toh646</t>
+          <t>toh874</t>
         </is>
       </c>
       <c r="C358" t="b">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>toh1080</t>
+          <t>toh635</t>
         </is>
       </c>
       <c r="C359" t="b">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>toh647</t>
+          <t>toh875</t>
         </is>
       </c>
       <c r="C360" t="b">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>toh1079</t>
+          <t>toh636</t>
         </is>
       </c>
       <c r="C361" t="b">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>toh649</t>
+          <t>toh876</t>
         </is>
       </c>
       <c r="C362" t="b">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>toh1077</t>
+          <t>toh637</t>
         </is>
       </c>
       <c r="C363" t="b">
@@ -6279,7 +6279,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>toh651</t>
+          <t>toh877</t>
         </is>
       </c>
       <c r="C364" t="b">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>toh1040</t>
+          <t>toh638</t>
         </is>
       </c>
       <c r="C365" t="b">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>toh652</t>
+          <t>toh878</t>
         </is>
       </c>
       <c r="C366" t="b">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>toh863</t>
+          <t>toh639</t>
         </is>
       </c>
       <c r="C367" t="b">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>toh655</t>
+          <t>toh879</t>
         </is>
       </c>
       <c r="C368" t="b">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>toh959</t>
+          <t>toh640</t>
         </is>
       </c>
       <c r="C369" t="b">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>toh659</t>
+          <t>toh880</t>
         </is>
       </c>
       <c r="C370" t="b">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>toh1065</t>
+          <t>toh641</t>
         </is>
       </c>
       <c r="C371" t="b">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>toh661</t>
+          <t>toh881</t>
         </is>
       </c>
       <c r="C372" t="b">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>toh998</t>
+          <t>toh642</t>
         </is>
       </c>
       <c r="C373" t="b">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>toh662</t>
+          <t>toh645</t>
         </is>
       </c>
       <c r="C374" t="b">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>toh1007</t>
+          <t>toh646</t>
         </is>
       </c>
       <c r="C375" t="b">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>toh663</t>
+          <t>toh1080</t>
         </is>
       </c>
       <c r="C376" t="b">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>toh664</t>
+          <t>toh647</t>
         </is>
       </c>
       <c r="C377" t="b">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>toh665</t>
+          <t>toh1079</t>
         </is>
       </c>
       <c r="C378" t="b">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>toh1084</t>
+          <t>toh649</t>
         </is>
       </c>
       <c r="C379" t="b">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>toh668</t>
+          <t>toh1077</t>
         </is>
       </c>
       <c r="C380" t="b">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>toh1085</t>
+          <t>toh651</t>
         </is>
       </c>
       <c r="C381" t="b">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>toh670</t>
+          <t>toh1040</t>
         </is>
       </c>
       <c r="C382" t="b">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>toh1087</t>
+          <t>toh652</t>
         </is>
       </c>
       <c r="C383" t="b">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>toh671</t>
+          <t>toh863</t>
         </is>
       </c>
       <c r="C384" t="b">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>toh672</t>
+          <t>toh655</t>
         </is>
       </c>
       <c r="C385" t="b">
@@ -6565,7 +6565,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>toh1088</t>
+          <t>toh959</t>
         </is>
       </c>
       <c r="C386" t="b">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>toh673</t>
+          <t>toh659</t>
         </is>
       </c>
       <c r="C387" t="b">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>toh1089</t>
+          <t>toh1065</t>
         </is>
       </c>
       <c r="C388" t="b">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>toh673a</t>
+          <t>toh661</t>
         </is>
       </c>
       <c r="C389" t="b">
@@ -6617,11 +6617,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>toh674</t>
+          <t>toh998</t>
         </is>
       </c>
       <c r="C390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -6630,11 +6630,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>toh849</t>
+          <t>toh662</t>
         </is>
       </c>
       <c r="C391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -6643,7 +6643,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>toh675</t>
+          <t>toh1007</t>
         </is>
       </c>
       <c r="C392" t="b">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>toh677</t>
+          <t>toh663</t>
         </is>
       </c>
       <c r="C393" t="b">
@@ -6669,7 +6669,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>toh864</t>
+          <t>toh664</t>
         </is>
       </c>
       <c r="C394" t="b">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>toh678</t>
+          <t>toh665</t>
         </is>
       </c>
       <c r="C395" t="b">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>toh867</t>
+          <t>toh1084</t>
         </is>
       </c>
       <c r="C396" t="b">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>toh679</t>
+          <t>toh668</t>
         </is>
       </c>
       <c r="C397" t="b">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>toh851</t>
+          <t>toh1085</t>
         </is>
       </c>
       <c r="C398" t="b">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>toh680</t>
+          <t>toh670</t>
         </is>
       </c>
       <c r="C399" t="b">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>toh889</t>
+          <t>toh1087</t>
         </is>
       </c>
       <c r="C400" t="b">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>toh683</t>
+          <t>toh671</t>
         </is>
       </c>
       <c r="C401" t="b">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>toh688</t>
+          <t>toh672</t>
         </is>
       </c>
       <c r="C402" t="b">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>toh902</t>
+          <t>toh1088</t>
         </is>
       </c>
       <c r="C403" t="b">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>toh690</t>
+          <t>toh673</t>
         </is>
       </c>
       <c r="C404" t="b">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>toh695</t>
+          <t>toh1089</t>
         </is>
       </c>
       <c r="C405" t="b">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>toh911</t>
+          <t>toh673a</t>
         </is>
       </c>
       <c r="C406" t="b">
@@ -6838,11 +6838,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>toh696</t>
+          <t>toh674</t>
         </is>
       </c>
       <c r="C407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -6851,11 +6851,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>toh910</t>
+          <t>toh849</t>
         </is>
       </c>
       <c r="C408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>toh697</t>
+          <t>toh675</t>
         </is>
       </c>
       <c r="C409" t="b">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>toh905</t>
+          <t>toh677</t>
         </is>
       </c>
       <c r="C410" t="b">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>toh698</t>
+          <t>toh864</t>
         </is>
       </c>
       <c r="C411" t="b">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>toh908</t>
+          <t>toh678</t>
         </is>
       </c>
       <c r="C412" t="b">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>toh705</t>
+          <t>toh867</t>
         </is>
       </c>
       <c r="C413" t="b">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>toh900</t>
+          <t>toh679</t>
         </is>
       </c>
       <c r="C414" t="b">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>toh706</t>
+          <t>toh851</t>
         </is>
       </c>
       <c r="C415" t="b">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>toh709</t>
+          <t>toh680</t>
         </is>
       </c>
       <c r="C416" t="b">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>toh978</t>
+          <t>toh889</t>
         </is>
       </c>
       <c r="C417" t="b">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>toh710</t>
+          <t>toh683</t>
         </is>
       </c>
       <c r="C418" t="b">
@@ -6994,7 +6994,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>toh930</t>
+          <t>toh688</t>
         </is>
       </c>
       <c r="C419" t="b">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>toh711</t>
+          <t>toh902</t>
         </is>
       </c>
       <c r="C420" t="b">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>toh1042</t>
+          <t>toh690</t>
         </is>
       </c>
       <c r="C421" t="b">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>toh712</t>
+          <t>toh695</t>
         </is>
       </c>
       <c r="C422" t="b">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>toh1043</t>
+          <t>toh911</t>
         </is>
       </c>
       <c r="C423" t="b">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>toh713</t>
+          <t>toh696</t>
         </is>
       </c>
       <c r="C424" t="b">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>toh1044</t>
+          <t>toh910</t>
         </is>
       </c>
       <c r="C425" t="b">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>toh714</t>
+          <t>toh697</t>
         </is>
       </c>
       <c r="C426" t="b">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>toh1045</t>
+          <t>toh905</t>
         </is>
       </c>
       <c r="C427" t="b">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>toh715</t>
+          <t>toh698</t>
         </is>
       </c>
       <c r="C428" t="b">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>toh1046</t>
+          <t>toh908</t>
         </is>
       </c>
       <c r="C429" t="b">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>toh716</t>
+          <t>toh705</t>
         </is>
       </c>
       <c r="C430" t="b">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>toh1047</t>
+          <t>toh900</t>
         </is>
       </c>
       <c r="C431" t="b">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>toh717</t>
+          <t>toh706</t>
         </is>
       </c>
       <c r="C432" t="b">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>toh1048</t>
+          <t>toh709</t>
         </is>
       </c>
       <c r="C433" t="b">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>toh720</t>
+          <t>toh978</t>
         </is>
       </c>
       <c r="C434" t="b">
@@ -7202,7 +7202,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>toh1041</t>
+          <t>toh710</t>
         </is>
       </c>
       <c r="C435" t="b">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>toh722</t>
+          <t>toh930</t>
         </is>
       </c>
       <c r="C436" t="b">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>toh812</t>
+          <t>toh711</t>
         </is>
       </c>
       <c r="C437" t="b">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>toh1094</t>
+          <t>toh1042</t>
         </is>
       </c>
       <c r="C438" t="b">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>toh727</t>
+          <t>toh712</t>
         </is>
       </c>
       <c r="C439" t="b">
@@ -7267,7 +7267,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>toh1000</t>
+          <t>toh1043</t>
         </is>
       </c>
       <c r="C440" t="b">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>toh728</t>
+          <t>toh713</t>
         </is>
       </c>
       <c r="C441" t="b">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>toh729</t>
+          <t>toh1044</t>
         </is>
       </c>
       <c r="C442" t="b">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>toh1001</t>
+          <t>toh714</t>
         </is>
       </c>
       <c r="C443" t="b">
@@ -7319,7 +7319,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>toh730</t>
+          <t>toh1045</t>
         </is>
       </c>
       <c r="C444" t="b">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>toh1002</t>
+          <t>toh715</t>
         </is>
       </c>
       <c r="C445" t="b">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>toh731</t>
+          <t>toh1046</t>
         </is>
       </c>
       <c r="C446" t="b">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>toh732</t>
+          <t>toh716</t>
         </is>
       </c>
       <c r="C447" t="b">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>toh992</t>
+          <t>toh1047</t>
         </is>
       </c>
       <c r="C448" t="b">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>toh733</t>
+          <t>toh717</t>
         </is>
       </c>
       <c r="C449" t="b">
@@ -7397,7 +7397,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>toh906</t>
+          <t>toh1048</t>
         </is>
       </c>
       <c r="C450" t="b">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>toh734</t>
+          <t>toh720</t>
         </is>
       </c>
       <c r="C451" t="b">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>toh968</t>
+          <t>toh1041</t>
         </is>
       </c>
       <c r="C452" t="b">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>toh735</t>
+          <t>toh722</t>
         </is>
       </c>
       <c r="C453" t="b">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>toh994</t>
+          <t>toh812</t>
         </is>
       </c>
       <c r="C454" t="b">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>toh736</t>
+          <t>toh1094</t>
         </is>
       </c>
       <c r="C455" t="b">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>toh995</t>
+          <t>toh727</t>
         </is>
       </c>
       <c r="C456" t="b">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>toh737</t>
+          <t>toh1000</t>
         </is>
       </c>
       <c r="C457" t="b">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>toh960</t>
+          <t>toh728</t>
         </is>
       </c>
       <c r="C458" t="b">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>toh738</t>
+          <t>toh729</t>
         </is>
       </c>
       <c r="C459" t="b">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>toh1092</t>
+          <t>toh1001</t>
         </is>
       </c>
       <c r="C460" t="b">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>toh742</t>
+          <t>toh730</t>
         </is>
       </c>
       <c r="C461" t="b">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>toh1036</t>
+          <t>toh1002</t>
         </is>
       </c>
       <c r="C462" t="b">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>toh743</t>
+          <t>toh731</t>
         </is>
       </c>
       <c r="C463" t="b">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>toh1009</t>
+          <t>toh732</t>
         </is>
       </c>
       <c r="C464" t="b">
@@ -7592,7 +7592,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>toh744a</t>
+          <t>toh992</t>
         </is>
       </c>
       <c r="C465" t="b">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>toh749</t>
+          <t>toh733</t>
         </is>
       </c>
       <c r="C466" t="b">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>toh950</t>
+          <t>toh906</t>
         </is>
       </c>
       <c r="C467" t="b">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>toh753</t>
+          <t>toh734</t>
         </is>
       </c>
       <c r="C468" t="b">
@@ -7644,7 +7644,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>toh955</t>
+          <t>toh968</t>
         </is>
       </c>
       <c r="C469" t="b">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>toh755</t>
+          <t>toh735</t>
         </is>
       </c>
       <c r="C470" t="b">
@@ -7670,7 +7670,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>toh957</t>
+          <t>toh994</t>
         </is>
       </c>
       <c r="C471" t="b">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>toh756</t>
+          <t>toh736</t>
         </is>
       </c>
       <c r="C472" t="b">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>toh759</t>
+          <t>toh995</t>
         </is>
       </c>
       <c r="C473" t="b">
@@ -7709,7 +7709,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>toh964</t>
+          <t>toh737</t>
         </is>
       </c>
       <c r="C474" t="b">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>toh760</t>
+          <t>toh960</t>
         </is>
       </c>
       <c r="C475" t="b">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>toh965</t>
+          <t>toh738</t>
         </is>
       </c>
       <c r="C476" t="b">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>toh761</t>
+          <t>toh1092</t>
         </is>
       </c>
       <c r="C477" t="b">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>toh762</t>
+          <t>toh742</t>
         </is>
       </c>
       <c r="C478" t="b">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>toh763</t>
+          <t>toh1036</t>
         </is>
       </c>
       <c r="C479" t="b">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>toh966</t>
+          <t>toh743</t>
         </is>
       </c>
       <c r="C480" t="b">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>toh768</t>
+          <t>toh1009</t>
         </is>
       </c>
       <c r="C481" t="b">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>toh973</t>
+          <t>toh744a</t>
         </is>
       </c>
       <c r="C482" t="b">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>toh769</t>
+          <t>toh749</t>
         </is>
       </c>
       <c r="C483" t="b">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>toh971</t>
+          <t>toh950</t>
         </is>
       </c>
       <c r="C484" t="b">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>toh771</t>
+          <t>toh753</t>
         </is>
       </c>
       <c r="C485" t="b">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>toh972</t>
+          <t>toh955</t>
         </is>
       </c>
       <c r="C486" t="b">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>toh775</t>
+          <t>toh755</t>
         </is>
       </c>
       <c r="C487" t="b">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>toh1075</t>
+          <t>toh957</t>
         </is>
       </c>
       <c r="C488" t="b">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>toh776</t>
+          <t>toh756</t>
         </is>
       </c>
       <c r="C489" t="b">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>toh1076</t>
+          <t>toh759</t>
         </is>
       </c>
       <c r="C490" t="b">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>toh777</t>
+          <t>toh964</t>
         </is>
       </c>
       <c r="C491" t="b">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>toh1011</t>
+          <t>toh760</t>
         </is>
       </c>
       <c r="C492" t="b">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>toh778</t>
+          <t>toh965</t>
         </is>
       </c>
       <c r="C493" t="b">
@@ -7969,7 +7969,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>toh1012</t>
+          <t>toh761</t>
         </is>
       </c>
       <c r="C494" t="b">
@@ -7982,7 +7982,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>toh779</t>
+          <t>toh762</t>
         </is>
       </c>
       <c r="C495" t="b">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>toh1049</t>
+          <t>toh763</t>
         </is>
       </c>
       <c r="C496" t="b">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>toh780</t>
+          <t>toh966</t>
         </is>
       </c>
       <c r="C497" t="b">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>toh1031</t>
+          <t>toh768</t>
         </is>
       </c>
       <c r="C498" t="b">
@@ -8034,7 +8034,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>toh781</t>
+          <t>toh973</t>
         </is>
       </c>
       <c r="C499" t="b">
@@ -8047,7 +8047,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>toh1032</t>
+          <t>toh769</t>
         </is>
       </c>
       <c r="C500" t="b">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>toh782</t>
+          <t>toh971</t>
         </is>
       </c>
       <c r="C501" t="b">
@@ -8073,7 +8073,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>toh1013</t>
+          <t>toh771</t>
         </is>
       </c>
       <c r="C502" t="b">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>toh783</t>
+          <t>toh972</t>
         </is>
       </c>
       <c r="C503" t="b">
@@ -8099,7 +8099,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>toh1060</t>
+          <t>toh775</t>
         </is>
       </c>
       <c r="C504" t="b">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>toh784</t>
+          <t>toh1075</t>
         </is>
       </c>
       <c r="C505" t="b">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>toh1021</t>
+          <t>toh776</t>
         </is>
       </c>
       <c r="C506" t="b">
@@ -8138,7 +8138,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>toh785</t>
+          <t>toh1076</t>
         </is>
       </c>
       <c r="C507" t="b">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>toh1022</t>
+          <t>toh777</t>
         </is>
       </c>
       <c r="C508" t="b">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>toh786</t>
+          <t>toh1011</t>
         </is>
       </c>
       <c r="C509" t="b">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>toh1023</t>
+          <t>toh778</t>
         </is>
       </c>
       <c r="C510" t="b">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>toh787</t>
+          <t>toh1012</t>
         </is>
       </c>
       <c r="C511" t="b">
@@ -8203,7 +8203,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>toh1025</t>
+          <t>toh779</t>
         </is>
       </c>
       <c r="C512" t="b">
@@ -8216,7 +8216,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>toh788</t>
+          <t>toh1049</t>
         </is>
       </c>
       <c r="C513" t="b">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>toh1026</t>
+          <t>toh780</t>
         </is>
       </c>
       <c r="C514" t="b">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>toh789</t>
+          <t>toh1031</t>
         </is>
       </c>
       <c r="C515" t="b">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>toh1027</t>
+          <t>toh781</t>
         </is>
       </c>
       <c r="C516" t="b">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>toh790</t>
+          <t>toh1032</t>
         </is>
       </c>
       <c r="C517" t="b">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>toh1028</t>
+          <t>toh782</t>
         </is>
       </c>
       <c r="C518" t="b">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>toh791</t>
+          <t>toh1013</t>
         </is>
       </c>
       <c r="C519" t="b">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>toh1033</t>
+          <t>toh783</t>
         </is>
       </c>
       <c r="C520" t="b">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>toh792</t>
+          <t>toh1060</t>
         </is>
       </c>
       <c r="C521" t="b">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>toh1034</t>
+          <t>toh784</t>
         </is>
       </c>
       <c r="C522" t="b">
@@ -8346,7 +8346,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>toh793</t>
+          <t>toh1021</t>
         </is>
       </c>
       <c r="C523" t="b">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>toh1029</t>
+          <t>toh785</t>
         </is>
       </c>
       <c r="C524" t="b">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>toh794</t>
+          <t>toh1022</t>
         </is>
       </c>
       <c r="C525" t="b">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>toh1030</t>
+          <t>toh786</t>
         </is>
       </c>
       <c r="C526" t="b">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>toh795</t>
+          <t>toh1023</t>
         </is>
       </c>
       <c r="C527" t="b">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>toh1051</t>
+          <t>toh787</t>
         </is>
       </c>
       <c r="C528" t="b">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>toh796</t>
+          <t>toh1025</t>
         </is>
       </c>
       <c r="C529" t="b">
@@ -8437,7 +8437,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>toh1035</t>
+          <t>toh788</t>
         </is>
       </c>
       <c r="C530" t="b">
@@ -8450,7 +8450,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>toh797</t>
+          <t>toh1026</t>
         </is>
       </c>
       <c r="C531" t="b">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>toh1053</t>
+          <t>toh789</t>
         </is>
       </c>
       <c r="C532" t="b">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>toh798</t>
+          <t>toh1027</t>
         </is>
       </c>
       <c r="C533" t="b">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>toh1054</t>
+          <t>toh790</t>
         </is>
       </c>
       <c r="C534" t="b">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>toh799</t>
+          <t>toh1028</t>
         </is>
       </c>
       <c r="C535" t="b">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>toh1055</t>
+          <t>toh791</t>
         </is>
       </c>
       <c r="C536" t="b">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>toh800</t>
+          <t>toh1033</t>
         </is>
       </c>
       <c r="C537" t="b">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>toh1056</t>
+          <t>toh792</t>
         </is>
       </c>
       <c r="C538" t="b">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>toh801</t>
+          <t>toh1034</t>
         </is>
       </c>
       <c r="C539" t="b">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>toh1057</t>
+          <t>toh793</t>
         </is>
       </c>
       <c r="C540" t="b">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>toh802</t>
+          <t>toh1029</t>
         </is>
       </c>
       <c r="C541" t="b">
@@ -8593,7 +8593,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>toh1058</t>
+          <t>toh794</t>
         </is>
       </c>
       <c r="C542" t="b">
@@ -8606,7 +8606,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>toh803</t>
+          <t>toh1030</t>
         </is>
       </c>
       <c r="C543" t="b">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>toh1050</t>
+          <t>toh795</t>
         </is>
       </c>
       <c r="C544" t="b">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>toh805</t>
+          <t>toh1051</t>
         </is>
       </c>
       <c r="C545" t="b">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>toh806</t>
+          <t>toh796</t>
         </is>
       </c>
       <c r="C546" t="b">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>toh807</t>
+          <t>toh1035</t>
         </is>
       </c>
       <c r="C547" t="b">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>toh808</t>
+          <t>toh797</t>
         </is>
       </c>
       <c r="C548" t="b">
@@ -8684,7 +8684,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>toh811</t>
+          <t>toh1053</t>
         </is>
       </c>
       <c r="C549" t="b">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>toh813</t>
+          <t>toh798</t>
         </is>
       </c>
       <c r="C550" t="b">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>toh1098</t>
+          <t>toh1054</t>
         </is>
       </c>
       <c r="C551" t="b">
@@ -8723,7 +8723,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>toh814</t>
+          <t>toh799</t>
         </is>
       </c>
       <c r="C552" t="b">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>toh1099</t>
+          <t>toh1055</t>
         </is>
       </c>
       <c r="C553" t="b">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>toh815</t>
+          <t>toh800</t>
         </is>
       </c>
       <c r="C554" t="b">
@@ -8762,7 +8762,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>toh816</t>
+          <t>toh1056</t>
         </is>
       </c>
       <c r="C555" t="b">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>toh817</t>
+          <t>toh801</t>
         </is>
       </c>
       <c r="C556" t="b">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>toh1101</t>
+          <t>toh1057</t>
         </is>
       </c>
       <c r="C557" t="b">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>toh818</t>
+          <t>toh802</t>
         </is>
       </c>
       <c r="C558" t="b">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>toh1102</t>
+          <t>toh1058</t>
         </is>
       </c>
       <c r="C559" t="b">
@@ -8827,7 +8827,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>toh819</t>
+          <t>toh803</t>
         </is>
       </c>
       <c r="C560" t="b">
@@ -8840,7 +8840,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>toh1100</t>
+          <t>toh1050</t>
         </is>
       </c>
       <c r="C561" t="b">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>toh820</t>
+          <t>toh805</t>
         </is>
       </c>
       <c r="C562" t="b">
@@ -8866,7 +8866,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>toh821</t>
+          <t>toh806</t>
         </is>
       </c>
       <c r="C563" t="b">
@@ -8879,7 +8879,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>toh1104</t>
+          <t>toh807</t>
         </is>
       </c>
       <c r="C564" t="b">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>toh822</t>
+          <t>toh808</t>
         </is>
       </c>
       <c r="C565" t="b">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>toh1105</t>
+          <t>toh811</t>
         </is>
       </c>
       <c r="C566" t="b">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>toh823</t>
+          <t>toh813</t>
         </is>
       </c>
       <c r="C567" t="b">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>toh1106</t>
+          <t>toh1098</t>
         </is>
       </c>
       <c r="C568" t="b">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>toh824</t>
+          <t>toh814</t>
         </is>
       </c>
       <c r="C569" t="b">
@@ -8957,7 +8957,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>toh825</t>
+          <t>toh1099</t>
         </is>
       </c>
       <c r="C570" t="b">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>toh829</t>
+          <t>toh815</t>
         </is>
       </c>
       <c r="C571" t="b">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>toh830</t>
+          <t>toh816</t>
         </is>
       </c>
       <c r="C572" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>toh831</t>
+          <t>toh817</t>
         </is>
       </c>
       <c r="C573" t="b">
@@ -9009,7 +9009,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>toh832</t>
+          <t>toh1101</t>
         </is>
       </c>
       <c r="C574" t="b">
@@ -9022,7 +9022,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>toh834</t>
+          <t>toh818</t>
         </is>
       </c>
       <c r="C575" t="b">
@@ -9035,7 +9035,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>toh835</t>
+          <t>toh1102</t>
         </is>
       </c>
       <c r="C576" t="b">
@@ -9048,7 +9048,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>toh836</t>
+          <t>toh819</t>
         </is>
       </c>
       <c r="C577" t="b">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>toh837</t>
+          <t>toh1100</t>
         </is>
       </c>
       <c r="C578" t="b">
@@ -9074,7 +9074,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>toh838</t>
+          <t>toh820</t>
         </is>
       </c>
       <c r="C579" t="b">
@@ -9087,7 +9087,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>toh839</t>
+          <t>toh821</t>
         </is>
       </c>
       <c r="C580" t="b">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>toh841-1</t>
+          <t>toh1104</t>
         </is>
       </c>
       <c r="C581" t="b">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>toh841-2</t>
+          <t>toh822</t>
         </is>
       </c>
       <c r="C582" t="b">
@@ -9126,7 +9126,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>toh841-3</t>
+          <t>toh1105</t>
         </is>
       </c>
       <c r="C583" t="b">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>toh841-4</t>
+          <t>toh823</t>
         </is>
       </c>
       <c r="C584" t="b">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>toh841-5</t>
+          <t>toh1106</t>
         </is>
       </c>
       <c r="C585" t="b">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>toh841-6</t>
+          <t>toh824</t>
         </is>
       </c>
       <c r="C586" t="b">
@@ -9178,7 +9178,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>toh841-7</t>
+          <t>toh825</t>
         </is>
       </c>
       <c r="C587" t="b">
@@ -9191,7 +9191,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>toh841-8</t>
+          <t>toh829</t>
         </is>
       </c>
       <c r="C588" t="b">
@@ -9204,11 +9204,11 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>toh841a</t>
+          <t>toh830</t>
         </is>
       </c>
       <c r="C589" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>toh842</t>
+          <t>toh831</t>
         </is>
       </c>
       <c r="C590" t="b">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>toh844</t>
+          <t>toh832</t>
         </is>
       </c>
       <c r="C591" t="b">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>toh845-1</t>
+          <t>toh834</t>
         </is>
       </c>
       <c r="C592" t="b">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>toh845-2</t>
+          <t>toh835</t>
         </is>
       </c>
       <c r="C593" t="b">
@@ -9269,7 +9269,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>toh845-3</t>
+          <t>toh836</t>
         </is>
       </c>
       <c r="C594" t="b">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>toh845-4</t>
+          <t>toh837</t>
         </is>
       </c>
       <c r="C595" t="b">
@@ -9295,7 +9295,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>toh845-5</t>
+          <t>toh838</t>
         </is>
       </c>
       <c r="C596" t="b">
@@ -9308,7 +9308,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>toh846</t>
+          <t>toh839</t>
         </is>
       </c>
       <c r="C597" t="b">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>toh846a</t>
+          <t>toh841-1</t>
         </is>
       </c>
       <c r="C598" t="b">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>toh862</t>
+          <t>toh841-2</t>
         </is>
       </c>
       <c r="C599" t="b">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>toh865</t>
+          <t>toh841-3</t>
         </is>
       </c>
       <c r="C600" t="b">
@@ -9360,7 +9360,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>toh891</t>
+          <t>toh841-4</t>
         </is>
       </c>
       <c r="C601" t="b">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>toh953</t>
+          <t>toh841-5</t>
         </is>
       </c>
       <c r="C602" t="b">
@@ -9386,7 +9386,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>toh987</t>
+          <t>toh841-6</t>
         </is>
       </c>
       <c r="C603" t="b">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>toh1024</t>
+          <t>toh841-7</t>
         </is>
       </c>
       <c r="C604" t="b">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>toh1059</t>
+          <t>toh841-8</t>
         </is>
       </c>
       <c r="C605" t="b">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>toh1059a</t>
+          <t>toh841a</t>
         </is>
       </c>
       <c r="C606" t="b">
@@ -9438,7 +9438,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>toh1066</t>
+          <t>toh842</t>
         </is>
       </c>
       <c r="C607" t="b">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>toh1067</t>
+          <t>toh844</t>
         </is>
       </c>
       <c r="C608" t="b">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>toh1090</t>
+          <t>toh845-1</t>
         </is>
       </c>
       <c r="C609" t="b">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>toh1091</t>
+          <t>toh845-2</t>
         </is>
       </c>
       <c r="C610" t="b">
@@ -9490,7 +9490,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>toh1096</t>
+          <t>toh845-3</t>
         </is>
       </c>
       <c r="C611" t="b">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>toh1107</t>
+          <t>toh845-4</t>
         </is>
       </c>
       <c r="C612" t="b">
@@ -9516,7 +9516,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>toh4568-1</t>
+          <t>toh845-5</t>
         </is>
       </c>
       <c r="C613" t="b">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>toh4568-2</t>
+          <t>toh846</t>
         </is>
       </c>
       <c r="C614" t="b">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>toh4568-3</t>
+          <t>toh846a</t>
         </is>
       </c>
       <c r="C615" t="b">
@@ -9555,7 +9555,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>toh4568-4</t>
+          <t>toh862</t>
         </is>
       </c>
       <c r="C616" t="b">
@@ -9568,10 +9568,231 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
+          <t>toh865</t>
+        </is>
+      </c>
+      <c r="C617" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>toh891</t>
+        </is>
+      </c>
+      <c r="C618" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>toh953</t>
+        </is>
+      </c>
+      <c r="C619" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>toh987</t>
+        </is>
+      </c>
+      <c r="C620" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>toh1024</t>
+        </is>
+      </c>
+      <c r="C621" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>toh1059</t>
+        </is>
+      </c>
+      <c r="C622" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>toh1059a</t>
+        </is>
+      </c>
+      <c r="C623" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>toh1066</t>
+        </is>
+      </c>
+      <c r="C624" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>toh1067</t>
+        </is>
+      </c>
+      <c r="C625" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>toh1090</t>
+        </is>
+      </c>
+      <c r="C626" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>toh1091</t>
+        </is>
+      </c>
+      <c r="C627" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>toh1096</t>
+        </is>
+      </c>
+      <c r="C628" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>toh1107</t>
+        </is>
+      </c>
+      <c r="C629" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>toh4568-1</t>
+        </is>
+      </c>
+      <c r="C630" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>toh4568-2</t>
+        </is>
+      </c>
+      <c r="C631" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>toh4568-3</t>
+        </is>
+      </c>
+      <c r="C632" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>toh4568-4</t>
+        </is>
+      </c>
+      <c r="C633" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
           <t>toh4568-5</t>
         </is>
       </c>
-      <c r="C617" t="b">
+      <c r="C634" t="b">
         <v>0</v>
       </c>
     </row>
@@ -22410,7 +22631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22466,12 +22687,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D51</t>
+          <t>D1-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go cha’i bkod pa bstan pa</t>
+          <t>rab tu ’byung ba’i gzhi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -22481,22 +22702,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P4259</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gö Chödrup</t>
+          <t>Palgyi Lhünpo</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>WA0RK0051</t>
+          <t>WA0RK0001-1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>eft:g-ch-drup</t>
+          <t>eft:palgyi-lh-npo</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -22511,12 +22732,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D84</t>
+          <t>D1-1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bu mo rnam dag dad pas zhus pa</t>
+          <t>rab tu ’byung ba’i gzhi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -22526,27 +22747,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P00KG07267</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gö Chödrup</t>
+          <t>Sarvajñādeva</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>WA0RK0084</t>
+          <t>WA0RK0001-1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>eft:g-ch-drup</t>
+          <t>eft:sarvajnadeva</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -22556,12 +22777,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D119</t>
+          <t>D1-1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>yongs su mya ngan las 'das pa chen po'i mdo/</t>
+          <t>rab tu ’byung ba’i gzhi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -22571,27 +22792,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8211</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>wang phab zhwun (wang phan zhun)</t>
+          <t>Vidyākaraprabha</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>WA0RK0119</t>
+          <t>WA0RK0001-1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>eft:wang-phab-zhwun-wang-phan-zhun-</t>
+          <t>eft:vidyakaraprabha</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -22601,12 +22822,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D119</t>
+          <t>D1-1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>yongs su mya ngan las 'das pa chen po'i mdo/</t>
+          <t>rab tu ’byung ba’i gzhi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -22616,27 +22837,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8249</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>dge ba'i blo gros</t>
+          <t>Dharmākara</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>WA0RK0119</t>
+          <t>WA0RK0001-1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>eft:dge-ba-i-blo-gros</t>
+          <t>eft:dharmakara</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -22646,12 +22867,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D119</t>
+          <t>D1-1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>yongs su mya ngan las 'das pa chen po'i mdo/</t>
+          <t>rab tu ’byung ba’i gzhi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -22661,22 +22882,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8182</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>rgya mtsho'i sde</t>
+          <t>Paltsek</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>WA0RK0119</t>
+          <t>WA0RK0001-1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>eft:rgya-mtsho-i-sde</t>
+          <t>eft:paltsek</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -22691,12 +22912,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D267</t>
+          <t>D1-6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>dpang skong phyag brgya pa</t>
+          <t>sman gyi gzhi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -22706,22 +22927,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P4259</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Thönmi Sambhoṭa</t>
+          <t>Palgyi Lhünpo</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>WA0RK0267</t>
+          <t>WA0RK0001-6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>eft:th-nmi-sambhota</t>
+          <t>eft:palgyi-lh-npo</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -22736,12 +22957,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D287</t>
+          <t>D1-6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>dam pa’i chos dran pa nye bar gzhag pa</t>
+          <t>sman gyi gzhi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -22751,27 +22972,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P00KG07267</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tsultrim Gyaltsen</t>
+          <t>Sarvajñādeva</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>WA0RK0287</t>
+          <t>WA0RK0001-6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>eft:tsultrim-gyaltsen</t>
+          <t>eft:sarvajnadeva</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -22781,12 +23002,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D287</t>
+          <t>D1-6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>dam pa’i chos dran pa nye bar gzhag pa</t>
+          <t>sman gyi gzhi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -22796,27 +23017,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8211</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Shang Buchikpa</t>
+          <t>Vidyākaraprabha</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>WA0RK0287</t>
+          <t>WA0RK0001-6</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>eft:shang-buchikpa</t>
+          <t>eft:vidyakaraprabha</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -22826,12 +23047,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D287</t>
+          <t>D1-6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>dam pa’i chos dran pa nye bar gzhag pa</t>
+          <t>sman gyi gzhi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -22841,27 +23062,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8249</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sherap Ö</t>
+          <t>Dharmākara</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>WA0RK0287</t>
+          <t>WA0RK0001-6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>eft:sherap-</t>
+          <t>eft:dharmakara</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -22871,12 +23092,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D300</t>
+          <t>D1-6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>dge ba’i bshes gnyen bsten pa’i mdo</t>
+          <t>sman gyi gzhi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -22886,27 +23107,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8182</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Paṇḍita Dharmākara</t>
+          <t>Paltsek</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>WA0RK0300</t>
+          <t>WA0RK0001-6</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>eft:pandita-dharmakara</t>
+          <t>eft:paltsek</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -22916,12 +23137,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D300</t>
+          <t>D51</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>dge ba’i bshes gnyen bsten pa’i mdo</t>
+          <t>go cha’i bkod pa bstan pa</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -22936,17 +23157,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lotsāwa Zangkyong (bzang skyong)</t>
+          <t>Gö Chödrup</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>WA0RK0300</t>
+          <t>WA0RK0051</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>eft:lotsawa-zangkyong-bzang-skyong-</t>
+          <t>eft:g-ch-drup</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -22961,12 +23182,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D312</t>
+          <t>D84</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>yangs pa’i grong khyer du ’jug pa’i mdo chen po</t>
+          <t>bu mo rnam dag dad pas zhus pa</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -22976,27 +23197,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>P8228</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Surendrabodhi</t>
+          <t>Gö Chödrup</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>WA0RK0312</t>
+          <t>WA0RK0084</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>eft:surendrabodhi</t>
+          <t>eft:g-ch-drup</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -23006,12 +23227,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D312</t>
+          <t>D119</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>yangs pa’i grong khyer du ’jug pa’i mdo chen po</t>
+          <t>yongs su mya ngan las 'das pa chen po'i mdo/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -23021,22 +23242,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>P8205</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Yeshé Dé</t>
+          <t>wang phab zhwun (wang phan zhun)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>WA0RK0312</t>
+          <t>WA0RK0119</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>eft:yesh-d-</t>
+          <t>eft:wang-phab-zhwun-wang-phan-zhun-</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -23051,12 +23272,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D438</t>
+          <t>D119</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sgrol ma la phyag ’tshal nyi shu rtsa gcig gis bstod pa</t>
+          <t>yongs su mya ngan las 'das pa chen po'i mdo/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -23071,17 +23292,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nyen Lotsawa Darma Drak</t>
+          <t>dge ba'i blo gros</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>WA0RK0438</t>
+          <t>WA0RK0119</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>eft:nyen-lotsawa-darma-drak</t>
+          <t>eft:dge-ba-i-blo-gros</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -23096,12 +23317,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>D674</t>
+          <t>D119</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>tshe dang ye shes dpag tu med pa’i mdo</t>
+          <t>yongs su mya ngan las 'das pa chen po'i mdo/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -23116,17 +23337,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Patsap Nyima Drak [?]</t>
+          <t>rgya mtsho'i sde</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>WA0RK0668</t>
+          <t>WA0RK0119</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>eft:patsap-nyima-drak-</t>
+          <t>eft:rgya-mtsho-i-sde</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -23141,12 +23362,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>D849</t>
+          <t>D267</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>tshe dang ye shes dpag tu med pa’i mdo</t>
+          <t>dpang skong phyag brgya pa</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -23161,17 +23382,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Patsap Nyima Drak [?]</t>
+          <t>Thönmi Sambhoṭa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>WA0RK0668</t>
+          <t>WA0RK0267</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>eft:patsap-nyima-drak-</t>
+          <t>eft:th-nmi-sambhota</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -23186,12 +23407,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D830</t>
+          <t>D287</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ye shes rngam pa glog gi 'khor lo/</t>
+          <t>dam pa’i chos dran pa nye bar gzhag pa</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -23206,22 +23427,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>vajrvisramitra</t>
+          <t>Tsultrim Gyaltsen</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>WA0RK0824</t>
+          <t>WA0RK0287</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>eft:vajrvisramitra</t>
+          <t>eft:tsultrim-gyaltsen</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -23231,40 +23452,490 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>D287</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>dam pa’i chos dran pa nye bar gzhag pa</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Shang Buchikpa</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>WA0RK0287</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>eft:shang-buchikpa</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>D287</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>dam pa’i chos dran pa nye bar gzhag pa</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sherap Ö</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>WA0RK0287</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>eft:sherap-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>D300</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>dge ba’i bshes gnyen bsten pa’i mdo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Paṇḍita Dharmākara</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>WA0RK0300</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>eft:pandita-dharmakara</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>D300</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>dge ba’i bshes gnyen bsten pa’i mdo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Lotsāwa Zangkyong (bzang skyong)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>WA0RK0300</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>eft:lotsawa-zangkyong-bzang-skyong-</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>D312</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>yangs pa’i grong khyer du ’jug pa’i mdo chen po</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>P8228</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Surendrabodhi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>WA0RK0312</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>eft:surendrabodhi</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>D312</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>yangs pa’i grong khyer du ’jug pa’i mdo chen po</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>WA0RK0312</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>D438</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>sgrol ma la phyag ’tshal nyi shu rtsa gcig gis bstod pa</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Nyen Lotsawa Darma Drak</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>WA0RK0438</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>eft:nyen-lotsawa-darma-drak</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>D674</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>tshe dang ye shes dpag tu med pa’i mdo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Patsap Nyima Drak [?]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>WA0RK0668</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>eft:patsap-nyima-drak-</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>D849</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>tshe dang ye shes dpag tu med pa’i mdo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Patsap Nyima Drak [?]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>WA0RK0668</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>eft:patsap-nyima-drak-</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>D830</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>ye shes rngam pa glog gi 'khor lo/</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>translatorTib</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>vajrvisramitra</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>WA0RK0824</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>eft:vajrvisramitra</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>D830</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ye shes rngam pa glog gi 'khor lo/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>vairocanaraksita</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>WA0RK0824</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>eft:vairocanaraksita</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>sa</t>
         </is>

--- a/discrepancies.xlsx
+++ b/discrepancies.xlsx
@@ -1232,7 +1232,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>{'P0TMPT007': ["rgya gar gyi d+harma rgya'i yi ge las ban de rnam par mi rtog", 'rnam par mi rtog pa']}</t>
+          <t>{'P0TMPT007': ["rgya gar gyi d+harma rgya'i yi ge las ban de rnam par mi rtog", 'zhu chen gyi lo tsA ba ban+de rnam par mi rtog pa']}</t>
         </is>
       </c>
     </row>
@@ -22631,7 +22631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23941,6 +23941,7842 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>D1-1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>rab tu ’byung ba’i gzhi</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>P4259</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Palgyi Lhünpo</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>WA0RK0001-1</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>eft:palgyi-lh-npo</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>D1-1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>rab tu ’byung ba’i gzhi</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>P8182</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Paltsek</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>WA0RK0001-1</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>eft:paltsek</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>D1-6</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>sman gyi gzhi</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>P4259</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Palgyi Lhünpo</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>WA0RK0001-6</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>eft:palgyi-lh-npo</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>D1-6</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>sman gyi gzhi</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>P8182</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Paltsek</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>WA0RK0001-6</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>eft:paltsek</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>dge slong ma'i 'dul ba rnam par 'byed pa/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>P00KG07267</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>sarvanyadeva</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>WA0RK0005</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>eft:sarvanyadeva</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>dge slong ma'i 'dul ba rnam par 'byed pa/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>P8211</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>vidyakaraprabha</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>WA0RK0005</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>eft:vidyakaraprabha</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>dge slong ma'i 'dul ba rnam par 'byed pa/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>reviser</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>bidyakaraprabha</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>WA0RK0005</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>eft:bidyakaraprabha</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>'dul ba phran tshegs kyi gzhi/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>P8211</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>vidyakaraprabha</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>WA0RK0006</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>eft:vidyakaraprabha</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>'dul ba phran tshegs kyi gzhi/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>P8171</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>dharmasribhadra</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>WA0RK0006</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>eft:dharmasribhadra</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>shes phyin khri pa</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>P8209</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Jinamitra</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>WA0RK0011</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>eft:jinamitra</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>shes phyin khri pa</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>P2548</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Prajñāvarman</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>WA0RK0011</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>eft:prajnavarman</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>shes phyin khri pa</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>WA0RK0011</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>shes rab kyi pha rol tu phyin pa sdud pa tshigs su bcad pa/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>sakyasena</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>WA0RK0013</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>eft:sakyasena</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>shes rab kyi pha rol tu phyin pa sdud pa tshigs su bcad pa/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>P8222</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>jnanasiddhi</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>WA0RK0013</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>eft:jnanasiddhi</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>shes rab kyi pha rol tu phyin pa sdud pa tshigs su bcad pa/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>P8266</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>dharmatasila</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>WA0RK0013</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>eft:dharmatasila</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>shes rab kyi pha rol tu phyin pa sdud pa tshigs su bcad pa/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>reviser</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>subhasita</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>WA0RK0013</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>eft:subhasita</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>shes rab kyi pha rol tu phyin pa sdud pa tshigs su bcad pa/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>P753</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>rin chen bzang po</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>WA0RK0013</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>eft:rin-chen-bzang-po</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>shes rab kyi pha rol tu phyin pa sdud pa tshigs su bcad pa/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>reviser</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>P3379</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>dipamkarasrijnana</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>WA0RK0013</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>eft:dipamkarasrijnana</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>shes rab kyi pha rol tu phyin pa sdud pa tshigs su bcad pa/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>rin chen bzag po</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>WA0RK0013</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>eft:rin-chen-bzag-po</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>shes rab kyi pha rol tu phyin pa sdud pa tshigs su bcad pa/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>reviser</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>P3379</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>dipamkarasrijnana</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>WA0RK0013</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>eft:dipamkarasrijnana</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>shes rab kyi pha rol tu phyin pa sdud pa tshigs su bcad pa/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>'brom rgyal ba'i 'byung gnas</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>WA0RK0013</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>eft:-brom-rgyal-ba-i-byung-gnas</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>shes rab kyi pha rol tu phyin pa sdud pa tshigs su bcad pa/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>reviser</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>'brom</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>WA0RK0013</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>eft:-brom</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>shes rab kyi pha rol tu phyin pa sdud pa tshigs su bcad pa/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>reviser</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>blo ldan shes rab</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>WA0RK0013</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>eft:blo-ldan-shes-rab</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>D14</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>rab kyi rtsal gyis rnam par gnon pas zhus pa shes rab kyi pha rol phyin pa bstan pa/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>sakyasena</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>WA0RK0014</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>eft:sakyasena</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>D14</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>rab kyi rtsal gyis rnam par gnon pas zhus pa shes rab kyi pha rol phyin pa bstan pa/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>P8222</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>jnanasiddhi</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>WA0RK0014</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>eft:jnanasiddhi</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>D14</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>rab kyi rtsal gyis rnam par gnon pas zhus pa shes rab kyi pha rol phyin pa bstan pa/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>P8266</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>dharmatasila</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>WA0RK0014</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>eft:dharmatasila</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>D14</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>rab kyi rtsal gyis rnam par gnon pas zhus pa shes rab kyi pha rol phyin pa bstan pa/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>reviser</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>subhasita</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>WA0RK0014</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>eft:subhasita</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>D14</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>rab kyi rtsal gyis rnam par gnon pas zhus pa shes rab kyi pha rol phyin pa bstan pa/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>P753</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>rin chen bzang po</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>WA0RK0014</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>eft:rin-chen-bzang-po</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>D14</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>rab kyi rtsal gyis rnam par gnon pas zhus pa shes rab kyi pha rol phyin pa bstan pa/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>reviser</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>P3379</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>dipamkarasrijnana</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>WA0RK0014</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>eft:dipamkarasrijnana</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>D14</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>rab kyi rtsal gyis rnam par gnon pas zhus pa shes rab kyi pha rol phyin pa bstan pa/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>rin chen bzag po</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>WA0RK0014</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>eft:rin-chen-bzag-po</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>D14</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>rab kyi rtsal gyis rnam par gnon pas zhus pa shes rab kyi pha rol phyin pa bstan pa/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>reviser</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>P3379</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>dipamkarasrijnana</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>WA0RK0014</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>eft:dipamkarasrijnana</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>D14</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>rab kyi rtsal gyis rnam par gnon pas zhus pa shes rab kyi pha rol phyin pa bstan pa/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>'brom rgyal ba'i 'byung gnas</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>WA0RK0014</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>eft:-brom-rgyal-ba-i-byung-gnas</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>D14</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>rab kyi rtsal gyis rnam par gnon pas zhus pa shes rab kyi pha rol phyin pa bstan pa/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>reviser</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>'brom</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>WA0RK0014</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>eft:-brom</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>D14</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>rab kyi rtsal gyis rnam par gnon pas zhus pa shes rab kyi pha rol phyin pa bstan pa/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>reviser</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>blo ldan shes rab</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>WA0RK0014</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>eft:blo-ldan-shes-rab</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>D31</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>chos 'khor rab tu bskor ba'i mdo/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>P0TMP092</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>anandasri (s)</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>WA0RK0031</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>eft:anandasri-s-</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>D32</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>skyes pa rabs kyi gleng gzhi/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>P0TMP092</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>anandasri (s)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>WA0RK0032</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>eft:anandasri-s-</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>D46</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>sgo mtha’ yas pa rnam par sbyong ba bstan
+                    pa’i le’u</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>P8182</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kawa Paltsek (under the name Paltsek Rakṣita)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>WA0RK0046</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>eft:kawa-paltsek-under-the-name-paltsek-raksita-</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>D51</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>go cha’i bkod pa bstan pa</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Gö Chödrup</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>WA0RK0051</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>eft:g-ch-drup</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>D52</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>chos dbyings rang bzhin dbyer med bstan pa’i mdo</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>WA0RK0052</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>D54</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>kun nas sgo’i le’u/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>WA0RK0054</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>D62</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>yul ’khor skyong gis zhus pa</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>WA0RK0062</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>D69</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>lhag bsam skul ba</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>WA0RK0069</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>D70</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>lag bzangs kyis zhus pa’i mdo</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>WA0RK0070</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>D78</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>yon tan rin chen me tog kun tu rgyas pas
+                    zhus pa</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>WA0RK0078</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>D83</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>tshong dpon bzang skyong gis zhus pa</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>WA0RK0083</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>D84</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>bu mo rnam dag dad pas zhus pa</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Gö Chödrup</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>WA0RK0084</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>eft:g-ch-drup</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>D85</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>byams pas zhus pa</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>WA0RK0085</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>D86</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>byams pas chos brgyad zhus pa</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>P3214</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Danaśila</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>WA0RK0086</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>eft:danasila</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>D86</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>byams pas chos brgyad zhus pa</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>WA0RK0086</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>D94</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>bskal pa bzang po/ \ \(mdo sde bskal bzang /\)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>P8213</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>t. Vidyākarasiṃha</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>WA0RK0094</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>eft:t-vidyakarasimha</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>D95</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>rgya cher rol pa</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>WA0RK0095</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>D96</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>’jam dpal rnam par rol pa</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>WA0RK0096</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>D97</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>’jam dpal rnam par ’phrul pa’i le’u</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>WA0RK0097</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>D99</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>bcom ldan ’das kyi ye shes rgyas pa’i mdo sde rin po che mtha’ yas pa mthar phyin pa</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>P4255</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Yeshé Nyingpo</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>WA0RK0099</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>eft:yesh-nyingpo</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>D100</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>sangs rgyas thams cad kyi yul la ’jug pa’i ye shes snang ba’i rgyan</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>WA0RK0100</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>D101</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>dge ba’i rtsa ba yongs su ’dzin pa</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>P8263</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Leki Dé</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>WA0RK0101</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>eft:leki-d-</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>D101</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>dge ba’i rtsa ba yongs su ’dzin pa</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>P8217</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Jñānagarbha</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>WA0RK0101</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>eft:jnanagarbha</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>D101</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>dge ba’i rtsa ba yongs su ’dzin pa</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>WA0RK0101</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>D113</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>dam pa’i chos pad ma dkar po</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>P8228</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Surendrabodhi</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>WA0RK0113</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>eft:surendrabodhi</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>D113</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>dam pa’i chos pad ma dkar po</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Yeshé De</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>WA0RK0113</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>eft:yesh-de</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>D527</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>chos thams cad kyi yon tan bkod pa’i rgyal
+                    po</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>WA0RK0114</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>D115</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>bde ba can gyi bkod pa</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Yeshé Dé (ye shes sde)</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>WA0RK0115</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-ye-shes-sde-</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>D116</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>za ma tog bkod pa</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>WA0RK0116</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>D119</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>yongs su mya ngan las 'das pa chen po'i mdo/</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>wang phab zhwun (wang phan zhun)</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>WA0RK0119</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>eft:wang-phab-zhwun-wang-phan-zhun-</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>D119</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>yongs su mya ngan las 'das pa chen po'i mdo/</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>dge ba'i blo gros</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>WA0RK0119</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>eft:dge-ba-i-blo-gros</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>D119</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>yongs su mya ngan las 'das pa chen po'i mdo/</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>rgya mtsho'i sde</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>WA0RK0119</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>eft:rgya-mtsho-i-sde</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>D124</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>dkon mchog ’byung gnas</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>P8209</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Jinamitra</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>WA0RK0124</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>eft:jinamitra</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>D124</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>dkon mchog ’byung gnas</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>P8228</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Surendrabodhi</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>WA0RK0124</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>eft:surendrabodhi</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>D124</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>dkon mchog ’byung gnas</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>WA0RK0124</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>D127</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ting nge ’dzin gyi rgyal po’i mdo</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>P1KG8854</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Śrīlendrabodhi</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>WA0RK0127</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>eft:srilendrabodhi</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>D127</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ting nge ’dzin gyi rgyal po’i mdo</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Lotsawa Bandé Dharmatāśīla</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>WA0RK0127</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>eft:lotsawa-band-dharmatasila</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>D129</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>rab tu zhi ba rnam par nges pa’i cho ’phrul gyi ting nge
+                    ’dzin</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>WA0RK0129</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>D130</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>sgyu ma lta bu’i ting nge ’dzin</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>WA0RK0130</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>D131</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>de bzhin gshegs pa’i ye shes kyi phyag
+                    rgya’i ting nge ’dzin</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>WA0RK0131</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>D134</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>bsod nams thams cad bsdus pa’i ting nge ’dzin</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>WA0RK0134</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>D138</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>rin po che tog gi gzungs</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>P1KG8854</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Śilendrabodhi</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>WA0RK0138</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>eft:silendrabodhi</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>D138</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>rin po che tog gi gzungs</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>WA0RK0138</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>D144</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>theg pa chen po la dad pa rab tu sgom pa</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>WA0RK0144</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>D144</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>theg pa chen po la dad pa rab tu sgom pa</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>P8209</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Jinamitra</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>WA0RK0144</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>eft:jinamitra</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>D144</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>theg pa chen po la dad pa rab tu sgom pa</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>P3214</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Dānaśīla</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>WA0RK0144</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>eft:danasila</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>D145</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>dkon mchog ta la la’i gzungs</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>P8228</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Surendra­bodhi</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>WA0RK0145</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>eft:surendrabodhi</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>D145</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>dkon mchog ta la la’i gzungs</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>WA0RK0145</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>D847</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>dkon mchog ta la la’i gzungs</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>P8228</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Surendra­bodhi</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>WA0RK0145</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>eft:surendrabodhi</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>D847</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>dkon mchog ta la la’i gzungs</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>WA0RK0145</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>D147</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>de bzhin gshegs pa’i snying rje chen po nges par bstan pa/</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>WA0RK0147</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>D150</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>spyan ras gzigs dbang phyug gis zhus pa chos bdun pa</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Gewai Lodrö</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>WA0RK0150</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>eft:gewai-lodr-</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>D151</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>spobs pa’i blo gros kyis zhus pa</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>WA0RK0151</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>D153</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>klu'i rgyal po rgya mtshos zhus pa'i mdo/</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>P2548</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>prajnavarma</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>WA0RK0153</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>eft:prajnavarma</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>D154</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>klu’i rgyal po rgya mtshos zhus pa</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>P3214</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Danasila</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>WA0RK0154</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>eft:danasila</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>D154</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>klu’i rgyal po rgya mtshos zhus pa</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>WA0RK0154</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>D155</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>klu’i rgyal po rgya mtshos zhus pa</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>WA0RK0155</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>D156</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>klu'i rgyal po ma dros pas zhus pa'i mdo/</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>P8209</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>jinamitra</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>WA0RK0156</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>eft:jinamitra</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>D156</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>klu'i rgyal po ma dros pas zhus pa'i mdo/</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>P3214</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>danasila</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>WA0RK0156</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>eft:danasila</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>D159</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>tshangs pas byin gyis zhus pa</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>WA0RK0159</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>D160</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>tshangs pa khyad par sems kyis zhus pa</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>P0RK8</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Dharmapāla</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>WA0RK0160</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>eft:dharmapala</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>D160</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>tshangs pa khyad par sems kyis zhus pa</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Devendrarakṣita</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>WA0RK0160</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>eft:devendraraksita</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>D160</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>tshangs pa khyad par sems kyis zhus pa</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kumārarakṣita</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>WA0RK0160</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>eft:kumararaksita</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>D163</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>rin chen dra ba can gyis zhus pa/</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>P4255</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>t. Jñānagarbha</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>WA0RK0163</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>eft:t-jnanagarbha</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>D164</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>rin chen zla bas zhus pa</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>reviser</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>P8213</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Vidyākarasiṃha</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>WA0RK0164</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>eft:vidyakarasimha</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>D170</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>bram ze mo dpal ldan mas zhus pa'i mdo/</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>P1KG8854</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Śīlendrabodhi</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>WA0RK0170</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>eft:silendrabodhi</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>D171</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>bgres mos zhus pa</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>WA0RK0171</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>D175</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>blo gros mi zad pas bstan pa</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>P8266</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Dharmatāśila</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>WA0RK0175</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>eft:dharmatasila</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>D176</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>dri med grags pas bstan pa</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>P8266</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Chönyi Tsultrim</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>WA0RK0176</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>eft:ch-nyi-tsultrim</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>D178</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>byang chub kyi phyogs bstan pa</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>P8222</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>jnanasidhi</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>WA0RK0178</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>eft:jnanasidhi</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>D182</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>sbyin pa’i pha rol tu phyin pa</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>WA0RK0182</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>D184</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>byang chub sems dpa’i spyod pa bstan pa</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>WA0RK0184</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>D185</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>de bzhin gshegs pa’i yon tan dang ye shes bsam gyis mi khyab pa’i yul la ’jug pa bstan pa</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>WA0RK0185</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>D196</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>’jam dpal gnas pa</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>WA0RK0196</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>D198</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>byams pa ’jug pa</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>WA0RK0198</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>D212</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>rten cing ’brel bar ’byung ba’i mdo</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>WA0RK0212</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>D218</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>las kyi sgrib pa rnam par dag pa</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>WA0RK0218</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>D225</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>gsum la skyabs su ’gro ba</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>P8182</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Paltsek</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>WA0RK0225</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>eft:paltsek</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>D231</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>dkon mchog sprin</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>P8273</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Rinchen Tso</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>WA0RK0231</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>eft:rinchen-tso</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>D231</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>dkon mchog sprin</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>P8266</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Chönyi Tsultrim</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>WA0RK0231</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>eft:ch-nyi-tsultrim</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>D238</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>chos yang dag par sdud pa'i mdo/</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>P4CZ16780</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Mañjuśrīgarbha</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>WA0RK0238</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>eft:manjusrigarbha</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>D240</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>phyir mi ldog pa'i 'khor lo'i mdo/</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>P3214</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>danasila</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>WA0RK0240</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>eft:danasila</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>D242</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>yongs su bsngo ba'i 'khor lo'i mdo/</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://lod.dila.edu.tw/resource.php?id=A000089</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>siladharma</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>WA0RK0242</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>eft:siladharma</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>D244</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>chos kyi tshul</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>WA0RK0244</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>D245</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>chos kyi phung po</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>WA0RK0245</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>D247</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>chos dang don rnam par ’byed pa</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>P3214</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Danaśila</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>WA0RK0247</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>eft:danasila</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>D247</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>chos dang don rnam par ’byed pa</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>WA0RK0247</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>D249</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>chos bzhi bstan pa’i mdo</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>WA0RK0249</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>D267</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>dpang skong phyag brgya pa</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Thönmi Sambhoṭa</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>WA0RK0267</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>eft:th-nmi-sambhota</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>D273</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>sangs rgyas bcu gnyis pa</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>WA0RK0273</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>D511</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>sangs rgyas bcu gnyis pa</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>WA0RK0273</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>D853</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>sangs rgyas bcu gnyis pa</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>WA0RK0273</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>D276</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>sangs rgyas mi spang pa</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>WA0RK0276</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>D287</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>dam pa’i chos dran pa nye bar gzhag pa</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Tsultrim Gyaltsen</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>WA0RK0287</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>eft:tsultrim-gyaltsen</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>D287</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>dam pa’i chos dran pa nye bar gzhag pa</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Shang Buchikpa</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>WA0RK0287</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>eft:shang-buchikpa</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>D287</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>dam pa’i chos dran pa nye bar gzhag pa</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sherap Ö</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>WA0RK0287</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>eft:sherap-</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>D300</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>dge ba’i bshes gnyen bsten pa’i mdo</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Paṇḍita Dharmākara</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>WA0RK0300</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>eft:pandita-dharmakara</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>D300</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>dge ba’i bshes gnyen bsten pa’i mdo</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Lotsāwa Zangkyong (bzang skyong)</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>WA0RK0300</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>eft:lotsawa-zangkyong-bzang-skyong-</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>D307</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>tshe’i mtha’</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Gewé Pal</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>WA0RK0307</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>eft:gew-pal</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>D307</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>tshe’i mtha’</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Bandé Paltsek</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>WA0RK0307</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>eft:band-paltsek</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>D307</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>tshe’i mtha’</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>P8213</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Vidyākarasiṃha</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>WA0RK0307</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>eft:vidyakarasimha</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>D309</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>mi rtag pa nyid kyi mdo</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Zhang Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>WA0RK0309</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>eft:zhang-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>D312</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>yangs pa’i grong khyer du ’jug pa’i mdo chen po</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>P8228</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Surendrabodhi</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>WA0RK0312</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>eft:surendrabodhi</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>D312</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>yangs pa’i grong khyer du ’jug pa’i mdo chen po</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>WA0RK0312</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>D628</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>yangs pa’i grong khyer du ’jug pa’i mdo chen po</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>WA0RK0312</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>D1093</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>yangs pa’i grong khyer du ’jug pa’i mdo chen po</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>WA0RK0312</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>eft:yesh-d-</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>D349</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>dpal gyi sde’i rtogs pa brjod pa</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>P4242</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sherab Lekpa</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>WA0RK0349</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>eft:sherab-lekpa</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>D349</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>dpal gyi sde’i rtogs pa brjod pa</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Rinchen Zangpo</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>WA0RK0349</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>eft:rinchen-zangpo</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>D384</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>dpal gsang ba thams cad gcod pa’i rgyud kyi rgyal po</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>P3285</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Śākya Yeshé</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>WA0RK0384</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>eft:sakya-yesh-</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>D425</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>sgyu ’phrul chen mo’i rgyud</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>P0TMP098</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Jinavara</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>WA0RK0425</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>eft:jinavara</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>D425</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>sgyu ’phrul chen mo’i rgyud</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Gö Lhetsé</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>WA0RK0425</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>eft:g-lhets-</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>D431</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>khro bo chen po’i rgyud</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>P2637</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Trakpa Gyaltsen</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>WA0RK0431</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>eft:trakpa-gyaltsen</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>D438</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>sgrol ma la phyag ’tshal nyi shu rtsa gcig gis bstod pa</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Nyen Lotsawa Darma Drak</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>WA0RK0438</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>eft:nyen-lotsawa-darma-drak</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>D498</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>bcom ldan ’das phyag na rdo rje gos sngon po can gyi rgyud</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>P3709</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Phakpa Sherab</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>WA0RK0497</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>eft:phakpa-sherab</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>D503</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>de bzhin gshegs pa bdun gyi sngon gyi smon lam gyi khyad par rgyas pa</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>WA0RK0502</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>D504</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>bcom ldan ’das sman gyi bla bai Dur+ya’i ’od gyi smon lam gyi khyad par rgyas pa</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>WA0RK0503</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>D513</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>sangs rgyas thams cad kyi yan lag dang ldan pa’i gzungs</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>WA0RK0512</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>D514</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>sangs rgyas snying po’i gzungs kyi chos kyi rnam grangs</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>WA0RK0513</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>D854</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>sangs rgyas snying po’i gzungs kyi chos kyi rnam grangs</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>WA0RK0513</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>D515</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>sangs rgyas kyi snying po’i gzungs</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>WA0RK0514</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>D855</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>sangs rgyas kyi snying po’i gzungs</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>WA0RK0514</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>D543</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>’jam dpal gyi rtsa ba’i rgyud</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>P4CZ15137</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Kumārakalaśa</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>WA0RK0541</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>eft:kumarakalasa</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>D543</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>’jam dpal gyi rtsa ba’i rgyud</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Śākya Lodrö</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>WA0RK0541</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>eft:sakya-lodr-</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>D544</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>dpa’ bo gcig pu grub pa’i rgyud</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>P3379</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Dīpaṃkara Śrījñāna</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>WA0RK0542</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>eft:dipamkara-srijnana</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>D544</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>dpa’ bo gcig pu grub pa’i rgyud</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Géwai Lodrö</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>WA0RK0542</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>eft:g-wai-lodr-</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>D544</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>dpa’ bo gcig pu grub pa’i rgyud</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Tsultrim Gyalwa</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>WA0RK0542</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>eft:tsultrim-gyalwa</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>D558</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>stong chen mo rab tu ’joms pa</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>WA0RK0553</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>D558</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>stong chen mo rab tu ’joms pa</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>P8228</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Surendrabodhi</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>WA0RK0553</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>eft:surendrabodhi</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>D563</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>gsang sngags chen po rjes su ’dzin
+                    pa</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé Dé</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>WA0RK0558</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-d-</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>D859</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>dbang bskur ba'i gzungs/</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>P3214</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>danasila</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>WA0RK0564</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>eft:danasila</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>D674</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>tshe dang ye shes dpag tu med pa’i mdo</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Patsap Nyima Drak [?]</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>WA0RK0668</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>eft:patsap-nyima-drak-</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>D849</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>tshe dang ye shes dpag tu med pa’i mdo</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Patsap Nyima Drak [?]</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>WA0RK0668</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>eft:patsap-nyima-drak-</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>D850</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>tshe dang ye shes dpag tu med pa’i snying po’i gzungs</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>P5651</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>pa tshab nyi ma grags</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>WA0RK0670</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>eft:pa-tshab-nyi-ma-grags</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>D725</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>spyan ras gzigs yum gyi gzungs</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé De</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>WA0RK0719</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-de</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>D909</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>spyan ras gzigs yum gyi gzungs</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>P8209</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Jinamitra</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>WA0RK0719</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>eft:jinamitra</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>D909</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>spyan ras gzigs yum gyi gzungs</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>P8205</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Bandé Yeshé De</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>WA0RK0719</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>eft:band-yesh-de</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>D747</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>’byung po ’dul ba’i rgyud</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>P8245</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Buddhākaravarma</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>WA0RK0741</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>eft:buddhakaravarma</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>D747</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>’byung po ’dul ba’i rgyud</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Chökyi Sherab</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>WA0RK0741</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>eft:ch-kyi-sherab</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>D830</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>ye shes rngam pa glog gi 'khor lo/</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>vajrvisramitra</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>WA0RK0824</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>eft:vajrvisramitra</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>D830</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>ye shes rngam pa glog gi 'khor lo/</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>translatorTib</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>vairocanaraksita</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>WA0RK0824</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>eft:vairocanaraksita</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/discrepancies.xlsx
+++ b/discrepancies.xlsx
@@ -23152,7 +23152,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8221</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -23197,7 +23197,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8221</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -23242,7 +23242,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8276</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -23287,7 +23287,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8278</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -23332,7 +23332,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8277</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -23377,7 +23377,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P5788</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -23422,7 +23422,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P6453</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -23467,7 +23467,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P1321</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>?</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -23557,7 +23557,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8249</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -23602,7 +23602,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P4256</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -23737,7 +23737,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P2614</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -23782,7 +23782,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P5651</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -23827,7 +23827,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P5651</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -23872,7 +23872,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>?</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P4CZ15308</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8211</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -24637,7 +24637,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8280</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -24772,7 +24772,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P753</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -24862,7 +24862,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P2557</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -24907,7 +24907,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P2557</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -24952,7 +24952,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P2551</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -25132,7 +25132,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8280</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -25267,7 +25267,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P753</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -25357,7 +25357,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P2557</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -25402,7 +25402,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P2557</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -25447,7 +25447,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P2551</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -25628,7 +25628,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8221</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -25989,7 +25989,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8221</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -26619,7 +26619,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8205</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -26800,7 +26800,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8276</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -26845,7 +26845,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8278</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -26890,7 +26890,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8277</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -27115,7 +27115,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8266</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -27792,7 +27792,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8278</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -28242,7 +28242,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8212</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -28287,7 +28287,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8271</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -29457,7 +29457,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P5788</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -29682,7 +29682,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P6453</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -29727,7 +29727,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P1321</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -29772,7 +29772,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>?</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -29817,7 +29817,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8249</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -29862,7 +29862,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P4256</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -29907,7 +29907,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P4263</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -29952,7 +29952,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8182</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -30312,7 +30312,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P753</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -30447,7 +30447,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P3458</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -30537,7 +30537,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P2614</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -30987,7 +30987,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P8216</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -31077,7 +31077,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P1242</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -31122,7 +31122,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P3456</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -31348,7 +31348,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P5651</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -31393,7 +31393,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P5651</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -31663,7 +31663,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P3890</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -31708,7 +31708,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>?</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -31753,7 +31753,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>P4CZ15308</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
